--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonier\Desktop\Other\Study\R&amp;S+Security+SDN\NPDESI\Vocabulary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B6E639BD-E413-48FF-AA51-A021220BD5C5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18045" windowHeight="6585"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="258">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -775,12 +776,30 @@
   </si>
   <si>
     <t>NPDESI EnEn</t>
+  </si>
+  <si>
+    <t>What does "#include &lt;stdio.h&gt;" mean? (Start with "include…")</t>
+  </si>
+  <si>
+    <t>include information about standard library</t>
+  </si>
+  <si>
+    <t>define a function named main that receives no argument values</t>
+  </si>
+  <si>
+    <t>What does "main()" mean here: "main() {printf("heesdfasfasdello, ");printf("world");}"?  (Start with define a…")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What does "printf("hello, world\n");"mean here: "main() {printf("heesdfasfasdello, ");printf("world");}"? (Start with main </t>
+  </si>
+  <si>
+    <t>main calls library function printf to print this sequence of characters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1178,22 +1197,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D125"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="91" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="108.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="108.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
         <v>251</v>
       </c>
@@ -1203,7 +1222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1217,7 +1236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1231,7 +1250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1243,7 +1262,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1257,7 +1276,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1271,7 +1290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1285,7 +1304,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1296,7 +1315,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1307,7 +1326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1318,7 +1337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1326,7 +1345,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1334,7 +1353,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -1342,7 +1361,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -1350,7 +1369,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -1358,7 +1377,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -1366,7 +1385,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -1374,7 +1393,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -1382,7 +1401,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -1390,7 +1409,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -1398,7 +1417,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -1406,7 +1425,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -1414,7 +1433,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1422,7 +1441,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1430,7 +1449,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -1438,7 +1457,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -1446,7 +1465,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -1454,7 +1473,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -1462,7 +1481,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -1470,7 +1489,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -1478,7 +1497,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -1486,7 +1505,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -1494,7 +1513,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -1502,7 +1521,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -1510,7 +1529,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -1518,7 +1537,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -1526,7 +1545,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -1534,7 +1553,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -1542,7 +1561,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -1550,7 +1569,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -1558,7 +1577,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -1566,7 +1585,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -1574,7 +1593,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -1582,7 +1601,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -1590,7 +1609,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -1598,7 +1617,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -1606,7 +1625,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -1614,7 +1633,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -1622,7 +1641,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -1630,7 +1649,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -1638,7 +1657,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -1646,7 +1665,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -1654,7 +1673,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -1662,7 +1681,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -1670,7 +1689,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -1678,7 +1697,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -1686,7 +1705,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -1694,7 +1713,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -1702,7 +1721,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -1710,7 +1729,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -1718,7 +1737,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -1726,7 +1745,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -1734,7 +1753,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -1742,7 +1761,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
         <v>127</v>
       </c>
@@ -1750,7 +1769,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -1758,7 +1777,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -1766,7 +1785,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -1774,7 +1793,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A68" t="s">
         <v>135</v>
       </c>
@@ -1782,7 +1801,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
         <v>137</v>
       </c>
@@ -1790,7 +1809,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -1798,7 +1817,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -1806,7 +1825,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A72" t="s">
         <v>143</v>
       </c>
@@ -1814,7 +1833,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A73" t="s">
         <v>145</v>
       </c>
@@ -1822,7 +1841,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -1830,7 +1849,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -1838,7 +1857,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A76" t="s">
         <v>151</v>
       </c>
@@ -1846,7 +1865,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -1854,7 +1873,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -1862,7 +1881,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -1870,7 +1889,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A80" t="s">
         <v>159</v>
       </c>
@@ -1878,7 +1897,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -1886,7 +1905,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -1894,7 +1913,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A83" t="s">
         <v>164</v>
       </c>
@@ -1902,7 +1921,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A84" t="s">
         <v>165</v>
       </c>
@@ -1910,7 +1929,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A85" t="s">
         <v>167</v>
       </c>
@@ -1918,7 +1937,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A86" t="s">
         <v>169</v>
       </c>
@@ -1926,7 +1945,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A87" t="s">
         <v>171</v>
       </c>
@@ -1934,7 +1953,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A88" t="s">
         <v>173</v>
       </c>
@@ -1942,7 +1961,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A89" t="s">
         <v>175</v>
       </c>
@@ -1950,7 +1969,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A90" t="s">
         <v>177</v>
       </c>
@@ -1958,7 +1977,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A91" t="s">
         <v>179</v>
       </c>
@@ -1966,7 +1985,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A92" t="s">
         <v>181</v>
       </c>
@@ -1974,7 +1993,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A93" t="s">
         <v>183</v>
       </c>
@@ -1982,7 +2001,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A94" t="s">
         <v>185</v>
       </c>
@@ -1990,7 +2009,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A95" t="s">
         <v>187</v>
       </c>
@@ -1998,7 +2017,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A96" t="s">
         <v>189</v>
       </c>
@@ -2006,7 +2025,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A97" t="s">
         <v>191</v>
       </c>
@@ -2014,7 +2033,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A98" t="s">
         <v>193</v>
       </c>
@@ -2022,7 +2041,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A99" t="s">
         <v>195</v>
       </c>
@@ -2030,7 +2049,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A100" t="s">
         <v>197</v>
       </c>
@@ -2038,7 +2057,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A101" t="s">
         <v>199</v>
       </c>
@@ -2046,7 +2065,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A102" t="s">
         <v>201</v>
       </c>
@@ -2054,7 +2073,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A103" t="s">
         <v>203</v>
       </c>
@@ -2062,7 +2081,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A104" t="s">
         <v>205</v>
       </c>
@@ -2070,7 +2089,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A105" t="s">
         <v>207</v>
       </c>
@@ -2078,7 +2097,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A106" t="s">
         <v>209</v>
       </c>
@@ -2086,7 +2105,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A107" t="s">
         <v>211</v>
       </c>
@@ -2094,7 +2113,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A108" t="s">
         <v>213</v>
       </c>
@@ -2102,7 +2121,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A109" t="s">
         <v>215</v>
       </c>
@@ -2110,7 +2129,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A110" t="s">
         <v>217</v>
       </c>
@@ -2118,7 +2137,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A111" t="s">
         <v>219</v>
       </c>
@@ -2126,7 +2145,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A112" t="s">
         <v>221</v>
       </c>
@@ -2134,7 +2153,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A113" t="s">
         <v>223</v>
       </c>
@@ -2142,7 +2161,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A114" t="s">
         <v>225</v>
       </c>
@@ -2150,7 +2169,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A115" t="s">
         <v>227</v>
       </c>
@@ -2158,7 +2177,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A116" t="s">
         <v>229</v>
       </c>
@@ -2166,7 +2185,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A117" t="s">
         <v>231</v>
       </c>
@@ -2174,7 +2193,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A118" t="s">
         <v>233</v>
       </c>
@@ -2182,7 +2201,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A119" t="s">
         <v>235</v>
       </c>
@@ -2190,7 +2209,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A120" t="s">
         <v>237</v>
       </c>
@@ -2198,7 +2217,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A121" t="s">
         <v>239</v>
       </c>
@@ -2206,7 +2225,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A122" t="s">
         <v>241</v>
       </c>
@@ -2214,7 +2233,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A123" t="s">
         <v>243</v>
       </c>
@@ -2222,7 +2241,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A124" t="s">
         <v>245</v>
       </c>
@@ -2230,12 +2249,36 @@
         <v>246</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A125" t="s">
         <v>247</v>
       </c>
       <c r="C125" t="s">
         <v>248</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A126" t="s">
+        <v>252</v>
+      </c>
+      <c r="C126" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A127" t="s">
+        <v>255</v>
+      </c>
+      <c r="C127" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A128" t="s">
+        <v>256</v>
+      </c>
+      <c r="C128" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B6E639BD-E413-48FF-AA51-A021220BD5C5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E96ADF33-D38A-4751-9734-298F2CBD2710}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2268" windowWidth="18048" windowHeight="6588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="261">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -794,6 +794,15 @@
   </si>
   <si>
     <t>main calls library function printf to print this sequence of characters</t>
+  </si>
+  <si>
+    <t>What are the tokens in C? (ends up with "s")</t>
+  </si>
+  <si>
+    <t>keywords, identifiers, constants, strings, special symbols, operators</t>
+  </si>
+  <si>
+    <t>Break down the following statement:</t>
   </si>
 </sst>
 </file>
@@ -1198,21 +1207,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D128"/>
+  <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A124" sqref="A124"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="91" customWidth="1"/>
-    <col min="2" max="2" width="14.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="108.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="108.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>251</v>
       </c>
@@ -1222,7 +1231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1236,7 +1245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1250,7 +1259,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1262,7 +1271,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1276,7 +1285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1290,7 +1299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1304,7 +1313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1315,7 +1324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1326,7 +1335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,7 +1346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1345,7 +1354,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1353,7 +1362,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -1361,7 +1370,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -1369,7 +1378,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -1377,7 +1386,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -1385,7 +1394,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -1393,7 +1402,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -1401,7 +1410,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -1409,7 +1418,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -1417,7 +1426,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -1425,7 +1434,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -1433,7 +1442,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1441,7 +1450,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1449,7 +1458,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -1457,7 +1466,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -1465,7 +1474,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -1473,7 +1482,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -1481,7 +1490,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -1489,7 +1498,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -1497,7 +1506,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -1505,7 +1514,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -1513,7 +1522,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -1521,7 +1530,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -1529,7 +1538,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -1537,7 +1546,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -1545,7 +1554,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -1553,7 +1562,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -1561,7 +1570,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -1569,7 +1578,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -1577,7 +1586,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -1585,7 +1594,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -1593,7 +1602,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -1601,7 +1610,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -1609,7 +1618,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -1617,7 +1626,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -1625,7 +1634,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -1633,7 +1642,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -1641,7 +1650,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -1649,7 +1658,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -1657,7 +1666,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -1665,7 +1674,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -1673,7 +1682,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -1681,7 +1690,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -1689,7 +1698,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -1697,7 +1706,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -1705,7 +1714,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -1713,7 +1722,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -1721,7 +1730,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -1729,7 +1738,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -1737,7 +1746,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -1745,7 +1754,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -1753,7 +1762,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -1761,7 +1770,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>127</v>
       </c>
@@ -1769,7 +1778,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -1777,7 +1786,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -1785,7 +1794,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -1793,7 +1802,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>135</v>
       </c>
@@ -1801,7 +1810,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>137</v>
       </c>
@@ -1809,7 +1818,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -1817,7 +1826,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -1825,7 +1834,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>143</v>
       </c>
@@ -1833,7 +1842,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>145</v>
       </c>
@@ -1841,7 +1850,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -1849,7 +1858,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -1857,7 +1866,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>151</v>
       </c>
@@ -1865,7 +1874,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -1873,7 +1882,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -1881,7 +1890,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -1889,7 +1898,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>159</v>
       </c>
@@ -1897,7 +1906,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -1905,7 +1914,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -1913,7 +1922,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>164</v>
       </c>
@@ -1921,7 +1930,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>165</v>
       </c>
@@ -1929,7 +1938,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>167</v>
       </c>
@@ -1937,7 +1946,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>169</v>
       </c>
@@ -1945,7 +1954,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>171</v>
       </c>
@@ -1953,7 +1962,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>173</v>
       </c>
@@ -1961,7 +1970,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>175</v>
       </c>
@@ -1969,7 +1978,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>177</v>
       </c>
@@ -1977,7 +1986,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>179</v>
       </c>
@@ -1985,7 +1994,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>181</v>
       </c>
@@ -1993,7 +2002,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>183</v>
       </c>
@@ -2001,7 +2010,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>185</v>
       </c>
@@ -2009,7 +2018,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>187</v>
       </c>
@@ -2017,7 +2026,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>189</v>
       </c>
@@ -2025,7 +2034,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>191</v>
       </c>
@@ -2033,7 +2042,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>193</v>
       </c>
@@ -2041,7 +2050,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>195</v>
       </c>
@@ -2049,7 +2058,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>197</v>
       </c>
@@ -2057,7 +2066,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>199</v>
       </c>
@@ -2065,7 +2074,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>201</v>
       </c>
@@ -2073,7 +2082,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>203</v>
       </c>
@@ -2081,7 +2090,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>205</v>
       </c>
@@ -2089,7 +2098,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>207</v>
       </c>
@@ -2097,7 +2106,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>209</v>
       </c>
@@ -2105,7 +2114,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>211</v>
       </c>
@@ -2113,7 +2122,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>213</v>
       </c>
@@ -2121,7 +2130,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>215</v>
       </c>
@@ -2129,7 +2138,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>217</v>
       </c>
@@ -2137,7 +2146,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>219</v>
       </c>
@@ -2145,7 +2154,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>221</v>
       </c>
@@ -2153,7 +2162,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>223</v>
       </c>
@@ -2161,7 +2170,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>225</v>
       </c>
@@ -2169,7 +2178,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>227</v>
       </c>
@@ -2177,7 +2186,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>229</v>
       </c>
@@ -2185,7 +2194,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>231</v>
       </c>
@@ -2193,7 +2202,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>233</v>
       </c>
@@ -2201,7 +2210,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>235</v>
       </c>
@@ -2209,7 +2218,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>237</v>
       </c>
@@ -2217,7 +2226,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>239</v>
       </c>
@@ -2225,7 +2234,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>241</v>
       </c>
@@ -2233,7 +2242,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>243</v>
       </c>
@@ -2241,7 +2250,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>245</v>
       </c>
@@ -2249,7 +2258,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>247</v>
       </c>
@@ -2257,28 +2266,41 @@
         <v>248</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
+        <v>258</v>
+      </c>
+      <c r="C126" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" t="s">
         <v>252</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C127" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A127" t="s">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" t="s">
         <v>255</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C128" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A128" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" t="s">
         <v>256</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C129" t="s">
         <v>257</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E96ADF33-D38A-4751-9734-298F2CBD2710}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A53F4866-B3BA-4A19-823E-89E0FD1CC794}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2268" windowWidth="18048" windowHeight="6588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2724" windowWidth="18048" windowHeight="6588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="262">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -803,6 +803,9 @@
   </si>
   <si>
     <t>Break down the following statement:</t>
+  </si>
+  <si>
+    <t>can the canner can a can if a canner can a can</t>
   </si>
 </sst>
 </file>
@@ -1210,7 +1213,7 @@
   <dimension ref="A1:D130"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B130" sqref="B130"/>
+      <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.55000000000000004"/>
@@ -2302,6 +2305,9 @@
       <c r="A130" t="s">
         <v>260</v>
       </c>
+      <c r="C130" t="s">
+        <v>261</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A53F4866-B3BA-4A19-823E-89E0FD1CC794}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{23446D55-E6E5-4A2D-9CE0-D44020251F98}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2724" windowWidth="18048" windowHeight="6588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3180" windowWidth="18048" windowHeight="6588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="260">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -778,21 +778,12 @@
     <t>NPDESI EnEn</t>
   </si>
   <si>
-    <t>What does "#include &lt;stdio.h&gt;" mean? (Start with "include…")</t>
-  </si>
-  <si>
     <t>include information about standard library</t>
   </si>
   <si>
     <t>define a function named main that receives no argument values</t>
   </si>
   <si>
-    <t>What does "main()" mean here: "main() {printf("heesdfasfasdello, ");printf("world");}"?  (Start with define a…")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What does "printf("hello, world\n");"mean here: "main() {printf("heesdfasfasdello, ");printf("world");}"? (Start with main </t>
-  </si>
-  <si>
     <t>main calls library function printf to print this sequence of characters</t>
   </si>
   <si>
@@ -802,10 +793,13 @@
     <t>keywords, identifiers, constants, strings, special symbols, operators</t>
   </si>
   <si>
-    <t>Break down the following statement:</t>
-  </si>
-  <si>
-    <t>can the canner can a can if a canner can a can</t>
+    <t xml:space="preserve">Break down the first part of the following statement: "#include &lt;stdio.h&gt;      main()       { printf("hello, world\n"); }"? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Break down the second part of the following statement: "#include &lt;stdio.h&gt;        main()        { printf("hello, world\n"); }"? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Break down the third part of the following statement: "#include &lt;stdio.h&gt;          main()          { printf("hello, world\n"); }"? </t>
   </si>
 </sst>
 </file>
@@ -1210,9 +1204,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D130"/>
+  <dimension ref="A1:D129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
       <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
@@ -2271,42 +2265,34 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C126" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
+        <v>257</v>
+      </c>
+      <c r="C127" t="s">
         <v>252</v>
-      </c>
-      <c r="C127" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C128" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C129" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A130" t="s">
-        <v>260</v>
-      </c>
-      <c r="C130" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{23446D55-E6E5-4A2D-9CE0-D44020251F98}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{708097AD-7B0D-4074-92C1-1081BC22DD3F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3180" windowWidth="18048" windowHeight="6588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3636" windowWidth="18048" windowHeight="6588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -787,19 +787,19 @@
     <t>main calls library function printf to print this sequence of characters</t>
   </si>
   <si>
-    <t>What are the tokens in C? (ends up with "s")</t>
-  </si>
-  <si>
     <t>keywords, identifiers, constants, strings, special symbols, operators</t>
   </si>
   <si>
-    <t xml:space="preserve">Break down the first part of the following statement: "#include &lt;stdio.h&gt;      main()       { printf("hello, world\n"); }"? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Break down the second part of the following statement: "#include &lt;stdio.h&gt;        main()        { printf("hello, world\n"); }"? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Break down the third part of the following statement: "#include &lt;stdio.h&gt;          main()          { printf("hello, world\n"); }"? </t>
+    <t>C - What are the tokens in C? (ends up with "s")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C - Break down the first part of the following statement: "#include &lt;stdio.h&gt;      main()       { printf("hello, world\n"); }"? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C - Break down the second part of the following statement: "#include &lt;stdio.h&gt;        main()        { printf("hello, world\n"); }"? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C - Break down the third part of the following statement: "#include &lt;stdio.h&gt;          main()          { printf("hello, world\n"); }"? </t>
   </si>
 </sst>
 </file>
@@ -1207,7 +1207,7 @@
   <dimension ref="A1:D129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+      <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.55000000000000004"/>
@@ -2265,10 +2265,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
+        <v>256</v>
+      </c>
+      <c r="C126" t="s">
         <v>255</v>
-      </c>
-      <c r="C126" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{708097AD-7B0D-4074-92C1-1081BC22DD3F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3EF8972F-5F54-40D6-9471-EA4F908C28E5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3636" windowWidth="18048" windowHeight="6588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4092" windowWidth="18048" windowHeight="6588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -781,12 +781,6 @@
     <t>include information about standard library</t>
   </si>
   <si>
-    <t>define a function named main that receives no argument values</t>
-  </si>
-  <si>
-    <t>main calls library function printf to print this sequence of characters</t>
-  </si>
-  <si>
     <t>keywords, identifiers, constants, strings, special symbols, operators</t>
   </si>
   <si>
@@ -800,6 +794,12 @@
   </si>
   <si>
     <t xml:space="preserve">C - Break down the third part of the following statement: "#include &lt;stdio.h&gt;          main()          { printf("hello, world\n"); }"? </t>
+  </si>
+  <si>
+    <t>the function main calls the library function printf to print this sequence of characters</t>
+  </si>
+  <si>
+    <t>define the function main that receives no argument values</t>
   </si>
 </sst>
 </file>
@@ -1206,8 +1206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127"/>
+    <sheetView tabSelected="1" topLeftCell="B117" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.55000000000000004"/>
@@ -2265,15 +2265,15 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C126" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C127" t="s">
         <v>252</v>
@@ -2281,18 +2281,18 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C128" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C129" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3EF8972F-5F54-40D6-9471-EA4F908C28E5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{265B575E-8BA1-4798-BFA5-02A2BA1BB2EC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4092" windowWidth="18048" windowHeight="6588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4548" windowWidth="18048" windowHeight="6588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -781,12 +781,6 @@
     <t>include information about standard library</t>
   </si>
   <si>
-    <t>keywords, identifiers, constants, strings, special symbols, operators</t>
-  </si>
-  <si>
-    <t>C - What are the tokens in C? (ends up with "s")</t>
-  </si>
-  <si>
     <t xml:space="preserve">C - Break down the first part of the following statement: "#include &lt;stdio.h&gt;      main()       { printf("hello, world\n"); }"? </t>
   </si>
   <si>
@@ -800,6 +794,12 @@
   </si>
   <si>
     <t>define the function main that receives no argument values</t>
+  </si>
+  <si>
+    <t>C - What are the tokens in C? (provide an example for each token within () and end each token with "s")</t>
+  </si>
+  <si>
+    <t>keywords(int,while) , identifiers(main,total), constants(10,20), strings("new","hello"), special symbols({}), operators(+,/,-*)</t>
   </si>
 </sst>
 </file>
@@ -1207,7 +1207,7 @@
   <dimension ref="A1:D129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B117" workbookViewId="0">
-      <selection activeCell="C127" sqref="C127"/>
+      <selection activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.55000000000000004"/>
@@ -2265,15 +2265,15 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C126" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C127" t="s">
         <v>252</v>
@@ -2281,18 +2281,18 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C128" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C129" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{265B575E-8BA1-4798-BFA5-02A2BA1BB2EC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DD87121E-9BE6-49DF-8A6D-BE413BF00A5A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4548" windowWidth="18048" windowHeight="6588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5004" windowWidth="18048" windowHeight="6588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -781,25 +781,25 @@
     <t>include information about standard library</t>
   </si>
   <si>
-    <t xml:space="preserve">C - Break down the first part of the following statement: "#include &lt;stdio.h&gt;      main()       { printf("hello, world\n"); }"? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C - Break down the second part of the following statement: "#include &lt;stdio.h&gt;        main()        { printf("hello, world\n"); }"? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C - Break down the third part of the following statement: "#include &lt;stdio.h&gt;          main()          { printf("hello, world\n"); }"? </t>
-  </si>
-  <si>
     <t>the function main calls the library function printf to print this sequence of characters</t>
   </si>
   <si>
     <t>define the function main that receives no argument values</t>
   </si>
   <si>
-    <t>C - What are the tokens in C? (provide an example for each token within () and end each token with "s")</t>
-  </si>
-  <si>
     <t>keywords(int,while) , identifiers(main,total), constants(10,20), strings("new","hello"), special symbols({}), operators(+,/,-*)</t>
+  </si>
+  <si>
+    <t>C | What are the tokens in C? (provide an example for each token within () and end each token with "s")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C | Break down the first part of the following statement: "#include &lt;stdio.h&gt;      main()       { printf("hello, world\n"); }"? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C | Break down the second part of the following statement: "#include &lt;stdio.h&gt;        main()        { printf("hello, world\n"); }"? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C | Break down the third part of the following statement: "#include &lt;stdio.h&gt;          main()          { printf("hello, world\n"); }"? </t>
   </si>
 </sst>
 </file>
@@ -1206,8 +1206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B117" workbookViewId="0">
-      <selection activeCell="C126" sqref="C126"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.55000000000000004"/>
@@ -2265,15 +2265,15 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C126" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C127" t="s">
         <v>252</v>
@@ -2281,18 +2281,18 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
+        <v>258</v>
+      </c>
+      <c r="C128" t="s">
         <v>254</v>
-      </c>
-      <c r="C128" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C129" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DD87121E-9BE6-49DF-8A6D-BE413BF00A5A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0481BA33-F973-497B-AAB6-B2EAC4CF9AC7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5004" windowWidth="18048" windowHeight="6588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5460" windowWidth="18048" windowHeight="6588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="261">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -800,6 +800,9 @@
   </si>
   <si>
     <t xml:space="preserve">C | Break down the third part of the following statement: "#include &lt;stdio.h&gt;          main()          { printf("hello, world\n"); }"? </t>
+  </si>
+  <si>
+    <t>What are the keywords in C - part 1?</t>
   </si>
 </sst>
 </file>
@@ -1204,10 +1207,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D129"/>
+  <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127"/>
+    <sheetView tabSelected="1" topLeftCell="B117" workbookViewId="0">
+      <selection activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.55000000000000004"/>
@@ -2295,6 +2298,11 @@
         <v>253</v>
       </c>
     </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" t="s">
+        <v>260</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonier\Desktop\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0481BA33-F973-497B-AAB6-B2EAC4CF9AC7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5460" windowWidth="18048" windowHeight="6588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5460" windowWidth="18045" windowHeight="6585"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="272">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -802,13 +801,46 @@
     <t xml:space="preserve">C | Break down the third part of the following statement: "#include &lt;stdio.h&gt;          main()          { printf("hello, world\n"); }"? </t>
   </si>
   <si>
-    <t>What are the keywords in C - part 1?</t>
+    <t>auto break case char const continue default do double else enum</t>
+  </si>
+  <si>
+    <t>C | What are the keywords in C - part 1? (separate by comma)</t>
+  </si>
+  <si>
+    <t>C | What are the keywords in C - part 2? (separate by comma)</t>
+  </si>
+  <si>
+    <t>C | What are the keywords in C - part 3? (separate by comma)</t>
+  </si>
+  <si>
+    <t>C | What are the keywords in C - part 4? (separate by comma)</t>
+  </si>
+  <si>
+    <t>extern float for goto if inline int long register restrict return</t>
+  </si>
+  <si>
+    <t>short signed sizeof static struct switch typedef union unsigned void volatile</t>
+  </si>
+  <si>
+    <t>while _Alignas _Alignof _Atomic _Bool _Complex _Generic _Imaginary _Noreturn _Static_assert _Thread_local</t>
+  </si>
+  <si>
+    <t>the shell searches for an executable file with that name</t>
+  </si>
+  <si>
+    <t>What does the command shell do when you type in the command name a.out into the terminal and hit Enter? (start with "the shell") - Part 1</t>
+  </si>
+  <si>
+    <t>What does the command shell do when you type in the command name a.out into the terminal and hit Enter?  - Part 2</t>
+  </si>
+  <si>
+    <t>it performs this search using a list of directory names stored in your $PATH environment variable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1206,22 +1238,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D130"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B117" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="A135" sqref="A135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="91" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="108.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="108.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>251</v>
       </c>
@@ -1231,7 +1263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1245,7 +1277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1259,7 +1291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1271,7 +1303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1285,7 +1317,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1299,7 +1331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,7 +1345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1324,7 +1356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1335,7 +1367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1346,7 +1378,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1354,7 +1386,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1362,7 +1394,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -1370,7 +1402,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -1378,7 +1410,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -1386,7 +1418,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -1394,7 +1426,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -1402,7 +1434,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -1410,7 +1442,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -1418,7 +1450,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -1426,7 +1458,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -1434,7 +1466,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -1442,7 +1474,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1450,7 +1482,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1458,7 +1490,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -1466,7 +1498,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -1474,7 +1506,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -1482,7 +1514,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -1490,7 +1522,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -1498,7 +1530,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -1506,7 +1538,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -1514,7 +1546,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -1522,7 +1554,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -1530,7 +1562,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -1538,7 +1570,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -1546,7 +1578,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -1554,7 +1586,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -1562,7 +1594,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -1570,7 +1602,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -1578,7 +1610,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -1586,7 +1618,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -1594,7 +1626,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -1602,7 +1634,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -1610,7 +1642,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -1618,7 +1650,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -1626,7 +1658,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -1634,7 +1666,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -1642,7 +1674,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -1650,7 +1682,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -1658,7 +1690,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -1666,7 +1698,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -1674,7 +1706,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -1682,7 +1714,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -1690,7 +1722,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -1698,7 +1730,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -1706,7 +1738,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -1714,7 +1746,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -1722,7 +1754,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -1730,7 +1762,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -1738,7 +1770,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -1746,7 +1778,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -1754,7 +1786,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -1762,7 +1794,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -1770,7 +1802,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>127</v>
       </c>
@@ -1778,7 +1810,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -1786,7 +1818,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -1794,7 +1826,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -1802,7 +1834,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>135</v>
       </c>
@@ -1810,7 +1842,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>137</v>
       </c>
@@ -1818,7 +1850,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -1826,7 +1858,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -1834,7 +1866,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>143</v>
       </c>
@@ -1842,7 +1874,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>145</v>
       </c>
@@ -1850,7 +1882,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -1858,7 +1890,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -1866,7 +1898,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>151</v>
       </c>
@@ -1874,7 +1906,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -1882,7 +1914,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -1890,7 +1922,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -1898,7 +1930,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>159</v>
       </c>
@@ -1906,7 +1938,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -1914,7 +1946,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -1922,7 +1954,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>164</v>
       </c>
@@ -1930,7 +1962,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>165</v>
       </c>
@@ -1938,7 +1970,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>167</v>
       </c>
@@ -1946,7 +1978,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>169</v>
       </c>
@@ -1954,7 +1986,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>171</v>
       </c>
@@ -1962,7 +1994,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>173</v>
       </c>
@@ -1970,7 +2002,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>175</v>
       </c>
@@ -1978,7 +2010,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>177</v>
       </c>
@@ -1986,7 +2018,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>179</v>
       </c>
@@ -1994,7 +2026,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>181</v>
       </c>
@@ -2002,7 +2034,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>183</v>
       </c>
@@ -2010,7 +2042,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>185</v>
       </c>
@@ -2018,7 +2050,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>187</v>
       </c>
@@ -2026,7 +2058,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>189</v>
       </c>
@@ -2034,7 +2066,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>191</v>
       </c>
@@ -2042,7 +2074,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>193</v>
       </c>
@@ -2050,7 +2082,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>195</v>
       </c>
@@ -2058,7 +2090,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>197</v>
       </c>
@@ -2066,7 +2098,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>199</v>
       </c>
@@ -2074,7 +2106,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>201</v>
       </c>
@@ -2082,7 +2114,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>203</v>
       </c>
@@ -2090,7 +2122,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>205</v>
       </c>
@@ -2098,7 +2130,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>207</v>
       </c>
@@ -2106,7 +2138,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>209</v>
       </c>
@@ -2114,7 +2146,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>211</v>
       </c>
@@ -2122,7 +2154,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>213</v>
       </c>
@@ -2130,7 +2162,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>215</v>
       </c>
@@ -2138,7 +2170,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>217</v>
       </c>
@@ -2146,7 +2178,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>219</v>
       </c>
@@ -2154,7 +2186,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>221</v>
       </c>
@@ -2162,7 +2194,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>223</v>
       </c>
@@ -2170,7 +2202,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>225</v>
       </c>
@@ -2178,7 +2210,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>227</v>
       </c>
@@ -2186,7 +2218,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>229</v>
       </c>
@@ -2194,7 +2226,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>231</v>
       </c>
@@ -2202,7 +2234,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>233</v>
       </c>
@@ -2210,7 +2242,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>235</v>
       </c>
@@ -2218,7 +2250,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>237</v>
       </c>
@@ -2226,7 +2258,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>239</v>
       </c>
@@ -2234,7 +2266,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>241</v>
       </c>
@@ -2242,7 +2274,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>243</v>
       </c>
@@ -2250,7 +2282,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>245</v>
       </c>
@@ -2258,7 +2290,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>247</v>
       </c>
@@ -2266,7 +2298,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>256</v>
       </c>
@@ -2274,7 +2306,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>257</v>
       </c>
@@ -2282,7 +2314,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>258</v>
       </c>
@@ -2290,7 +2322,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>259</v>
       </c>
@@ -2298,9 +2330,52 @@
         <v>253</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
+        <v>261</v>
+      </c>
+      <c r="C130" t="s">
         <v>260</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A131" t="s">
+        <v>262</v>
+      </c>
+      <c r="C131" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A132" t="s">
+        <v>263</v>
+      </c>
+      <c r="C132" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A133" t="s">
+        <v>264</v>
+      </c>
+      <c r="C133" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A134" t="s">
+        <v>269</v>
+      </c>
+      <c r="C134" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A135" t="s">
+        <v>270</v>
+      </c>
+      <c r="C135" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="274">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -835,6 +835,12 @@
   </si>
   <si>
     <t>it performs this search using a list of directory names stored in your $PATH environment variable</t>
+  </si>
+  <si>
+    <t>Command to add the path: /home/pi/scripts to the $PATH?</t>
+  </si>
+  <si>
+    <t>export PATH=$PATH:/home/pi/scripts</t>
   </si>
 </sst>
 </file>
@@ -1239,7 +1245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D135"/>
+  <dimension ref="A1:D136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
       <selection activeCell="A135" sqref="A135"/>
@@ -2378,6 +2384,14 @@
         <v>271</v>
       </c>
     </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A136" t="s">
+        <v>272</v>
+      </c>
+      <c r="C136" t="s">
+        <v>273</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -801,9 +801,6 @@
     <t xml:space="preserve">C | Break down the third part of the following statement: "#include &lt;stdio.h&gt;          main()          { printf("hello, world\n"); }"? </t>
   </si>
   <si>
-    <t>auto break case char const continue default do double else enum</t>
-  </si>
-  <si>
     <t>C | What are the keywords in C - part 1? (separate by comma)</t>
   </si>
   <si>
@@ -816,15 +813,6 @@
     <t>C | What are the keywords in C - part 4? (separate by comma)</t>
   </si>
   <si>
-    <t>extern float for goto if inline int long register restrict return</t>
-  </si>
-  <si>
-    <t>short signed sizeof static struct switch typedef union unsigned void volatile</t>
-  </si>
-  <si>
-    <t>while _Alignas _Alignof _Atomic _Bool _Complex _Generic _Imaginary _Noreturn _Static_assert _Thread_local</t>
-  </si>
-  <si>
     <t>the shell searches for an executable file with that name</t>
   </si>
   <si>
@@ -841,6 +829,18 @@
   </si>
   <si>
     <t>export PATH=$PATH:/home/pi/scripts</t>
+  </si>
+  <si>
+    <t>auto, break, case, char, const, continue, default, do, double, else, enum</t>
+  </si>
+  <si>
+    <t>extern, float, for, goto, if, inline, int, long, register, restrict, return</t>
+  </si>
+  <si>
+    <t>short, signed, sizeof, static, struct, switch, typedef, union, unsigned, void, volatile</t>
+  </si>
+  <si>
+    <t>while, _Alignas, _Alignof, _Atomic, _Bool, _Complex, _Generic, _Imaginary, _Noreturn, _Static_assert, _Thread_local</t>
   </si>
 </sst>
 </file>
@@ -1248,7 +1248,7 @@
   <dimension ref="A1:D136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="A135" sqref="A135"/>
+      <selection activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
@@ -2338,58 +2338,58 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C130" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C131" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C132" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C133" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C134" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C135" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C136" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="286">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -777,9 +777,6 @@
     <t>NPDESI EnEn</t>
   </si>
   <si>
-    <t>include information about standard library</t>
-  </si>
-  <si>
     <t>the function main calls the library function printf to print this sequence of characters</t>
   </si>
   <si>
@@ -792,9 +789,6 @@
     <t>C | What are the tokens in C? (provide an example for each token within () and end each token with "s")</t>
   </si>
   <si>
-    <t xml:space="preserve">C | Break down the first part of the following statement: "#include &lt;stdio.h&gt;      main()       { printf("hello, world\n"); }"? </t>
-  </si>
-  <si>
     <t xml:space="preserve">C | Break down the second part of the following statement: "#include &lt;stdio.h&gt;        main()        { printf("hello, world\n"); }"? </t>
   </si>
   <si>
@@ -841,6 +835,48 @@
   </si>
   <si>
     <t>while, _Alignas, _Alignof, _Atomic, _Bool, _Complex, _Generic, _Imaginary, _Noreturn, _Static_assert, _Thread_local</t>
+  </si>
+  <si>
+    <t>What does the C program consist of generally?</t>
+  </si>
+  <si>
+    <t>functions, variables</t>
+  </si>
+  <si>
+    <t>What does function contain?</t>
+  </si>
+  <si>
+    <t>statements that specify the computing operations to be done</t>
+  </si>
+  <si>
+    <t>What does variables contain?</t>
+  </si>
+  <si>
+    <t>values used during the computation</t>
+  </si>
+  <si>
+    <t>C | Break down the first part of the following statement: "#include &lt;stdio.h&gt;      main()       { printf("hello, world\n"); }"? (start with "it tells the…")</t>
+  </si>
+  <si>
+    <t>it tells the compiler to include information about the standard input/output library</t>
+  </si>
+  <si>
+    <t>for the calling function to provide a list of values called arguments to the function it calls</t>
+  </si>
+  <si>
+    <t>What is the simplest method of communication between functions? (start with "for the calling function..") - part 1</t>
+  </si>
+  <si>
+    <t>What is the simplest method of communication between functions? - part 2</t>
+  </si>
+  <si>
+    <t>the parentheses after the function name surround the argument list</t>
+  </si>
+  <si>
+    <t>What declaration does, what it consists of? (start with "it…, consists of")</t>
+  </si>
+  <si>
+    <t>it announces the properties of variables, consists of a type name and a list of variables</t>
   </si>
 </sst>
 </file>
@@ -1245,10 +1281,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D136"/>
+  <dimension ref="A1:D142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="C135" sqref="C135"/>
+      <selection activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
@@ -2306,90 +2342,138 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C126" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="C127" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C128" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C129" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C130" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C131" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C132" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C133" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C134" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C135" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C136" t="s">
-        <v>269</v>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A137" t="s">
+        <v>272</v>
+      </c>
+      <c r="C137" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A138" t="s">
+        <v>274</v>
+      </c>
+      <c r="C138" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A139" t="s">
+        <v>276</v>
+      </c>
+      <c r="C139" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A140" t="s">
+        <v>281</v>
+      </c>
+      <c r="C140" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A141" t="s">
+        <v>282</v>
+      </c>
+      <c r="C141" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A142" t="s">
+        <v>284</v>
+      </c>
+      <c r="C142" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="296">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -877,6 +877,36 @@
   </si>
   <si>
     <t>it announces the properties of variables, consists of a type name and a list of variables</t>
+  </si>
+  <si>
+    <t>How this while loop operates? while (fahr&lt;=upper) { celsius=5*(fahr-32)/9; printf("%d\t%d\n",fahr,celsius); fahr=fahr+step; } - part 1 (start with "the")</t>
+  </si>
+  <si>
+    <t>the condition in parentheses is tested</t>
+  </si>
+  <si>
+    <t>How this while loop operates? while (fahr&lt;=upper) { celsius=5*(fahr-32)/9; printf("%d\t%d\n",fahr,celsius); fahr=fahr+step; } - part 2</t>
+  </si>
+  <si>
+    <t>if it is true, fahr is less than or equal to upper, the body of the loop, the three statements enclosed in braces, is executed</t>
+  </si>
+  <si>
+    <t>How this while loop operates? while (fahr&lt;=upper) { celsius=5*(fahr-32)/9; printf("%d\t%d\n",fahr,celsius); fahr=fahr+step; } - part 3</t>
+  </si>
+  <si>
+    <t>the condition is re-tested, if true, the body is executed again</t>
+  </si>
+  <si>
+    <t>How this while loop operates? while (fahr&lt;=upper) { celsius=5*(fahr-32)/9; printf("%d\t%d\n",fahr,celsius); fahr=fahr+step; } - part 4</t>
+  </si>
+  <si>
+    <t>when the test becomes false, fahr exceeds upper, the loop ends and the execution continues at the statement that follows the loop</t>
+  </si>
+  <si>
+    <t>What does %d mean in this statement: printf("%d\t%d\n",fahr,celsius); (start with "%d …")</t>
+  </si>
+  <si>
+    <t>%d specifies an integer argument so that the statement causes the values of the two integers fahr and celsius to be printed with tab in between</t>
   </si>
 </sst>
 </file>
@@ -1281,10 +1311,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D142"/>
+  <dimension ref="A1:D147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="A147" sqref="A147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
@@ -2476,6 +2506,46 @@
         <v>285</v>
       </c>
     </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A143" t="s">
+        <v>286</v>
+      </c>
+      <c r="C143" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A144" t="s">
+        <v>288</v>
+      </c>
+      <c r="C144" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A145" t="s">
+        <v>290</v>
+      </c>
+      <c r="C145" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A146" t="s">
+        <v>292</v>
+      </c>
+      <c r="C146" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A147" t="s">
+        <v>294</v>
+      </c>
+      <c r="C147" t="s">
+        <v>295</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="298">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -907,6 +907,12 @@
   </si>
   <si>
     <t>%d specifies an integer argument so that the statement causes the values of the two integers fahr and celsius to be printed with tab in between</t>
+  </si>
+  <si>
+    <t>What will happen with operation in terms of values, in case arithmetic operator has one floating-point operand and one integer operand? (start with "the..")</t>
+  </si>
+  <si>
+    <t>the integer will be converted to floating point before the operation is done</t>
   </si>
 </sst>
 </file>
@@ -1311,10 +1317,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D147"/>
+  <dimension ref="A1:D148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="A147" sqref="A147"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="A149" sqref="A149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
@@ -2546,6 +2552,14 @@
         <v>295</v>
       </c>
     </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A148" t="s">
+        <v>296</v>
+      </c>
+      <c r="C148" t="s">
+        <v>297</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -837,21 +837,12 @@
     <t>while, _Alignas, _Alignof, _Atomic, _Bool, _Complex, _Generic, _Imaginary, _Noreturn, _Static_assert, _Thread_local</t>
   </si>
   <si>
-    <t>What does the C program consist of generally?</t>
-  </si>
-  <si>
     <t>functions, variables</t>
   </si>
   <si>
-    <t>What does function contain?</t>
-  </si>
-  <si>
     <t>statements that specify the computing operations to be done</t>
   </si>
   <si>
-    <t>What does variables contain?</t>
-  </si>
-  <si>
     <t>values used during the computation</t>
   </si>
   <si>
@@ -864,55 +855,64 @@
     <t>for the calling function to provide a list of values called arguments to the function it calls</t>
   </si>
   <si>
-    <t>What is the simplest method of communication between functions? (start with "for the calling function..") - part 1</t>
-  </si>
-  <si>
-    <t>What is the simplest method of communication between functions? - part 2</t>
-  </si>
-  <si>
     <t>the parentheses after the function name surround the argument list</t>
   </si>
   <si>
-    <t>What declaration does, what it consists of? (start with "it…, consists of")</t>
-  </si>
-  <si>
     <t>it announces the properties of variables, consists of a type name and a list of variables</t>
   </si>
   <si>
-    <t>How this while loop operates? while (fahr&lt;=upper) { celsius=5*(fahr-32)/9; printf("%d\t%d\n",fahr,celsius); fahr=fahr+step; } - part 1 (start with "the")</t>
-  </si>
-  <si>
     <t>the condition in parentheses is tested</t>
   </si>
   <si>
-    <t>How this while loop operates? while (fahr&lt;=upper) { celsius=5*(fahr-32)/9; printf("%d\t%d\n",fahr,celsius); fahr=fahr+step; } - part 2</t>
-  </si>
-  <si>
     <t>if it is true, fahr is less than or equal to upper, the body of the loop, the three statements enclosed in braces, is executed</t>
   </si>
   <si>
-    <t>How this while loop operates? while (fahr&lt;=upper) { celsius=5*(fahr-32)/9; printf("%d\t%d\n",fahr,celsius); fahr=fahr+step; } - part 3</t>
-  </si>
-  <si>
     <t>the condition is re-tested, if true, the body is executed again</t>
   </si>
   <si>
-    <t>How this while loop operates? while (fahr&lt;=upper) { celsius=5*(fahr-32)/9; printf("%d\t%d\n",fahr,celsius); fahr=fahr+step; } - part 4</t>
-  </si>
-  <si>
     <t>when the test becomes false, fahr exceeds upper, the loop ends and the execution continues at the statement that follows the loop</t>
   </si>
   <si>
-    <t>What does %d mean in this statement: printf("%d\t%d\n",fahr,celsius); (start with "%d …")</t>
-  </si>
-  <si>
     <t>%d specifies an integer argument so that the statement causes the values of the two integers fahr and celsius to be printed with tab in between</t>
   </si>
   <si>
-    <t>What will happen with operation in terms of values, in case arithmetic operator has one floating-point operand and one integer operand? (start with "the..")</t>
-  </si>
-  <si>
     <t>the integer will be converted to floating point before the operation is done</t>
+  </si>
+  <si>
+    <t>C | What does the C program consist of generally?</t>
+  </si>
+  <si>
+    <t>C | What does function contain?</t>
+  </si>
+  <si>
+    <t>C | What does variables contain?</t>
+  </si>
+  <si>
+    <t>C | What is the simplest method of communication between functions? (start with "for the calling function..") - part 1</t>
+  </si>
+  <si>
+    <t>C | What is the simplest method of communication between functions? - part 2</t>
+  </si>
+  <si>
+    <t>C | What declaration does, what it consists of? (start with "it…, consists of")</t>
+  </si>
+  <si>
+    <t>C | How this while loop operates? while (fahr&lt;=upper) { celsius=5*(fahr-32)/9; printf("%d\t%d\n",fahr,celsius); fahr=fahr+step; } - part 1 (start with "the")</t>
+  </si>
+  <si>
+    <t>C | How this while loop operates? while (fahr&lt;=upper) { celsius=5*(fahr-32)/9; printf("%d\t%d\n",fahr,celsius); fahr=fahr+step; } - part 2</t>
+  </si>
+  <si>
+    <t>C | How this while loop operates? while (fahr&lt;=upper) { celsius=5*(fahr-32)/9; printf("%d\t%d\n",fahr,celsius); fahr=fahr+step; } - part 3</t>
+  </si>
+  <si>
+    <t>C | How this while loop operates? while (fahr&lt;=upper) { celsius=5*(fahr-32)/9; printf("%d\t%d\n",fahr,celsius); fahr=fahr+step; } - part 4</t>
+  </si>
+  <si>
+    <t>C | What does %d mean in this statement: printf("%d\t%d\n",fahr,celsius); (start with "%d …")</t>
+  </si>
+  <si>
+    <t>C | What will happen with operation in terms of values, in case arithmetic operator has one floating-point operand and one integer operand? (start with "the..")</t>
   </si>
 </sst>
 </file>
@@ -1319,7 +1319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
       <selection activeCell="A149" sqref="A149"/>
     </sheetView>
   </sheetViews>
@@ -2386,10 +2386,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C127" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.45">
@@ -2466,98 +2466,98 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
+        <v>286</v>
+      </c>
+      <c r="C137" t="s">
         <v>272</v>
-      </c>
-      <c r="C137" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="C138" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="C139" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="C140" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="C141" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="C142" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C143" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C144" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C145" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C146" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C147" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C148" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -783,9 +783,6 @@
     <t>define the function main that receives no argument values</t>
   </si>
   <si>
-    <t>keywords(int,while) , identifiers(main,total), constants(10,20), strings("new","hello"), special symbols({}), operators(+,/,-*)</t>
-  </si>
-  <si>
     <t>C | What are the tokens in C? (provide an example for each token within () and end each token with "s")</t>
   </si>
   <si>
@@ -913,6 +910,9 @@
   </si>
   <si>
     <t>C | What will happen with operation in terms of values, in case arithmetic operator has one floating-point operand and one integer operand? (start with "the..")</t>
+  </si>
+  <si>
+    <t>keywords(int,while), identifiers(main,total), constants(10,20), strings("hello","world"), special symbols({}), operators(+,/,-*)</t>
   </si>
 </sst>
 </file>
@@ -1319,8 +1319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="A149" sqref="A149"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
@@ -2378,23 +2378,23 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C126" t="s">
-        <v>254</v>
+        <v>297</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
+        <v>274</v>
+      </c>
+      <c r="C127" t="s">
         <v>275</v>
-      </c>
-      <c r="C127" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C128" t="s">
         <v>253</v>
@@ -2402,7 +2402,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C129" t="s">
         <v>252</v>
@@ -2410,154 +2410,154 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C130" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C131" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C132" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C133" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C134" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
+        <v>263</v>
+      </c>
+      <c r="C135" t="s">
         <v>264</v>
-      </c>
-      <c r="C135" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
+        <v>265</v>
+      </c>
+      <c r="C136" t="s">
         <v>266</v>
-      </c>
-      <c r="C136" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C137" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C138" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C139" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C140" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C141" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C142" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C143" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C144" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C145" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C146" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C147" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C148" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="314">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -870,9 +870,6 @@
     <t>when the test becomes false, fahr exceeds upper, the loop ends and the execution continues at the statement that follows the loop</t>
   </si>
   <si>
-    <t>%d specifies an integer argument so that the statement causes the values of the two integers fahr and celsius to be printed with tab in between</t>
-  </si>
-  <si>
     <t>the integer will be converted to floating point before the operation is done</t>
   </si>
   <si>
@@ -913,6 +910,57 @@
   </si>
   <si>
     <t>keywords(int,while), identifiers(main,total), constants(10,20), strings("hello","world"), special symbols({}), operators(+,/,-*)</t>
+  </si>
+  <si>
+    <t>C | What does %f mean in this statement: printf("%f\t%f\n",fahr,celsius); (start with "%f …")</t>
+  </si>
+  <si>
+    <t>%d specifies the integer argument so that the statement causes the values of the two integers fahr and celsius to be printed with tab in between</t>
+  </si>
+  <si>
+    <t>%f specifies the float argument so that the statement causes the values of the two float fahr and celsius to be printed with tab in between</t>
+  </si>
+  <si>
+    <t>print as decimal integer</t>
+  </si>
+  <si>
+    <t>print as decimal integer, at least 6 characters wide</t>
+  </si>
+  <si>
+    <t>print as floating point</t>
+  </si>
+  <si>
+    <t>print as floating point, at least 6 characters wide</t>
+  </si>
+  <si>
+    <t>print as floating point, at least 2 characters after decimal point</t>
+  </si>
+  <si>
+    <t>C | what does %d mean, when used in printf library call? (start with "print as…")</t>
+  </si>
+  <si>
+    <t>C | what does %6d mean, when used in printf library call? (start with "print as…")</t>
+  </si>
+  <si>
+    <t>C | what does %f mean, when used in printf library call? (start with "print as…")</t>
+  </si>
+  <si>
+    <t>C | what does %6f mean, when used in printf library call? (start with "print as…")</t>
+  </si>
+  <si>
+    <t>C | what does %.2f mean, when used in printf library call? (start with "print as…")</t>
+  </si>
+  <si>
+    <t>the initialization part is done once, before the loop proper is entered</t>
+  </si>
+  <si>
+    <t>the test condition that controls the loop, if it is true, the body of the loop is executed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C | Break down the first part within the parentheses in this "for statement/loop": for (fahr=0; fahr&lt;=300; fahr=fahr+20) printf("%3d%6.1f\n",fahr,(5.0/9.0)*(fahr-32)); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C | Break down the second part within the parentheses in this "for statement/loop": for (fahr=0; fahr&lt;=300; fahr=fahr+20) printf("%3d%6.1f\n",fahr,(5.0/9.0)*(fahr-32)); </t>
   </si>
 </sst>
 </file>
@@ -1317,10 +1365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D148"/>
+  <dimension ref="A1:D157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="C157" sqref="C157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
@@ -2381,7 +2429,7 @@
         <v>254</v>
       </c>
       <c r="C126" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.45">
@@ -2466,7 +2514,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C137" t="s">
         <v>271</v>
@@ -2474,7 +2522,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C138" t="s">
         <v>272</v>
@@ -2482,7 +2530,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C139" t="s">
         <v>273</v>
@@ -2490,7 +2538,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C140" t="s">
         <v>276</v>
@@ -2498,7 +2546,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C141" t="s">
         <v>277</v>
@@ -2506,7 +2554,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C142" t="s">
         <v>278</v>
@@ -2514,7 +2562,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C143" t="s">
         <v>279</v>
@@ -2522,7 +2570,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C144" t="s">
         <v>280</v>
@@ -2530,7 +2578,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C145" t="s">
         <v>281</v>
@@ -2538,7 +2586,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C146" t="s">
         <v>282</v>
@@ -2546,18 +2594,87 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C147" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C148" t="s">
-        <v>284</v>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A149" t="s">
+        <v>295</v>
+      </c>
+      <c r="C149" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A150" t="s">
+        <v>305</v>
+      </c>
+      <c r="C150" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A151" t="s">
+        <v>306</v>
+      </c>
+      <c r="C151" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A152" t="s">
+        <v>307</v>
+      </c>
+      <c r="C152" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A153" t="s">
+        <v>308</v>
+      </c>
+      <c r="C153" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A154" t="s">
+        <v>309</v>
+      </c>
+      <c r="C154" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A155" t="s">
+        <v>312</v>
+      </c>
+      <c r="C155" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A156" t="s">
+        <v>313</v>
+      </c>
+      <c r="C156" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A157" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="315">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -961,6 +961,9 @@
   </si>
   <si>
     <t xml:space="preserve">C | Break down the second part within the parentheses in this "for statement/loop": for (fahr=0; fahr&lt;=300; fahr=fahr+20) printf("%3d%6.1f\n",fahr,(5.0/9.0)*(fahr-32)); </t>
+  </si>
+  <si>
+    <t>the increment step is executed</t>
   </si>
 </sst>
 </file>
@@ -1367,8 +1370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="C157" sqref="C157"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A158" sqref="A158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
@@ -2676,6 +2679,9 @@
       <c r="A157" t="s">
         <v>313</v>
       </c>
+      <c r="C157" t="s">
+        <v>314</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="316">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -786,12 +786,6 @@
     <t>C | What are the tokens in C? (provide an example for each token within () and end each token with "s")</t>
   </si>
   <si>
-    <t xml:space="preserve">C | Break down the second part of the following statement: "#include &lt;stdio.h&gt;        main()        { printf("hello, world\n"); }"? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C | Break down the third part of the following statement: "#include &lt;stdio.h&gt;          main()          { printf("hello, world\n"); }"? </t>
-  </si>
-  <si>
     <t>C | What are the keywords in C - part 1? (separate by comma)</t>
   </si>
   <si>
@@ -843,9 +837,6 @@
     <t>values used during the computation</t>
   </si>
   <si>
-    <t>C | Break down the first part of the following statement: "#include &lt;stdio.h&gt;      main()       { printf("hello, world\n"); }"? (start with "it tells the…")</t>
-  </si>
-  <si>
     <t>it tells the compiler to include information about the standard input/output library</t>
   </si>
   <si>
@@ -957,13 +948,25 @@
     <t>the test condition that controls the loop, if it is true, the body of the loop is executed</t>
   </si>
   <si>
-    <t xml:space="preserve">C | Break down the first part within the parentheses in this "for statement/loop": for (fahr=0; fahr&lt;=300; fahr=fahr+20) printf("%3d%6.1f\n",fahr,(5.0/9.0)*(fahr-32)); </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C | Break down the second part within the parentheses in this "for statement/loop": for (fahr=0; fahr&lt;=300; fahr=fahr+20) printf("%3d%6.1f\n",fahr,(5.0/9.0)*(fahr-32)); </t>
-  </si>
-  <si>
     <t>the increment step is executed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C | What does the second part within the parentheses in this "for statement/loop" mean, in general: for (fahr=0; fahr&lt;=300; fahr=fahr+20) printf("%3d%6.1f\n",fahr,(5.0/9.0)*(fahr-32)); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C | What does the first part within the parentheses in this "for statement/loop" mean, in general: for (fahr=0; fahr&lt;=300; fahr=fahr+20) printf("%3d%6.1f\n",fahr,(5.0/9.0)*(fahr-32)); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C | What does the third part within the parentheses in this "for statement/loop" mean, in general: for (fahr=0; fahr&lt;=300; fahr=fahr+20) printf("%3d%6.1f\n",fahr,(5.0/9.0)*(fahr-32)); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C | What does the third part of the following statement mean: "#include &lt;stdio.h&gt;          main()          { printf("hello, world\n"); }"? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C | What does the second part of the following statement mean: "#include &lt;stdio.h&gt;        main()        { printf("hello, world\n"); }"? </t>
+  </si>
+  <si>
+    <t>C | What does the first part of the following statement mean: "#include &lt;stdio.h&gt;      main()       { printf("hello, world\n"); }"? (start with "it tells the…")</t>
   </si>
 </sst>
 </file>
@@ -1370,14 +1373,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A158" sqref="A158"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="91" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="108.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2432,20 +2435,20 @@
         <v>254</v>
       </c>
       <c r="C126" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="C127" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>255</v>
+        <v>314</v>
       </c>
       <c r="C128" t="s">
         <v>253</v>
@@ -2453,7 +2456,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>256</v>
+        <v>313</v>
       </c>
       <c r="C129" t="s">
         <v>252</v>
@@ -2461,226 +2464,226 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C130" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C131" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C132" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C133" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C134" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C135" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C136" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C137" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C138" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C139" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C140" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C141" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C142" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C143" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C144" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C145" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C146" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C147" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C148" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C149" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C150" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C151" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C152" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C153" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C154" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C155" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C156" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C157" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonier\Desktop\kb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{22AC9029-22E2-4F94-AFCD-A3C5723A1769}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5460" windowWidth="18045" windowHeight="6585"/>
+    <workbookView xWindow="0" yWindow="5916" windowWidth="18048" windowHeight="6588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="323">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -960,19 +961,40 @@
     <t xml:space="preserve">C | What does the third part within the parentheses in this "for statement/loop" mean, in general: for (fahr=0; fahr&lt;=300; fahr=fahr+20) printf("%3d%6.1f\n",fahr,(5.0/9.0)*(fahr-32)); </t>
   </si>
   <si>
-    <t xml:space="preserve">C | What does the third part of the following statement mean: "#include &lt;stdio.h&gt;          main()          { printf("hello, world\n"); }"? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C | What does the second part of the following statement mean: "#include &lt;stdio.h&gt;        main()        { printf("hello, world\n"); }"? </t>
-  </si>
-  <si>
-    <t>C | What does the first part of the following statement mean: "#include &lt;stdio.h&gt;      main()       { printf("hello, world\n"); }"? (start with "it tells the…")</t>
+    <t>C | What does the first part of the following program mean: "#include &lt;stdio.h&gt;      main()       { printf("hello, world\n"); }"? (start with "it tells the…")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C | What does the second part of the following program mean: "#include &lt;stdio.h&gt;        main()        { printf("hello, world\n"); }"? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C | What does the third part of the following program mean: "#include &lt;stdio.h&gt;          main()          { printf("hello, world\n"); }"? </t>
+  </si>
+  <si>
+    <t>C | What does the first part within the parentheses in this "for statement/loop" mean, in general: c=getchar(); while (c != EOF) { putchar(c); c=getchar(); }</t>
+  </si>
+  <si>
+    <t>C | What does the second part within the parentheses in this "for statement/loop" mean, in general: c=getchar(); while (c != EOF) { putchar(c); c=getchar(); }</t>
+  </si>
+  <si>
+    <t>read a character</t>
+  </si>
+  <si>
+    <t>while character is not end-of-file indicator</t>
+  </si>
+  <si>
+    <t>C | What does the third part within the parentheses in this "for statement/loop" mean, in general: c=getchar(); while (c != EOF) { putchar(c); c=getchar(); }</t>
+  </si>
+  <si>
+    <t>output the character just read</t>
+  </si>
+  <si>
+    <t>C | What does the fourth part within the parentheses in this "for statement/loop" mean, in general: c=getchar(); while (c != EOF) { putchar(c); c=getchar(); }</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1370,22 +1392,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D157"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="A161" sqref="A161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="91" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="108.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="108.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>251</v>
       </c>
@@ -1395,7 +1417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1409,7 +1431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1423,7 +1445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1435,7 +1457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1449,7 +1471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1463,7 +1485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1477,7 +1499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1488,7 +1510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1499,7 +1521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1510,7 +1532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1518,7 +1540,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1526,7 +1548,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -1534,7 +1556,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -1542,7 +1564,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -1550,7 +1572,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -1558,7 +1580,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -1566,7 +1588,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -1574,7 +1596,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -1582,7 +1604,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -1590,7 +1612,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -1598,7 +1620,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -1606,7 +1628,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1614,7 +1636,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1622,7 +1644,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -1630,7 +1652,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -1638,7 +1660,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -1646,7 +1668,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -1654,7 +1676,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -1662,7 +1684,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -1670,7 +1692,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -1678,7 +1700,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -1686,7 +1708,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -1694,7 +1716,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -1702,7 +1724,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -1710,7 +1732,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -1718,7 +1740,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -1726,7 +1748,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -1734,7 +1756,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -1742,7 +1764,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -1750,7 +1772,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -1758,7 +1780,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -1766,7 +1788,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -1774,7 +1796,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -1782,7 +1804,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -1790,7 +1812,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -1798,7 +1820,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -1806,7 +1828,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -1814,7 +1836,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -1822,7 +1844,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -1830,7 +1852,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -1838,7 +1860,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -1846,7 +1868,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -1854,7 +1876,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -1862,7 +1884,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -1870,7 +1892,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -1878,7 +1900,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -1886,7 +1908,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -1894,7 +1916,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -1902,7 +1924,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -1910,7 +1932,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -1918,7 +1940,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -1926,7 +1948,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -1934,7 +1956,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>127</v>
       </c>
@@ -1942,7 +1964,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -1950,7 +1972,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -1958,7 +1980,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -1966,7 +1988,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>135</v>
       </c>
@@ -1974,7 +1996,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>137</v>
       </c>
@@ -1982,7 +2004,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -1990,7 +2012,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -1998,7 +2020,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>143</v>
       </c>
@@ -2006,7 +2028,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>145</v>
       </c>
@@ -2014,7 +2036,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -2022,7 +2044,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -2030,7 +2052,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>151</v>
       </c>
@@ -2038,7 +2060,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -2046,7 +2068,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -2054,7 +2076,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -2062,7 +2084,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>159</v>
       </c>
@@ -2070,7 +2092,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -2078,7 +2100,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -2086,7 +2108,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>164</v>
       </c>
@@ -2094,7 +2116,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>165</v>
       </c>
@@ -2102,7 +2124,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>167</v>
       </c>
@@ -2110,7 +2132,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>169</v>
       </c>
@@ -2118,7 +2140,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>171</v>
       </c>
@@ -2126,7 +2148,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>173</v>
       </c>
@@ -2134,7 +2156,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>175</v>
       </c>
@@ -2142,7 +2164,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>177</v>
       </c>
@@ -2150,7 +2172,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>179</v>
       </c>
@@ -2158,7 +2180,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>181</v>
       </c>
@@ -2166,7 +2188,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>183</v>
       </c>
@@ -2174,7 +2196,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>185</v>
       </c>
@@ -2182,7 +2204,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>187</v>
       </c>
@@ -2190,7 +2212,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>189</v>
       </c>
@@ -2198,7 +2220,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>191</v>
       </c>
@@ -2206,7 +2228,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>193</v>
       </c>
@@ -2214,7 +2236,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>195</v>
       </c>
@@ -2222,7 +2244,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>197</v>
       </c>
@@ -2230,7 +2252,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>199</v>
       </c>
@@ -2238,7 +2260,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>201</v>
       </c>
@@ -2246,7 +2268,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>203</v>
       </c>
@@ -2254,7 +2276,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>205</v>
       </c>
@@ -2262,7 +2284,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>207</v>
       </c>
@@ -2270,7 +2292,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>209</v>
       </c>
@@ -2278,7 +2300,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>211</v>
       </c>
@@ -2286,7 +2308,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>213</v>
       </c>
@@ -2294,7 +2316,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>215</v>
       </c>
@@ -2302,7 +2324,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>217</v>
       </c>
@@ -2310,7 +2332,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>219</v>
       </c>
@@ -2318,7 +2340,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>221</v>
       </c>
@@ -2326,7 +2348,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>223</v>
       </c>
@@ -2334,7 +2356,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>225</v>
       </c>
@@ -2342,7 +2364,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>227</v>
       </c>
@@ -2350,7 +2372,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>229</v>
       </c>
@@ -2358,7 +2380,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>231</v>
       </c>
@@ -2366,7 +2388,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>233</v>
       </c>
@@ -2374,7 +2396,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>235</v>
       </c>
@@ -2382,7 +2404,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>237</v>
       </c>
@@ -2390,7 +2412,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>239</v>
       </c>
@@ -2398,7 +2420,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>241</v>
       </c>
@@ -2406,7 +2428,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>243</v>
       </c>
@@ -2414,7 +2436,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>245</v>
       </c>
@@ -2422,7 +2444,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>247</v>
       </c>
@@ -2430,7 +2452,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>254</v>
       </c>
@@ -2438,15 +2460,15 @@
         <v>293</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C127" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>314</v>
       </c>
@@ -2454,15 +2476,15 @@
         <v>253</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C129" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>255</v>
       </c>
@@ -2470,7 +2492,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>256</v>
       </c>
@@ -2478,7 +2500,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>257</v>
       </c>
@@ -2486,7 +2508,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>258</v>
       </c>
@@ -2494,7 +2516,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>260</v>
       </c>
@@ -2502,7 +2524,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>261</v>
       </c>
@@ -2510,7 +2532,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>263</v>
       </c>
@@ -2518,7 +2540,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>281</v>
       </c>
@@ -2526,7 +2548,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>282</v>
       </c>
@@ -2534,7 +2556,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>283</v>
       </c>
@@ -2542,7 +2564,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>284</v>
       </c>
@@ -2550,7 +2572,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>285</v>
       </c>
@@ -2558,7 +2580,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>286</v>
       </c>
@@ -2566,7 +2588,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>287</v>
       </c>
@@ -2574,7 +2596,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>288</v>
       </c>
@@ -2582,7 +2604,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>289</v>
       </c>
@@ -2590,7 +2612,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>290</v>
       </c>
@@ -2598,7 +2620,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>291</v>
       </c>
@@ -2606,7 +2628,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>294</v>
       </c>
@@ -2614,7 +2636,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>292</v>
       </c>
@@ -2622,7 +2644,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>302</v>
       </c>
@@ -2630,7 +2652,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>303</v>
       </c>
@@ -2638,7 +2660,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>304</v>
       </c>
@@ -2646,7 +2668,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>305</v>
       </c>
@@ -2654,7 +2676,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>306</v>
       </c>
@@ -2662,7 +2684,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>311</v>
       </c>
@@ -2670,7 +2692,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>310</v>
       </c>
@@ -2678,12 +2700,44 @@
         <v>308</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>312</v>
       </c>
       <c r="C157" t="s">
         <v>309</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158" t="s">
+        <v>316</v>
+      </c>
+      <c r="C158" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159" t="s">
+        <v>317</v>
+      </c>
+      <c r="C159" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160" t="s">
+        <v>320</v>
+      </c>
+      <c r="C160" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161" t="s">
+        <v>322</v>
+      </c>
+      <c r="C161" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{22AC9029-22E2-4F94-AFCD-A3C5723A1769}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E6FCA570-5361-4E89-99C0-3D8BC7824870}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5916" windowWidth="18048" windowHeight="6588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6372" windowWidth="18048" windowHeight="6588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -970,25 +970,25 @@
     <t xml:space="preserve">C | What does the third part of the following program mean: "#include &lt;stdio.h&gt;          main()          { printf("hello, world\n"); }"? </t>
   </si>
   <si>
-    <t>C | What does the first part within the parentheses in this "for statement/loop" mean, in general: c=getchar(); while (c != EOF) { putchar(c); c=getchar(); }</t>
-  </si>
-  <si>
-    <t>C | What does the second part within the parentheses in this "for statement/loop" mean, in general: c=getchar(); while (c != EOF) { putchar(c); c=getchar(); }</t>
-  </si>
-  <si>
     <t>read a character</t>
   </si>
   <si>
     <t>while character is not end-of-file indicator</t>
   </si>
   <si>
-    <t>C | What does the third part within the parentheses in this "for statement/loop" mean, in general: c=getchar(); while (c != EOF) { putchar(c); c=getchar(); }</t>
-  </si>
-  <si>
     <t>output the character just read</t>
   </si>
   <si>
-    <t>C | What does the fourth part within the parentheses in this "for statement/loop" mean, in general: c=getchar(); while (c != EOF) { putchar(c); c=getchar(); }</t>
+    <t>C | What does the fourth part in this "while statement/loop" mean, in general: c=getchar(); while (c != EOF) { putchar(c); c=getchar(); }</t>
+  </si>
+  <si>
+    <t>C | What does the third part  in this "while statement/loop" mean, in general: c=getchar(); while (c != EOF) { putchar(c); c=getchar(); }</t>
+  </si>
+  <si>
+    <t>C | What does the second part  in this "while statement/loop" mean, in general: c=getchar(); while (c != EOF) { putchar(c); c=getchar(); }</t>
+  </si>
+  <si>
+    <t>C | What does the first part in this "while statement/loop" mean, in general: c=getchar(); while (c != EOF) { putchar(c); c=getchar(); }</t>
   </si>
 </sst>
 </file>
@@ -1395,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A157" sqref="A157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.55000000000000004"/>
@@ -2710,18 +2710,18 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
+        <v>322</v>
+      </c>
+      <c r="C158" t="s">
         <v>316</v>
-      </c>
-      <c r="C158" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
+        <v>321</v>
+      </c>
+      <c r="C159" t="s">
         <v>317</v>
-      </c>
-      <c r="C159" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2729,15 +2729,15 @@
         <v>320</v>
       </c>
       <c r="C160" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C161" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E6FCA570-5361-4E89-99C0-3D8BC7824870}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EC8F46D7-84A5-4A95-9766-BBDD05BC3D36}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6372" windowWidth="18048" windowHeight="6588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6828" windowWidth="18048" windowHeight="6588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -925,24 +925,6 @@
     <t>print as floating point, at least 6 characters wide</t>
   </si>
   <si>
-    <t>print as floating point, at least 2 characters after decimal point</t>
-  </si>
-  <si>
-    <t>C | what does %d mean, when used in printf library call? (start with "print as…")</t>
-  </si>
-  <si>
-    <t>C | what does %6d mean, when used in printf library call? (start with "print as…")</t>
-  </si>
-  <si>
-    <t>C | what does %f mean, when used in printf library call? (start with "print as…")</t>
-  </si>
-  <si>
-    <t>C | what does %6f mean, when used in printf library call? (start with "print as…")</t>
-  </si>
-  <si>
-    <t>C | what does %.2f mean, when used in printf library call? (start with "print as…")</t>
-  </si>
-  <si>
     <t>the initialization part is done once, before the loop proper is entered</t>
   </si>
   <si>
@@ -989,6 +971,24 @@
   </si>
   <si>
     <t>C | What does the first part in this "while statement/loop" mean, in general: c=getchar(); while (c != EOF) { putchar(c); c=getchar(); }</t>
+  </si>
+  <si>
+    <t>print as floating point, no more than 2 characters after decimal point</t>
+  </si>
+  <si>
+    <t>C | what does %6f mean, when used in printf library function? (start with "print as…")</t>
+  </si>
+  <si>
+    <t>C | what does %f mean, when used in printf library function? (start with "print as…")</t>
+  </si>
+  <si>
+    <t>C | what does %6d mean, when used in printf library function? (start with "print as…")</t>
+  </si>
+  <si>
+    <t>C | what does %d mean, when used in printf library function? (start with "print as…")</t>
+  </si>
+  <si>
+    <t>C | what does %.2f mean, when used in printf library function? (start with "print as…")</t>
   </si>
 </sst>
 </file>
@@ -1395,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="A157" sqref="A157"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.55000000000000004"/>
@@ -2462,7 +2462,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C127" t="s">
         <v>272</v>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C128" t="s">
         <v>253</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C129" t="s">
         <v>252</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="C150" t="s">
         <v>297</v>
@@ -2654,7 +2654,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="C151" t="s">
         <v>298</v>
@@ -2662,7 +2662,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="C152" t="s">
         <v>299</v>
@@ -2670,7 +2670,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="C153" t="s">
         <v>300</v>
@@ -2678,66 +2678,66 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="C154" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C155" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C156" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C157" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C158" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C159" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C160" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C161" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EC8F46D7-84A5-4A95-9766-BBDD05BC3D36}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9245E702-E257-41D7-A0A6-91D155324CE3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6828" windowWidth="18048" windowHeight="6588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="7275" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="325">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -989,6 +989,12 @@
   </si>
   <si>
     <t>C | what does %.2f mean, when used in printf library function? (start with "print as…")</t>
+  </si>
+  <si>
+    <t>C | Explain the difference between the two loops: "while (…) { statement1; statement2; statement3 }"  and "while (…) statement1; statement2; statement3" (start with "if you leave…")</t>
+  </si>
+  <si>
+    <t>if you leave out the curly braces the body of the loop is just the statement1</t>
   </si>
 </sst>
 </file>
@@ -1393,21 +1399,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D161"/>
+  <dimension ref="A1:D162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="A154" sqref="A154"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="A162" sqref="A162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="91" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="108.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.46484375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="108.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
         <v>251</v>
       </c>
@@ -1417,7 +1423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1431,7 +1437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1445,7 +1451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1457,7 +1463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1471,7 +1477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1485,7 +1491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1499,7 +1505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1510,7 +1516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1521,7 +1527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1532,7 +1538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1540,7 +1546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1548,7 +1554,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -1556,7 +1562,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -1564,7 +1570,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -1572,7 +1578,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -1580,7 +1586,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -1588,7 +1594,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -1596,7 +1602,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -1604,7 +1610,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -1612,7 +1618,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -1620,7 +1626,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -1628,7 +1634,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1636,7 +1642,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1644,7 +1650,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -1652,7 +1658,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -1660,7 +1666,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -1668,7 +1674,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -1676,7 +1682,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -1684,7 +1690,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -1692,7 +1698,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -1700,7 +1706,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -1708,7 +1714,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -1716,7 +1722,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -1724,7 +1730,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -1732,7 +1738,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -1740,7 +1746,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -1748,7 +1754,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -1756,7 +1762,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -1764,7 +1770,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -1772,7 +1778,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -1780,7 +1786,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -1788,7 +1794,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -1796,7 +1802,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -1804,7 +1810,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -1812,7 +1818,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -1820,7 +1826,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -1828,7 +1834,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -1836,7 +1842,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -1844,7 +1850,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -1852,7 +1858,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -1860,7 +1866,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -1868,7 +1874,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -1876,7 +1882,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -1884,7 +1890,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -1892,7 +1898,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -1900,7 +1906,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -1908,7 +1914,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -1916,7 +1922,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -1924,7 +1930,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -1932,7 +1938,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -1940,7 +1946,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -1948,7 +1954,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -1956,7 +1962,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
         <v>127</v>
       </c>
@@ -1964,7 +1970,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -1972,7 +1978,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -1980,7 +1986,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -1988,7 +1994,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A68" t="s">
         <v>135</v>
       </c>
@@ -1996,7 +2002,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
         <v>137</v>
       </c>
@@ -2004,7 +2010,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -2012,7 +2018,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -2020,7 +2026,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A72" t="s">
         <v>143</v>
       </c>
@@ -2028,7 +2034,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A73" t="s">
         <v>145</v>
       </c>
@@ -2036,7 +2042,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -2044,7 +2050,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -2052,7 +2058,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A76" t="s">
         <v>151</v>
       </c>
@@ -2060,7 +2066,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -2068,7 +2074,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -2076,7 +2082,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -2084,7 +2090,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A80" t="s">
         <v>159</v>
       </c>
@@ -2092,7 +2098,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -2100,7 +2106,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -2108,7 +2114,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A83" t="s">
         <v>164</v>
       </c>
@@ -2116,7 +2122,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A84" t="s">
         <v>165</v>
       </c>
@@ -2124,7 +2130,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A85" t="s">
         <v>167</v>
       </c>
@@ -2132,7 +2138,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A86" t="s">
         <v>169</v>
       </c>
@@ -2140,7 +2146,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A87" t="s">
         <v>171</v>
       </c>
@@ -2148,7 +2154,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A88" t="s">
         <v>173</v>
       </c>
@@ -2156,7 +2162,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A89" t="s">
         <v>175</v>
       </c>
@@ -2164,7 +2170,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A90" t="s">
         <v>177</v>
       </c>
@@ -2172,7 +2178,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A91" t="s">
         <v>179</v>
       </c>
@@ -2180,7 +2186,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A92" t="s">
         <v>181</v>
       </c>
@@ -2188,7 +2194,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A93" t="s">
         <v>183</v>
       </c>
@@ -2196,7 +2202,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A94" t="s">
         <v>185</v>
       </c>
@@ -2204,7 +2210,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A95" t="s">
         <v>187</v>
       </c>
@@ -2212,7 +2218,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A96" t="s">
         <v>189</v>
       </c>
@@ -2220,7 +2226,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A97" t="s">
         <v>191</v>
       </c>
@@ -2228,7 +2234,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A98" t="s">
         <v>193</v>
       </c>
@@ -2236,7 +2242,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A99" t="s">
         <v>195</v>
       </c>
@@ -2244,7 +2250,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A100" t="s">
         <v>197</v>
       </c>
@@ -2252,7 +2258,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A101" t="s">
         <v>199</v>
       </c>
@@ -2260,7 +2266,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A102" t="s">
         <v>201</v>
       </c>
@@ -2268,7 +2274,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A103" t="s">
         <v>203</v>
       </c>
@@ -2276,7 +2282,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A104" t="s">
         <v>205</v>
       </c>
@@ -2284,7 +2290,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A105" t="s">
         <v>207</v>
       </c>
@@ -2292,7 +2298,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A106" t="s">
         <v>209</v>
       </c>
@@ -2300,7 +2306,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A107" t="s">
         <v>211</v>
       </c>
@@ -2308,7 +2314,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A108" t="s">
         <v>213</v>
       </c>
@@ -2316,7 +2322,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A109" t="s">
         <v>215</v>
       </c>
@@ -2324,7 +2330,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A110" t="s">
         <v>217</v>
       </c>
@@ -2332,7 +2338,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A111" t="s">
         <v>219</v>
       </c>
@@ -2340,7 +2346,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A112" t="s">
         <v>221</v>
       </c>
@@ -2348,7 +2354,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A113" t="s">
         <v>223</v>
       </c>
@@ -2356,7 +2362,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A114" t="s">
         <v>225</v>
       </c>
@@ -2364,7 +2370,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A115" t="s">
         <v>227</v>
       </c>
@@ -2372,7 +2378,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A116" t="s">
         <v>229</v>
       </c>
@@ -2380,7 +2386,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A117" t="s">
         <v>231</v>
       </c>
@@ -2388,7 +2394,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A118" t="s">
         <v>233</v>
       </c>
@@ -2396,7 +2402,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A119" t="s">
         <v>235</v>
       </c>
@@ -2404,7 +2410,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A120" t="s">
         <v>237</v>
       </c>
@@ -2412,7 +2418,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A121" t="s">
         <v>239</v>
       </c>
@@ -2420,7 +2426,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A122" t="s">
         <v>241</v>
       </c>
@@ -2428,7 +2434,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A123" t="s">
         <v>243</v>
       </c>
@@ -2436,7 +2442,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A124" t="s">
         <v>245</v>
       </c>
@@ -2444,7 +2450,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A125" t="s">
         <v>247</v>
       </c>
@@ -2452,7 +2458,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A126" t="s">
         <v>254</v>
       </c>
@@ -2460,7 +2466,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A127" t="s">
         <v>307</v>
       </c>
@@ -2468,7 +2474,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A128" t="s">
         <v>308</v>
       </c>
@@ -2476,7 +2482,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A129" t="s">
         <v>309</v>
       </c>
@@ -2484,7 +2490,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A130" t="s">
         <v>255</v>
       </c>
@@ -2492,7 +2498,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A131" t="s">
         <v>256</v>
       </c>
@@ -2500,7 +2506,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A132" t="s">
         <v>257</v>
       </c>
@@ -2508,7 +2514,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A133" t="s">
         <v>258</v>
       </c>
@@ -2516,7 +2522,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A134" t="s">
         <v>260</v>
       </c>
@@ -2524,7 +2530,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A135" t="s">
         <v>261</v>
       </c>
@@ -2532,7 +2538,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A136" t="s">
         <v>263</v>
       </c>
@@ -2540,7 +2546,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A137" t="s">
         <v>281</v>
       </c>
@@ -2548,7 +2554,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A138" t="s">
         <v>282</v>
       </c>
@@ -2556,7 +2562,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A139" t="s">
         <v>283</v>
       </c>
@@ -2564,7 +2570,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A140" t="s">
         <v>284</v>
       </c>
@@ -2572,7 +2578,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A141" t="s">
         <v>285</v>
       </c>
@@ -2580,7 +2586,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A142" t="s">
         <v>286</v>
       </c>
@@ -2588,7 +2594,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A143" t="s">
         <v>287</v>
       </c>
@@ -2596,7 +2602,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A144" t="s">
         <v>288</v>
       </c>
@@ -2604,7 +2610,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A145" t="s">
         <v>289</v>
       </c>
@@ -2612,7 +2618,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A146" t="s">
         <v>290</v>
       </c>
@@ -2620,7 +2626,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A147" t="s">
         <v>291</v>
       </c>
@@ -2628,7 +2634,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A148" t="s">
         <v>294</v>
       </c>
@@ -2636,7 +2642,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A149" t="s">
         <v>292</v>
       </c>
@@ -2644,7 +2650,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A150" t="s">
         <v>321</v>
       </c>
@@ -2652,7 +2658,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A151" t="s">
         <v>320</v>
       </c>
@@ -2660,7 +2666,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A152" t="s">
         <v>319</v>
       </c>
@@ -2668,7 +2674,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A153" t="s">
         <v>318</v>
       </c>
@@ -2676,7 +2682,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A154" t="s">
         <v>322</v>
       </c>
@@ -2684,7 +2690,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A155" t="s">
         <v>305</v>
       </c>
@@ -2692,7 +2698,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A156" t="s">
         <v>304</v>
       </c>
@@ -2700,7 +2706,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A157" t="s">
         <v>306</v>
       </c>
@@ -2708,7 +2714,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A158" t="s">
         <v>316</v>
       </c>
@@ -2716,7 +2722,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A159" t="s">
         <v>315</v>
       </c>
@@ -2724,7 +2730,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A160" t="s">
         <v>314</v>
       </c>
@@ -2732,12 +2738,20 @@
         <v>312</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A161" t="s">
         <v>313</v>
       </c>
       <c r="C161" t="s">
         <v>310</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A162" t="s">
+        <v>323</v>
+      </c>
+      <c r="C162" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9245E702-E257-41D7-A0A6-91D155324CE3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{65935AEE-40D0-47D2-B961-FC2FABA615B2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7275" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="7725" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="327">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -995,6 +995,12 @@
   </si>
   <si>
     <t>if you leave out the curly braces the body of the loop is just the statement1</t>
+  </si>
+  <si>
+    <t>C | What does character written between single quotes represent in C, 'A'? (start with "it represents, how it's called")</t>
+  </si>
+  <si>
+    <t>it represents an integer value equal to the numerical value of the character in the machine's character set, character constant</t>
   </si>
 </sst>
 </file>
@@ -1399,10 +1405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D162"/>
+  <dimension ref="A1:D163"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="A162" sqref="A162"/>
+      <selection activeCell="A164" sqref="A164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.75"/>
@@ -2754,6 +2760,14 @@
         <v>324</v>
       </c>
     </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A163" t="s">
+        <v>325</v>
+      </c>
+      <c r="C163" t="s">
+        <v>326</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{65935AEE-40D0-47D2-B961-FC2FABA615B2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{66D46842-065E-4FBF-AF65-69417C4352EA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7725" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="8175" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1407,8 +1407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="A164" sqref="A164"/>
+    <sheetView tabSelected="1" topLeftCell="C143" workbookViewId="0">
+      <selection activeCell="D147" sqref="D147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.75"/>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{66D46842-065E-4FBF-AF65-69417C4352EA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{50EEFA74-225D-4A37-B6C0-04A7043A6423}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8175" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="8625" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="325">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -904,13 +904,7 @@
     <t>keywords(int,while), identifiers(main,total), constants(10,20), strings("hello","world"), special symbols({}), operators(+,/,-*)</t>
   </si>
   <si>
-    <t>C | What does %f mean in this statement: printf("%f\t%f\n",fahr,celsius); (start with "%f …")</t>
-  </si>
-  <si>
     <t>%d specifies the integer argument so that the statement causes the values of the two integers fahr and celsius to be printed with tab in between</t>
-  </si>
-  <si>
-    <t>%f specifies the float argument so that the statement causes the values of the two float fahr and celsius to be printed with tab in between</t>
   </si>
   <si>
     <t>print as decimal integer</t>
@@ -1405,10 +1399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D163"/>
+  <dimension ref="A1:D162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C143" workbookViewId="0">
-      <selection activeCell="D147" sqref="D147"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="A151" sqref="A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.75"/>
@@ -2474,7 +2468,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A127" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C127" t="s">
         <v>272</v>
@@ -2482,7 +2476,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A128" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C128" t="s">
         <v>253</v>
@@ -2490,7 +2484,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A129" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C129" t="s">
         <v>252</v>
@@ -2637,71 +2631,71 @@
         <v>291</v>
       </c>
       <c r="C147" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A148" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C148" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A149" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="C149" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A150" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C150" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A151" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C151" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A152" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C152" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A153" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C153" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A154" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="C154" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A155" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C155" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.75">
@@ -2709,47 +2703,47 @@
         <v>304</v>
       </c>
       <c r="C156" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A157" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C157" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A158" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C158" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A159" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C159" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A160" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C160" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A161" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="C161" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.75">
@@ -2758,14 +2752,6 @@
       </c>
       <c r="C162" t="s">
         <v>324</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A163" t="s">
-        <v>325</v>
-      </c>
-      <c r="C163" t="s">
-        <v>326</v>
       </c>
     </row>
   </sheetData>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{50EEFA74-225D-4A37-B6C0-04A7043A6423}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{09B89088-AD3B-41A2-9956-123A55F53228}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8625" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="9075" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="323">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -895,16 +895,10 @@
     <t>C | How this while loop operates? while (fahr&lt;=upper) { celsius=5*(fahr-32)/9; printf("%d\t%d\n",fahr,celsius); fahr=fahr+step; } - part 4</t>
   </si>
   <si>
-    <t>C | What does %d mean in this statement: printf("%d\t%d\n",fahr,celsius); (start with "%d …")</t>
-  </si>
-  <si>
     <t>C | What will happen with operation in terms of values, in case arithmetic operator has one floating-point operand and one integer operand? (start with "the..")</t>
   </si>
   <si>
     <t>keywords(int,while), identifiers(main,total), constants(10,20), strings("hello","world"), special symbols({}), operators(+,/,-*)</t>
-  </si>
-  <si>
-    <t>%d specifies the integer argument so that the statement causes the values of the two integers fahr and celsius to be printed with tab in between</t>
   </si>
   <si>
     <t>print as decimal integer</t>
@@ -1399,10 +1393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D162"/>
+  <dimension ref="A1:D161"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="A151" sqref="A151"/>
+      <selection activeCell="A147" sqref="A147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.75"/>
@@ -2463,12 +2457,12 @@
         <v>254</v>
       </c>
       <c r="C126" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A127" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C127" t="s">
         <v>272</v>
@@ -2476,7 +2470,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A128" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C128" t="s">
         <v>253</v>
@@ -2484,7 +2478,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A129" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C129" t="s">
         <v>252</v>
@@ -2631,63 +2625,63 @@
         <v>291</v>
       </c>
       <c r="C147" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A148" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="C148" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A149" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C149" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A150" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C150" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A151" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C151" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A152" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C152" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A153" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="C153" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A154" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C154" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.75">
@@ -2695,47 +2689,47 @@
         <v>302</v>
       </c>
       <c r="C155" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A156" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C156" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A157" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C157" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A158" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C158" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A159" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C159" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A160" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="C160" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.75">
@@ -2744,14 +2738,6 @@
       </c>
       <c r="C161" t="s">
         <v>322</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A162" t="s">
-        <v>323</v>
-      </c>
-      <c r="C162" t="s">
-        <v>324</v>
       </c>
     </row>
   </sheetData>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{09B89088-AD3B-41A2-9956-123A55F53228}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BA9164C2-6993-42F4-A4D2-D64B8DC0AA14}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9075" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="9525" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -982,13 +982,13 @@
     <t>C | Explain the difference between the two loops: "while (…) { statement1; statement2; statement3 }"  and "while (…) statement1; statement2; statement3" (start with "if you leave…")</t>
   </si>
   <si>
-    <t>if you leave out the curly braces the body of the loop is just the statement1</t>
-  </si>
-  <si>
     <t>C | What does character written between single quotes represent in C, 'A'? (start with "it represents, how it's called")</t>
   </si>
   <si>
     <t>it represents an integer value equal to the numerical value of the character in the machine's character set, character constant</t>
+  </si>
+  <si>
+    <t>if you leave out the curly braces the only thing that will be executed is the statement1</t>
   </si>
 </sst>
 </file>
@@ -1395,19 +1395,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="A147" sqref="A147"/>
+    <sheetView tabSelected="1" topLeftCell="B146" workbookViewId="0">
+      <selection activeCell="C160" sqref="C160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="91" customWidth="1"/>
-    <col min="2" max="2" width="17.46484375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="108.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="108.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>251</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>127</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>135</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>137</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>143</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>145</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>151</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>159</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>164</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>165</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>167</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>169</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>171</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>173</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>175</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>177</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>179</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>181</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>183</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>185</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>187</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>189</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>191</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>193</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>195</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>197</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>199</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>201</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>203</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>205</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>207</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>209</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>211</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>213</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>215</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>217</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>219</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>221</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>223</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>225</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>227</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>229</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>231</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>233</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>235</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>237</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>239</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>241</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>243</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>245</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>247</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>254</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>303</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>304</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>305</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>255</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>256</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>257</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>258</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>260</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>261</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>263</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>281</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>282</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>283</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>284</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>285</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>286</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>287</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>288</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>289</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>290</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>291</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>317</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>316</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>315</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>314</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>318</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>301</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>300</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>302</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>312</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>311</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>310</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>309</v>
       </c>
@@ -2724,20 +2724,20 @@
         <v>306</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>319</v>
       </c>
       <c r="C160" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A161" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A161" t="s">
+      <c r="C161" t="s">
         <v>321</v>
-      </c>
-      <c r="C161" t="s">
-        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BA9164C2-6993-42F4-A4D2-D64B8DC0AA14}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{631D5288-19E2-484A-AC37-44A7729FDEDA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9525" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="9975" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -988,7 +988,7 @@
     <t>it represents an integer value equal to the numerical value of the character in the machine's character set, character constant</t>
   </si>
   <si>
-    <t>if you leave out the curly braces the only thing that will be executed is the statement1</t>
+    <t>if you leave out the curly braces the only statement1 will be executed inside the loop</t>
   </si>
 </sst>
 </file>
@@ -1395,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B146" workbookViewId="0">
-      <selection activeCell="C160" sqref="C160"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="A160" sqref="A160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{631D5288-19E2-484A-AC37-44A7729FDEDA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2F872AE5-0F48-4230-9142-D8C4AC3A1058}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9975" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="10425" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -841,9 +841,6 @@
     <t>it tells the compiler to include information about the standard input/output library</t>
   </si>
   <si>
-    <t>for the calling function to provide a list of values called arguments to the function it calls</t>
-  </si>
-  <si>
     <t>the parentheses after the function name surround the argument list</t>
   </si>
   <si>
@@ -989,6 +986,9 @@
   </si>
   <si>
     <t>if you leave out the curly braces the only statement1 will be executed inside the loop</t>
+  </si>
+  <si>
+    <t>for the calling function to provide the list of values called arguments to the function it calls</t>
   </si>
 </sst>
 </file>
@@ -1395,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="A160" sqref="A160"/>
+    <sheetView tabSelected="1" topLeftCell="B138" workbookViewId="0">
+      <selection activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
@@ -2457,12 +2457,12 @@
         <v>254</v>
       </c>
       <c r="C126" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C127" t="s">
         <v>272</v>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C128" t="s">
         <v>253</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C129" t="s">
         <v>252</v>
@@ -2542,7 +2542,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C137" t="s">
         <v>269</v>
@@ -2550,7 +2550,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C138" t="s">
         <v>270</v>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C139" t="s">
         <v>271</v>
@@ -2566,178 +2566,178 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C140" t="s">
-        <v>273</v>
+        <v>322</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C141" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C142" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C143" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C144" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C145" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C146" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C147" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C148" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C149" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C150" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C151" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C152" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C153" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C154" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C155" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C156" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C157" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C158" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C159" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C160" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
+        <v>319</v>
+      </c>
+      <c r="C161" t="s">
         <v>320</v>
-      </c>
-      <c r="C161" t="s">
-        <v>321</v>
       </c>
     </row>
   </sheetData>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2F872AE5-0F48-4230-9142-D8C4AC3A1058}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8EF718F4-2184-41DA-B557-A75862499E08}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10425" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="11325" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -946,18 +946,6 @@
     <t>output the character just read</t>
   </si>
   <si>
-    <t>C | What does the fourth part in this "while statement/loop" mean, in general: c=getchar(); while (c != EOF) { putchar(c); c=getchar(); }</t>
-  </si>
-  <si>
-    <t>C | What does the third part  in this "while statement/loop" mean, in general: c=getchar(); while (c != EOF) { putchar(c); c=getchar(); }</t>
-  </si>
-  <si>
-    <t>C | What does the second part  in this "while statement/loop" mean, in general: c=getchar(); while (c != EOF) { putchar(c); c=getchar(); }</t>
-  </si>
-  <si>
-    <t>C | What does the first part in this "while statement/loop" mean, in general: c=getchar(); while (c != EOF) { putchar(c); c=getchar(); }</t>
-  </si>
-  <si>
     <t>print as floating point, no more than 2 characters after decimal point</t>
   </si>
   <si>
@@ -979,9 +967,6 @@
     <t>C | Explain the difference between the two loops: "while (…) { statement1; statement2; statement3 }"  and "while (…) statement1; statement2; statement3" (start with "if you leave…")</t>
   </si>
   <si>
-    <t>C | What does character written between single quotes represent in C, 'A'? (start with "it represents, how it's called")</t>
-  </si>
-  <si>
     <t>it represents an integer value equal to the numerical value of the character in the machine's character set, character constant</t>
   </si>
   <si>
@@ -989,6 +974,21 @@
   </si>
   <si>
     <t>for the calling function to provide the list of values called arguments to the function it calls</t>
+  </si>
+  <si>
+    <t>C | What does the first part in this snippet  mean, in general: c=getchar(); while (c != EOF) { putchar(c); c=getchar(); }</t>
+  </si>
+  <si>
+    <t>C | What does the first  part  in the "while statement/loop" mean, in general: c=getchar(); while (c != EOF) { putchar(c); c=getchar(); }</t>
+  </si>
+  <si>
+    <t>C | What does the second part in the "while statement/loop" mean, in general: c=getchar(); while (c != EOF) { putchar(c); c=getchar(); }</t>
+  </si>
+  <si>
+    <t>C | What does the third part in the "while statement/loop" mean, in general: c=getchar(); while (c != EOF) { putchar(c); c=getchar(); }</t>
+  </si>
+  <si>
+    <t>C | What does character written between single quotes represent in C, by default: 'A'? (start with "it represents, how it's called")</t>
   </si>
 </sst>
 </file>
@@ -1395,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B138" workbookViewId="0">
-      <selection activeCell="D140" sqref="D140"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="B165" sqref="B165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
@@ -2569,7 +2569,7 @@
         <v>283</v>
       </c>
       <c r="C140" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.45">
@@ -2630,7 +2630,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C148" t="s">
         <v>292</v>
@@ -2638,7 +2638,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C149" t="s">
         <v>293</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C150" t="s">
         <v>294</v>
@@ -2654,7 +2654,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C151" t="s">
         <v>295</v>
@@ -2662,10 +2662,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C152" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.45">
@@ -2694,7 +2694,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="C156" t="s">
         <v>305</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="C157" t="s">
         <v>306</v>
@@ -2710,7 +2710,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="C158" t="s">
         <v>307</v>
@@ -2718,7 +2718,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="C159" t="s">
         <v>305</v>
@@ -2726,18 +2726,18 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C160" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C161" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8EF718F4-2184-41DA-B557-A75862499E08}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D3537966-4C93-44FC-9A9B-6CC7B2488071}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="11325" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="11775" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -979,16 +979,16 @@
     <t>C | What does the first part in this snippet  mean, in general: c=getchar(); while (c != EOF) { putchar(c); c=getchar(); }</t>
   </si>
   <si>
-    <t>C | What does the first  part  in the "while statement/loop" mean, in general: c=getchar(); while (c != EOF) { putchar(c); c=getchar(); }</t>
-  </si>
-  <si>
-    <t>C | What does the second part in the "while statement/loop" mean, in general: c=getchar(); while (c != EOF) { putchar(c); c=getchar(); }</t>
-  </si>
-  <si>
-    <t>C | What does the third part in the "while statement/loop" mean, in general: c=getchar(); while (c != EOF) { putchar(c); c=getchar(); }</t>
-  </si>
-  <si>
     <t>C | What does character written between single quotes represent in C, by default: 'A'? (start with "it represents, how it's called")</t>
+  </si>
+  <si>
+    <t>C | What does the first part in the "while statement/loop body" mean, in general: c=getchar(); while (c != EOF) { putchar(c); c=getchar(); }</t>
+  </si>
+  <si>
+    <t>C | What does the second part in the "while statement/loop body" mean, in general: c=getchar(); while (c != EOF) { putchar(c); c=getchar(); }</t>
+  </si>
+  <si>
+    <t>C | What does this "while statement/loop condition" mean, literally: c=getchar(); while (c != EOF) { putchar(c); c=getchar(); }</t>
   </si>
 </sst>
 </file>
@@ -1396,7 +1396,7 @@
   <dimension ref="A1:D161"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="B165" sqref="B165"/>
+      <selection activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C157" t="s">
         <v>306</v>
@@ -2734,7 +2734,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C161" t="s">
         <v>315</v>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D3537966-4C93-44FC-9A9B-6CC7B2488071}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2CFEB1B2-B2B6-4FB5-A62A-7B3452497E86}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="11775" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="12225" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -919,15 +919,6 @@
     <t>the increment step is executed</t>
   </si>
   <si>
-    <t xml:space="preserve">C | What does the second part within the parentheses in this "for statement/loop" mean, in general: for (fahr=0; fahr&lt;=300; fahr=fahr+20) printf("%3d%6.1f\n",fahr,(5.0/9.0)*(fahr-32)); </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C | What does the first part within the parentheses in this "for statement/loop" mean, in general: for (fahr=0; fahr&lt;=300; fahr=fahr+20) printf("%3d%6.1f\n",fahr,(5.0/9.0)*(fahr-32)); </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C | What does the third part within the parentheses in this "for statement/loop" mean, in general: for (fahr=0; fahr&lt;=300; fahr=fahr+20) printf("%3d%6.1f\n",fahr,(5.0/9.0)*(fahr-32)); </t>
-  </si>
-  <si>
     <t>C | What does the first part of the following program mean: "#include &lt;stdio.h&gt;      main()       { printf("hello, world\n"); }"? (start with "it tells the…")</t>
   </si>
   <si>
@@ -989,6 +980,15 @@
   </si>
   <si>
     <t>C | What does this "while statement/loop condition" mean, literally: c=getchar(); while (c != EOF) { putchar(c); c=getchar(); }</t>
+  </si>
+  <si>
+    <t>C | What does the second part within the parentheses in this "for statement/loop" mean, in general: for (fahr=0; fahr&lt;=300; fahr=fahr+20) printf("%3d%6.1f\n",fahr,(5.0/9.0)*(fahr-32)); (start with "the…")</t>
+  </si>
+  <si>
+    <t>C | What does the third part within the parentheses in this "for statement/loop" mean, in general: for (fahr=0; fahr&lt;=300; fahr=fahr+20) printf("%3d%6.1f\n",fahr,(5.0/9.0)*(fahr-32)); (start with "the …')</t>
+  </si>
+  <si>
+    <t>C | What does the first part within the parentheses in this "for statement/loop" mean, in general: for (fahr=0; fahr&lt;=300; fahr=fahr+20) printf("%3d%6.1f\n",fahr,(5.0/9.0)*(fahr-32)); (start with "the…")</t>
   </si>
 </sst>
 </file>
@@ -1395,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="A156" sqref="A156"/>
+    <sheetView tabSelected="1" topLeftCell="B145" workbookViewId="0">
+      <selection activeCell="C153" sqref="C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
@@ -2462,7 +2462,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C127" t="s">
         <v>272</v>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C128" t="s">
         <v>253</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C129" t="s">
         <v>252</v>
@@ -2569,7 +2569,7 @@
         <v>283</v>
       </c>
       <c r="C140" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.45">
@@ -2630,7 +2630,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C148" t="s">
         <v>292</v>
@@ -2638,7 +2638,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C149" t="s">
         <v>293</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C150" t="s">
         <v>294</v>
@@ -2654,7 +2654,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C151" t="s">
         <v>295</v>
@@ -2662,15 +2662,15 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C152" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="C153" t="s">
         <v>296</v>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="C154" t="s">
         <v>297</v>
@@ -2686,7 +2686,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="C155" t="s">
         <v>298</v>
@@ -2694,50 +2694,50 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C156" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C157" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C158" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C159" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C160" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C161" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2CFEB1B2-B2B6-4FB5-A62A-7B3452497E86}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{58B295D0-D519-44CB-BA25-4644C700FFE7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12225" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="12675" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="325">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -895,9 +895,6 @@
     <t>C | What will happen with operation in terms of values, in case arithmetic operator has one floating-point operand and one integer operand? (start with "the..")</t>
   </si>
   <si>
-    <t>keywords(int,while), identifiers(main,total), constants(10,20), strings("hello","world"), special symbols({}), operators(+,/,-*)</t>
-  </si>
-  <si>
     <t>print as decimal integer</t>
   </si>
   <si>
@@ -989,6 +986,15 @@
   </si>
   <si>
     <t>C | What does the first part within the parentheses in this "for statement/loop" mean, in general: for (fahr=0; fahr&lt;=300; fahr=fahr+20) printf("%3d%6.1f\n",fahr,(5.0/9.0)*(fahr-32)); (start with "the…")</t>
+  </si>
+  <si>
+    <t>keywords(int,while), identifiers(main,total), constants(10,20), string-literals("hello","world"), operators/punctuators ({})</t>
+  </si>
+  <si>
+    <t>C | What are the preprocessing tokens in C? (without examples but end each token with "s")</t>
+  </si>
+  <si>
+    <t>header-names, identifiers, pp-numbers, character-constants, string-literals, punctuators</t>
   </si>
 </sst>
 </file>
@@ -1393,10 +1399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D161"/>
+  <dimension ref="A1:D162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B145" workbookViewId="0">
-      <selection activeCell="C153" sqref="C153"/>
+    <sheetView tabSelected="1" topLeftCell="B122" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
@@ -2457,183 +2463,183 @@
         <v>254</v>
       </c>
       <c r="C126" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="C127" t="s">
-        <v>272</v>
+        <v>324</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C128" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C129" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="C130" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C131" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C132" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C133" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C134" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C135" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C136" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C137" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C138" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C139" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C140" t="s">
-        <v>314</v>
+        <v>271</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C141" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C142" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C143" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C144" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C145" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C146" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C147" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="C148" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.45">
@@ -2641,7 +2647,7 @@
         <v>308</v>
       </c>
       <c r="C149" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.45">
@@ -2649,7 +2655,7 @@
         <v>307</v>
       </c>
       <c r="C150" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.45">
@@ -2657,87 +2663,95 @@
         <v>306</v>
       </c>
       <c r="C151" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C152" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="C153" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C154" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C155" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C156" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C157" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C158" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C159" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C160" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C161" t="s">
         <v>312</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A162" t="s">
+        <v>315</v>
+      </c>
+      <c r="C162" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{58B295D0-D519-44CB-BA25-4644C700FFE7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1B2A45C2-2E29-4596-B5E0-845C8244D220}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12675" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="13125" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="339">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -995,6 +995,48 @@
   </si>
   <si>
     <t>header-names, identifiers, pp-numbers, character-constants, string-literals, punctuators</t>
+  </si>
+  <si>
+    <t>unary operators, binary operators, ternary operators, punctuators</t>
+  </si>
+  <si>
+    <t>C | What are the categories of  punctuators/operators in C? (without examples but end each type with "s")</t>
+  </si>
+  <si>
+    <t>C | What are the punctuators in C? (without examples)</t>
+  </si>
+  <si>
+    <t>array subscript operator, parentheses operators, braces, equal sign, comma operator and punctuator, semicolon, colon, asterisk, quotes, ellipsis, typecast</t>
+  </si>
+  <si>
+    <t>labeled-statement, compound-statement, expression-statement, selection-statement, iteration-statement, jump-statement</t>
+  </si>
+  <si>
+    <t>C | What are the statement types in C? (Put in format [statement name]-statement) separated by comma)</t>
+  </si>
+  <si>
+    <t>C | What are the jump-statements in C? (separate the whole statements by "|")</t>
+  </si>
+  <si>
+    <t>C | What are the iteration-statements in C? (separate the whole statements by "|")</t>
+  </si>
+  <si>
+    <t>C | What are the selection-statements in C? (separate the whole statements by "|")</t>
+  </si>
+  <si>
+    <t>C | What are the labeled-statements in C? (separate the whole statements by "|")</t>
+  </si>
+  <si>
+    <t>identifier:statement | case constant-expression:statement | default:statement</t>
+  </si>
+  <si>
+    <t>if (expression) statement | if (expression) statement else statement |  switch (expression) statement</t>
+  </si>
+  <si>
+    <t>while (expression) statement | do statement while (expression); | for (expression; expression; expression) statement | for (declaration expression; expression) statement</t>
+  </si>
+  <si>
+    <t>goto identifiers; | continue; |  break; | return expression;</t>
   </si>
 </sst>
 </file>
@@ -1399,10 +1441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D162"/>
+  <dimension ref="A1:D169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B122" workbookViewId="0">
-      <selection activeCell="C127" sqref="C127"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
@@ -2476,281 +2518,337 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="C128" t="s">
-        <v>272</v>
+        <v>325</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="C129" t="s">
-        <v>253</v>
+        <v>328</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="C130" t="s">
-        <v>252</v>
+        <v>329</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>255</v>
+        <v>334</v>
       </c>
       <c r="C131" t="s">
-        <v>265</v>
+        <v>335</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>256</v>
+        <v>333</v>
       </c>
       <c r="C132" t="s">
-        <v>266</v>
+        <v>336</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>257</v>
+        <v>332</v>
       </c>
       <c r="C133" t="s">
-        <v>267</v>
+        <v>337</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>258</v>
+        <v>331</v>
       </c>
       <c r="C134" t="s">
-        <v>268</v>
+        <v>338</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="C135" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="C136" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="C137" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="C138" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="C139" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="C140" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="C141" t="s">
-        <v>313</v>
+        <v>268</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="C142" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="C143" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="C144" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C145" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C146" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C147" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C148" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="C149" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="C150" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="C151" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="C152" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="C153" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="C154" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="C155" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C156" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C157" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="C158" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="C159" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C160" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="C161" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
+        <v>319</v>
+      </c>
+      <c r="C162" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A163" t="s">
+        <v>320</v>
+      </c>
+      <c r="C163" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A164" t="s">
+        <v>314</v>
+      </c>
+      <c r="C164" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A165" t="s">
+        <v>318</v>
+      </c>
+      <c r="C165" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A166" t="s">
+        <v>316</v>
+      </c>
+      <c r="C166" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A167" t="s">
+        <v>317</v>
+      </c>
+      <c r="C167" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A168" t="s">
+        <v>310</v>
+      </c>
+      <c r="C168" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A169" t="s">
         <v>315</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C169" t="s">
         <v>311</v>
       </c>
     </row>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1B2A45C2-2E29-4596-B5E0-845C8244D220}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1F4D5719-55D7-43B1-B761-612CEC007458}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="13125" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="13584" windowWidth="18048" windowHeight="6588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -847,15 +847,6 @@
     <t>it announces the properties of variables, consists of a type name and a list of variables</t>
   </si>
   <si>
-    <t>the condition in parentheses is tested</t>
-  </si>
-  <si>
-    <t>if it is true, fahr is less than or equal to upper, the body of the loop, the three statements enclosed in braces, is executed</t>
-  </si>
-  <si>
-    <t>the condition is re-tested, if true, the body is executed again</t>
-  </si>
-  <si>
     <t>when the test becomes false, fahr exceeds upper, the loop ends and the execution continues at the statement that follows the loop</t>
   </si>
   <si>
@@ -880,18 +871,6 @@
     <t>C | What declaration does, what it consists of? (start with "it…, consists of")</t>
   </si>
   <si>
-    <t>C | How this while loop operates? while (fahr&lt;=upper) { celsius=5*(fahr-32)/9; printf("%d\t%d\n",fahr,celsius); fahr=fahr+step; } - part 1 (start with "the")</t>
-  </si>
-  <si>
-    <t>C | How this while loop operates? while (fahr&lt;=upper) { celsius=5*(fahr-32)/9; printf("%d\t%d\n",fahr,celsius); fahr=fahr+step; } - part 2</t>
-  </si>
-  <si>
-    <t>C | How this while loop operates? while (fahr&lt;=upper) { celsius=5*(fahr-32)/9; printf("%d\t%d\n",fahr,celsius); fahr=fahr+step; } - part 3</t>
-  </si>
-  <si>
-    <t>C | How this while loop operates? while (fahr&lt;=upper) { celsius=5*(fahr-32)/9; printf("%d\t%d\n",fahr,celsius); fahr=fahr+step; } - part 4</t>
-  </si>
-  <si>
     <t>C | What will happen with operation in terms of values, in case arithmetic operator has one floating-point operand and one integer operand? (start with "the..")</t>
   </si>
   <si>
@@ -964,21 +943,9 @@
     <t>for the calling function to provide the list of values called arguments to the function it calls</t>
   </si>
   <si>
-    <t>C | What does the first part in this snippet  mean, in general: c=getchar(); while (c != EOF) { putchar(c); c=getchar(); }</t>
-  </si>
-  <si>
     <t>C | What does character written between single quotes represent in C, by default: 'A'? (start with "it represents, how it's called")</t>
   </si>
   <si>
-    <t>C | What does the first part in the "while statement/loop body" mean, in general: c=getchar(); while (c != EOF) { putchar(c); c=getchar(); }</t>
-  </si>
-  <si>
-    <t>C | What does the second part in the "while statement/loop body" mean, in general: c=getchar(); while (c != EOF) { putchar(c); c=getchar(); }</t>
-  </si>
-  <si>
-    <t>C | What does this "while statement/loop condition" mean, literally: c=getchar(); while (c != EOF) { putchar(c); c=getchar(); }</t>
-  </si>
-  <si>
     <t>C | What does the second part within the parentheses in this "for statement/loop" mean, in general: for (fahr=0; fahr&lt;=300; fahr=fahr+20) printf("%3d%6.1f\n",fahr,(5.0/9.0)*(fahr-32)); (start with "the…")</t>
   </si>
   <si>
@@ -1037,6 +1004,39 @@
   </si>
   <si>
     <t>goto identifiers; | continue; |  break; | return expression;</t>
+  </si>
+  <si>
+    <t>the condition/expression, fahr is less than or equal to upper, is tested</t>
+  </si>
+  <si>
+    <t>if it is true, the body of the loop, the three statements enclosed in curly braces, is executed</t>
+  </si>
+  <si>
+    <t>the condition is re-tested, if it is true, the body of the loop is executed</t>
+  </si>
+  <si>
+    <t>C | How this while loop operates? while (fahr&lt;=upper) { celsius=5*(fahr-32)/9; printf("%d\t%d\n",fahr,celsius); fahr=fahr+step; } - part 2 (explain the words expression/condition, true, false, body of the loop by separating the explanation by comma</t>
+  </si>
+  <si>
+    <t>C | How this while loop operates? while (fahr&lt;=upper) { celsius=5*(fahr-32)/9; printf("%d\t%d\n",fahr,celsius); fahr=fahr+step; } - part 1 (start with "the" and explain the words expression/condition, body of the loop, true, false by separating the explanation by comma)</t>
+  </si>
+  <si>
+    <t>C | How this while loop operates? while (fahr&lt;=upper) { celsius=5*(fahr-32)/9; printf("%d\t%d\n",fahr,celsius); fahr=fahr+step; } - part 3 (explain the words expression/condition, body of the loop, true, false by separating the explanation by comma</t>
+  </si>
+  <si>
+    <t>C | How this while loop operates? while (fahr&lt;=upper) { celsius=5*(fahr-32)/9; printf("%d\t%d\n",fahr,celsius); fahr=fahr+step; } - part 4 (explain the words expression/condition, body of the loop, true, false by separating the explanation by comma)</t>
+  </si>
+  <si>
+    <t>C | What does the first part in the "loop body" mean, in general: c=getchar(); while (c != EOF) { putchar(c); c=getchar(); }</t>
+  </si>
+  <si>
+    <t>C | What does the second part in the "loop body" mean, in general: c=getchar(); while (c != EOF) { putchar(c); c=getchar(); }</t>
+  </si>
+  <si>
+    <t>C | What does this "condition/expression" mean, literally/pseudo-code: c=getchar(); while (c != EOF) { putchar(c); c=getchar(); }</t>
+  </si>
+  <si>
+    <t>C | What does this assignment statement mean, literally/pseudo-code: c=getchar(); while (c != EOF) { putchar(c); c=getchar(); }</t>
   </si>
 </sst>
 </file>
@@ -1443,19 +1443,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B131" sqref="B131"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="91" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="108.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="108.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>251</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>127</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>135</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>137</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>143</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>145</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>151</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>159</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>164</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>165</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>167</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>169</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>171</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>173</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>175</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>177</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>179</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>181</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>183</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>185</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>187</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>189</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>191</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>193</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>195</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>197</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>199</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>201</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>203</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>205</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>207</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>209</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>211</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>213</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>215</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>217</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>219</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>221</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>223</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>225</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>227</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>229</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>231</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>233</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>235</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>237</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>239</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>241</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>243</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>245</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>247</v>
       </c>
@@ -2500,103 +2500,103 @@
         <v>248</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>254</v>
       </c>
       <c r="C126" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" t="s">
+        <v>312</v>
+      </c>
+      <c r="C127" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" t="s">
+        <v>315</v>
+      </c>
+      <c r="C128" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" t="s">
+        <v>316</v>
+      </c>
+      <c r="C129" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" t="s">
+        <v>319</v>
+      </c>
+      <c r="C130" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" t="s">
+        <v>323</v>
+      </c>
+      <c r="C131" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A127" t="s">
-        <v>323</v>
-      </c>
-      <c r="C127" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A128" t="s">
+      <c r="C132" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" t="s">
+        <v>321</v>
+      </c>
+      <c r="C133" t="s">
         <v>326</v>
       </c>
-      <c r="C128" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A129" t="s">
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" t="s">
+        <v>320</v>
+      </c>
+      <c r="C134" t="s">
         <v>327</v>
       </c>
-      <c r="C129" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A130" t="s">
-        <v>330</v>
-      </c>
-      <c r="C130" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A131" t="s">
-        <v>334</v>
-      </c>
-      <c r="C131" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A132" t="s">
-        <v>333</v>
-      </c>
-      <c r="C132" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A133" t="s">
-        <v>332</v>
-      </c>
-      <c r="C133" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A134" t="s">
-        <v>331</v>
-      </c>
-      <c r="C134" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C135" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C136" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C137" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>255</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>256</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>257</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>258</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>260</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>261</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>263</v>
       </c>
@@ -2652,204 +2652,204 @@
         <v>264</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C145" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C146" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C147" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C148" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C149" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C150" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
+        <v>332</v>
+      </c>
+      <c r="C151" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152" t="s">
+        <v>331</v>
+      </c>
+      <c r="C152" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153" t="s">
+        <v>333</v>
+      </c>
+      <c r="C153" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154" t="s">
+        <v>334</v>
+      </c>
+      <c r="C154" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" t="s">
+        <v>283</v>
+      </c>
+      <c r="C155" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156" t="s">
+        <v>301</v>
+      </c>
+      <c r="C156" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157" t="s">
+        <v>300</v>
+      </c>
+      <c r="C157" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158" t="s">
+        <v>299</v>
+      </c>
+      <c r="C158" t="s">
         <v>286</v>
       </c>
-      <c r="C151" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A152" t="s">
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159" t="s">
+        <v>298</v>
+      </c>
+      <c r="C159" t="s">
         <v>287</v>
       </c>
-      <c r="C152" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A153" t="s">
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160" t="s">
+        <v>302</v>
+      </c>
+      <c r="C160" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161" t="s">
+        <v>310</v>
+      </c>
+      <c r="C161" t="s">
         <v>288</v>
       </c>
-      <c r="C153" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A154" t="s">
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" t="s">
+        <v>308</v>
+      </c>
+      <c r="C162" t="s">
         <v>289</v>
       </c>
-      <c r="C154" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A155" t="s">
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163" t="s">
+        <v>309</v>
+      </c>
+      <c r="C163" t="s">
         <v>290</v>
       </c>
-      <c r="C155" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A156" t="s">
-        <v>308</v>
-      </c>
-      <c r="C156" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A157" t="s">
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164" t="s">
+        <v>338</v>
+      </c>
+      <c r="C164" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165" t="s">
+        <v>337</v>
+      </c>
+      <c r="C165" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166" t="s">
+        <v>335</v>
+      </c>
+      <c r="C166" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167" t="s">
+        <v>336</v>
+      </c>
+      <c r="C167" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168" t="s">
+        <v>303</v>
+      </c>
+      <c r="C168" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169" t="s">
         <v>307</v>
       </c>
-      <c r="C157" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A158" t="s">
-        <v>306</v>
-      </c>
-      <c r="C158" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A159" t="s">
-        <v>305</v>
-      </c>
-      <c r="C159" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A160" t="s">
-        <v>309</v>
-      </c>
-      <c r="C160" t="s">
+      <c r="C169" t="s">
         <v>304</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A161" t="s">
-        <v>321</v>
-      </c>
-      <c r="C161" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A162" t="s">
-        <v>319</v>
-      </c>
-      <c r="C162" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A163" t="s">
-        <v>320</v>
-      </c>
-      <c r="C163" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A164" t="s">
-        <v>314</v>
-      </c>
-      <c r="C164" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A165" t="s">
-        <v>318</v>
-      </c>
-      <c r="C165" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A166" t="s">
-        <v>316</v>
-      </c>
-      <c r="C166" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A167" t="s">
-        <v>317</v>
-      </c>
-      <c r="C167" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A168" t="s">
-        <v>310</v>
-      </c>
-      <c r="C168" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A169" t="s">
-        <v>315</v>
-      </c>
-      <c r="C169" t="s">
-        <v>311</v>
       </c>
     </row>
   </sheetData>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1F4D5719-55D7-43B1-B761-612CEC007458}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{05E7CCEE-AAD4-4EE1-A395-AA162E8D09D5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="13584" windowWidth="18048" windowHeight="6588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="14040" windowWidth="18048" windowHeight="6588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -889,9 +889,6 @@
     <t>the initialization part is done once, before the loop proper is entered</t>
   </si>
   <si>
-    <t>the test condition that controls the loop, if it is true, the body of the loop is executed</t>
-  </si>
-  <si>
     <t>the increment step is executed</t>
   </si>
   <si>
@@ -946,15 +943,6 @@
     <t>C | What does character written between single quotes represent in C, by default: 'A'? (start with "it represents, how it's called")</t>
   </si>
   <si>
-    <t>C | What does the second part within the parentheses in this "for statement/loop" mean, in general: for (fahr=0; fahr&lt;=300; fahr=fahr+20) printf("%3d%6.1f\n",fahr,(5.0/9.0)*(fahr-32)); (start with "the…")</t>
-  </si>
-  <si>
-    <t>C | What does the third part within the parentheses in this "for statement/loop" mean, in general: for (fahr=0; fahr&lt;=300; fahr=fahr+20) printf("%3d%6.1f\n",fahr,(5.0/9.0)*(fahr-32)); (start with "the …')</t>
-  </si>
-  <si>
-    <t>C | What does the first part within the parentheses in this "for statement/loop" mean, in general: for (fahr=0; fahr&lt;=300; fahr=fahr+20) printf("%3d%6.1f\n",fahr,(5.0/9.0)*(fahr-32)); (start with "the…")</t>
-  </si>
-  <si>
     <t>keywords(int,while), identifiers(main,total), constants(10,20), string-literals("hello","world"), operators/punctuators ({})</t>
   </si>
   <si>
@@ -1027,16 +1015,28 @@
     <t>C | How this while loop operates? while (fahr&lt;=upper) { celsius=5*(fahr-32)/9; printf("%d\t%d\n",fahr,celsius); fahr=fahr+step; } - part 4 (explain the words expression/condition, body of the loop, true, false by separating the explanation by comma)</t>
   </si>
   <si>
-    <t>C | What does the first part in the "loop body" mean, in general: c=getchar(); while (c != EOF) { putchar(c); c=getchar(); }</t>
-  </si>
-  <si>
-    <t>C | What does the second part in the "loop body" mean, in general: c=getchar(); while (c != EOF) { putchar(c); c=getchar(); }</t>
-  </si>
-  <si>
-    <t>C | What does this "condition/expression" mean, literally/pseudo-code: c=getchar(); while (c != EOF) { putchar(c); c=getchar(); }</t>
-  </si>
-  <si>
-    <t>C | What does this assignment statement mean, literally/pseudo-code: c=getchar(); while (c != EOF) { putchar(c); c=getchar(); }</t>
+    <t>C | What does the assignment statement mean in this snippet, literally/pseudo-code: c=getchar(); while (c != EOF) { putchar(c); c=getchar(); }</t>
+  </si>
+  <si>
+    <t>C | What does the third expression of this for loop mean, in general: for (fahr=0; fahr&lt;=300; fahr=fahr+20) printf("%3d%6.1f\n",fahr,(5.0/9.0)*(fahr-32)); (start with "the …')</t>
+  </si>
+  <si>
+    <t>the test expression that controls the loop, if it is true, the body of the loop is executed</t>
+  </si>
+  <si>
+    <t>C | What does the second expression in this for loop mean, in general: for (fahr=0; fahr&lt;=300; fahr=fahr+20) printf("%3d%6.1f\n",fahr,(5.0/9.0)*(fahr-32)); (start with "the…")</t>
+  </si>
+  <si>
+    <t>C | What does the first expression in this for loop mean, in general: for (fahr=0; fahr&lt;=300; fahr=fahr+20) printf("%3d%6.1f\n",fahr,(5.0/9.0)*(fahr-32)); (start with "the…")</t>
+  </si>
+  <si>
+    <t>C | What does the second statement in this while loop mean, in general: c=getchar(); while (c != EOF) { putchar(c); c=getchar(); }</t>
+  </si>
+  <si>
+    <t>C | What does the first statement in this while loop mean, literally/pseudo-code: c=getchar(); while (c != EOF) { putchar(c); c=getchar(); }</t>
+  </si>
+  <si>
+    <t>C | What does the condition/expression in this while loop mean, literally/pseudo-code: c=getchar(); while (c != EOF) { putchar(c); c=getchar(); }</t>
   </si>
 </sst>
 </file>
@@ -1443,8 +1443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="B158" sqref="B158"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.55000000000000004"/>
@@ -2505,76 +2505,76 @@
         <v>254</v>
       </c>
       <c r="C126" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C127" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C128" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C129" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C130" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C131" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C132" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C133" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C134" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C135" t="s">
         <v>272</v>
@@ -2582,7 +2582,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C136" t="s">
         <v>253</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C137" t="s">
         <v>252</v>
@@ -2681,7 +2681,7 @@
         <v>280</v>
       </c>
       <c r="C148" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2702,31 +2702,31 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C151" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C152" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C153" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C154" t="s">
         <v>275</v>
@@ -2742,7 +2742,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C156" t="s">
         <v>284</v>
@@ -2750,7 +2750,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C157" t="s">
         <v>285</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C158" t="s">
         <v>286</v>
@@ -2766,7 +2766,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C159" t="s">
         <v>287</v>
@@ -2774,15 +2774,15 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C160" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="C161" t="s">
         <v>288</v>
@@ -2790,42 +2790,42 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="C162" t="s">
-        <v>289</v>
+        <v>333</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="C163" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C164" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C165" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C166" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2833,23 +2833,23 @@
         <v>336</v>
       </c>
       <c r="C167" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C168" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C169" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{05E7CCEE-AAD4-4EE1-A395-AA162E8D09D5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CE7CA0DF-F5FB-4BF1-8D25-C4E4A75FDCE1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="14040" windowWidth="18048" windowHeight="6588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="14490" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="343">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -1037,6 +1037,18 @@
   </si>
   <si>
     <t>C | What does the condition/expression in this while loop mean, literally/pseudo-code: c=getchar(); while (c != EOF) { putchar(c); c=getchar(); }</t>
+  </si>
+  <si>
+    <t>C | What is type in general? (start with "the…")</t>
+  </si>
+  <si>
+    <t>the meaning of a value stored in an object or returned by a function is determined by the type of the expression used to access it</t>
+  </si>
+  <si>
+    <t>C | What is the simplest expression in C? (start with "an…")</t>
+  </si>
+  <si>
+    <t>an identifier declared to be an object is the simplest expression</t>
   </si>
 </sst>
 </file>
@@ -1441,21 +1453,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D169"/>
+  <dimension ref="A1:D171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140"/>
+    <sheetView tabSelected="1" topLeftCell="B156" workbookViewId="0">
+      <selection activeCell="C166" sqref="C166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="91" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="108.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="108.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>251</v>
       </c>
@@ -1465,7 +1477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1479,7 +1491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1493,7 +1505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1505,7 +1517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1519,7 +1531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1533,7 +1545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1547,7 +1559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1558,7 +1570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1569,7 +1581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1580,7 +1592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1588,7 +1600,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1596,7 +1608,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -1604,7 +1616,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -1612,7 +1624,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -1620,7 +1632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -1628,7 +1640,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -1636,7 +1648,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -1644,7 +1656,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -1652,7 +1664,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -1660,7 +1672,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -1668,7 +1680,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -1676,7 +1688,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1684,7 +1696,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1692,7 +1704,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -1700,7 +1712,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -1708,7 +1720,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -1716,7 +1728,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -1724,7 +1736,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -1732,7 +1744,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -1740,7 +1752,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -1748,7 +1760,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -1756,7 +1768,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -1764,7 +1776,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -1772,7 +1784,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -1780,7 +1792,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -1788,7 +1800,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -1796,7 +1808,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -1804,7 +1816,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -1812,7 +1824,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -1820,7 +1832,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -1828,7 +1840,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -1836,7 +1848,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -1844,7 +1856,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -1852,7 +1864,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -1860,7 +1872,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -1868,7 +1880,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -1876,7 +1888,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -1884,7 +1896,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -1892,7 +1904,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -1900,7 +1912,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -1908,7 +1920,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -1916,7 +1928,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -1924,7 +1936,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -1932,7 +1944,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -1940,7 +1952,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -1948,7 +1960,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -1956,7 +1968,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -1964,7 +1976,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -1972,7 +1984,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -1980,7 +1992,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -1988,7 +2000,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -1996,7 +2008,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -2004,7 +2016,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>127</v>
       </c>
@@ -2012,7 +2024,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -2020,7 +2032,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -2028,7 +2040,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -2036,7 +2048,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>135</v>
       </c>
@@ -2044,7 +2056,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>137</v>
       </c>
@@ -2052,7 +2064,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -2060,7 +2072,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -2068,7 +2080,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>143</v>
       </c>
@@ -2076,7 +2088,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>145</v>
       </c>
@@ -2084,7 +2096,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -2092,7 +2104,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -2100,7 +2112,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>151</v>
       </c>
@@ -2108,7 +2120,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -2116,7 +2128,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -2124,7 +2136,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -2132,7 +2144,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>159</v>
       </c>
@@ -2140,7 +2152,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -2148,7 +2160,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -2156,7 +2168,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>164</v>
       </c>
@@ -2164,7 +2176,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>165</v>
       </c>
@@ -2172,7 +2184,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>167</v>
       </c>
@@ -2180,7 +2192,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>169</v>
       </c>
@@ -2188,7 +2200,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>171</v>
       </c>
@@ -2196,7 +2208,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>173</v>
       </c>
@@ -2204,7 +2216,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>175</v>
       </c>
@@ -2212,7 +2224,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>177</v>
       </c>
@@ -2220,7 +2232,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>179</v>
       </c>
@@ -2228,7 +2240,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>181</v>
       </c>
@@ -2236,7 +2248,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>183</v>
       </c>
@@ -2244,7 +2256,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>185</v>
       </c>
@@ -2252,7 +2264,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>187</v>
       </c>
@@ -2260,7 +2272,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>189</v>
       </c>
@@ -2268,7 +2280,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>191</v>
       </c>
@@ -2276,7 +2288,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>193</v>
       </c>
@@ -2284,7 +2296,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>195</v>
       </c>
@@ -2292,7 +2304,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>197</v>
       </c>
@@ -2300,7 +2312,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>199</v>
       </c>
@@ -2308,7 +2320,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>201</v>
       </c>
@@ -2316,7 +2328,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>203</v>
       </c>
@@ -2324,7 +2336,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>205</v>
       </c>
@@ -2332,7 +2344,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>207</v>
       </c>
@@ -2340,7 +2352,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>209</v>
       </c>
@@ -2348,7 +2360,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>211</v>
       </c>
@@ -2356,7 +2368,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>213</v>
       </c>
@@ -2364,7 +2376,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>215</v>
       </c>
@@ -2372,7 +2384,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>217</v>
       </c>
@@ -2380,7 +2392,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>219</v>
       </c>
@@ -2388,7 +2400,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>221</v>
       </c>
@@ -2396,7 +2408,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>223</v>
       </c>
@@ -2404,7 +2416,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>225</v>
       </c>
@@ -2412,7 +2424,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>227</v>
       </c>
@@ -2420,7 +2432,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>229</v>
       </c>
@@ -2428,7 +2440,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>231</v>
       </c>
@@ -2436,7 +2448,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>233</v>
       </c>
@@ -2444,7 +2456,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>235</v>
       </c>
@@ -2452,7 +2464,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>237</v>
       </c>
@@ -2460,7 +2472,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>239</v>
       </c>
@@ -2468,7 +2480,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>241</v>
       </c>
@@ -2476,7 +2488,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>243</v>
       </c>
@@ -2484,7 +2496,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>245</v>
       </c>
@@ -2492,7 +2504,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>247</v>
       </c>
@@ -2500,7 +2512,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>254</v>
       </c>
@@ -2508,7 +2520,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>308</v>
       </c>
@@ -2516,7 +2528,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>311</v>
       </c>
@@ -2524,7 +2536,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>312</v>
       </c>
@@ -2532,7 +2544,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>315</v>
       </c>
@@ -2540,7 +2552,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>319</v>
       </c>
@@ -2548,7 +2560,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>318</v>
       </c>
@@ -2556,7 +2568,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>317</v>
       </c>
@@ -2564,7 +2576,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>316</v>
       </c>
@@ -2572,7 +2584,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>290</v>
       </c>
@@ -2580,7 +2592,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>291</v>
       </c>
@@ -2588,7 +2600,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>292</v>
       </c>
@@ -2596,7 +2608,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>255</v>
       </c>
@@ -2604,7 +2616,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>256</v>
       </c>
@@ -2612,7 +2624,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>257</v>
       </c>
@@ -2620,7 +2632,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>258</v>
       </c>
@@ -2628,7 +2640,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>260</v>
       </c>
@@ -2636,7 +2648,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>261</v>
       </c>
@@ -2644,7 +2656,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>263</v>
       </c>
@@ -2652,7 +2664,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>277</v>
       </c>
@@ -2660,7 +2672,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>278</v>
       </c>
@@ -2668,7 +2680,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>279</v>
       </c>
@@ -2676,7 +2688,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>280</v>
       </c>
@@ -2684,7 +2696,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>281</v>
       </c>
@@ -2692,7 +2704,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>282</v>
       </c>
@@ -2700,7 +2712,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>328</v>
       </c>
@@ -2708,7 +2720,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>327</v>
       </c>
@@ -2716,7 +2728,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>329</v>
       </c>
@@ -2724,7 +2736,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>330</v>
       </c>
@@ -2732,7 +2744,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>283</v>
       </c>
@@ -2740,7 +2752,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>300</v>
       </c>
@@ -2748,7 +2760,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>299</v>
       </c>
@@ -2756,7 +2768,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>298</v>
       </c>
@@ -2764,7 +2776,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>297</v>
       </c>
@@ -2772,7 +2784,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>301</v>
       </c>
@@ -2780,7 +2792,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>335</v>
       </c>
@@ -2788,7 +2800,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>334</v>
       </c>
@@ -2796,7 +2808,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>332</v>
       </c>
@@ -2804,7 +2816,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>331</v>
       </c>
@@ -2812,7 +2824,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>338</v>
       </c>
@@ -2820,7 +2832,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>337</v>
       </c>
@@ -2828,7 +2840,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>336</v>
       </c>
@@ -2836,7 +2848,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>302</v>
       </c>
@@ -2844,12 +2856,28 @@
         <v>304</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>306</v>
       </c>
       <c r="C169" t="s">
         <v>303</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A170" t="s">
+        <v>339</v>
+      </c>
+      <c r="C170" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A171" t="s">
+        <v>341</v>
+      </c>
+      <c r="C171" t="s">
+        <v>342</v>
       </c>
     </row>
   </sheetData>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CE7CA0DF-F5FB-4BF1-8D25-C4E4A75FDCE1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1EF6AA0B-C87A-412F-81E1-20CAAFEF7BEF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="14490" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="14940" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="353">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -1049,6 +1049,36 @@
   </si>
   <si>
     <t>an identifier declared to be an object is the simplest expression</t>
+  </si>
+  <si>
+    <t>C | What are the standard signed integer types?</t>
+  </si>
+  <si>
+    <t>signed char, short int, int, long int, long long int</t>
+  </si>
+  <si>
+    <t>C | What are the floating types categories in C?</t>
+  </si>
+  <si>
+    <t>real floating types, complex types</t>
+  </si>
+  <si>
+    <t>C | What are the real floating types in C?</t>
+  </si>
+  <si>
+    <t>float, double, long double</t>
+  </si>
+  <si>
+    <t>C | What are the derived types constructed from the object and function types in C?</t>
+  </si>
+  <si>
+    <t>array type, structure type, union type, function type, pointer type, atomic type</t>
+  </si>
+  <si>
+    <t>C | What is array type? (start with "it describes…")</t>
+  </si>
+  <si>
+    <t>it describes a contiguously allocated nonempty set of objects with a particular member object type called element type</t>
   </si>
 </sst>
 </file>
@@ -1453,10 +1483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D171"/>
+  <dimension ref="A1:D176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B156" workbookViewId="0">
-      <selection activeCell="C166" sqref="C166"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="A168" sqref="A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
@@ -2880,6 +2910,46 @@
         <v>342</v>
       </c>
     </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A172" t="s">
+        <v>343</v>
+      </c>
+      <c r="C172" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A173" t="s">
+        <v>345</v>
+      </c>
+      <c r="C173" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A174" t="s">
+        <v>347</v>
+      </c>
+      <c r="C174" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A175" t="s">
+        <v>349</v>
+      </c>
+      <c r="C175" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A176" t="s">
+        <v>351</v>
+      </c>
+      <c r="C176" t="s">
+        <v>352</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1EF6AA0B-C87A-412F-81E1-20CAAFEF7BEF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2F910933-F84D-44F5-BBE3-537B2BC6C9A4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="14940" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="15390" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="357">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -1045,12 +1045,6 @@
     <t>the meaning of a value stored in an object or returned by a function is determined by the type of the expression used to access it</t>
   </si>
   <si>
-    <t>C | What is the simplest expression in C? (start with "an…")</t>
-  </si>
-  <si>
-    <t>an identifier declared to be an object is the simplest expression</t>
-  </si>
-  <si>
     <t>C | What are the standard signed integer types?</t>
   </si>
   <si>
@@ -1069,9 +1063,6 @@
     <t>float, double, long double</t>
   </si>
   <si>
-    <t>C | What are the derived types constructed from the object and function types in C?</t>
-  </si>
-  <si>
     <t>array type, structure type, union type, function type, pointer type, atomic type</t>
   </si>
   <si>
@@ -1079,6 +1070,27 @@
   </si>
   <si>
     <t>it describes a contiguously allocated nonempty set of objects with a particular member object type called element type</t>
+  </si>
+  <si>
+    <t>C | What are the derived types constructed from the object and function types in C? (end each statement with word "type")</t>
+  </si>
+  <si>
+    <t>C | Explain the Semantics of an Array Subsription? (start with "a postfix expression…")</t>
+  </si>
+  <si>
+    <t>a postfix expression followed by an expression in square brackets [] is a subscribed designation of an element of an array object</t>
+  </si>
+  <si>
+    <t>C | What is an Expression? (start with "an expression is…")</t>
+  </si>
+  <si>
+    <t>an expression is a sequence of operators and operands that specifies computation of a value or designates an object/function</t>
+  </si>
+  <si>
+    <t>C | What are the primary expressions in C?</t>
+  </si>
+  <si>
+    <t>identifier, constant, string-literal, (expression), generic-selection</t>
   </si>
 </sst>
 </file>
@@ -1483,10 +1495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D176"/>
+  <dimension ref="A1:D178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="A168" sqref="A168"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="A175" sqref="A175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
@@ -2928,25 +2940,41 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
+        <v>350</v>
+      </c>
+      <c r="C174" t="s">
         <v>347</v>
-      </c>
-      <c r="C174" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
+        <v>348</v>
+      </c>
+      <c r="C175" t="s">
         <v>349</v>
-      </c>
-      <c r="C175" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
+        <v>353</v>
+      </c>
+      <c r="C176" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A177" t="s">
+        <v>355</v>
+      </c>
+      <c r="C177" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A178" t="s">
         <v>351</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C178" t="s">
         <v>352</v>
       </c>
     </row>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2F910933-F84D-44F5-BBE3-537B2BC6C9A4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CB978E71-FFAF-4738-81EC-5BDC00633C66}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15390" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="15840" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="359">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -1091,6 +1091,12 @@
   </si>
   <si>
     <t>identifier, constant, string-literal, (expression), generic-selection</t>
+  </si>
+  <si>
+    <t>a subscript can be any integer expression which includes integer variables and integer constants</t>
+  </si>
+  <si>
+    <t>C | What is the name for "i" and which values it may take in the following assignment statement: ndigit[i] = 0; ? (start with "a ..")</t>
   </si>
 </sst>
 </file>
@@ -1495,10 +1501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D178"/>
+  <dimension ref="A1:D179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="A175" sqref="A175"/>
+    <sheetView tabSelected="1" topLeftCell="B130" workbookViewId="0">
+      <selection activeCell="D135" sqref="D135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
@@ -2978,6 +2984,14 @@
         <v>352</v>
       </c>
     </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A179" t="s">
+        <v>358</v>
+      </c>
+      <c r="C179" t="s">
+        <v>357</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CB978E71-FFAF-4738-81EC-5BDC00633C66}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FC064A10-714A-4BEE-A96B-DC411764DBC2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="15840" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -661,51 +661,27 @@
     <t>the entries of the process table</t>
   </si>
   <si>
-    <t>Process Management PCBs 1st quadrant</t>
-  </si>
-  <si>
     <t>registers, program counter, PSW, stack pointer</t>
   </si>
   <si>
-    <t>Process Management PCBs 2nd quadrant</t>
-  </si>
-  <si>
     <t>process state, priority, scheduling parameters, PID</t>
   </si>
   <si>
-    <t>Process Management PCBs 3rd quadrant</t>
-  </si>
-  <si>
     <t>parent process, process group, signals, time when process started</t>
   </si>
   <si>
-    <t>Process Management PCBs 4th quadrant</t>
-  </si>
-  <si>
     <t>cpu time used, child cpu time, next alarm</t>
   </si>
   <si>
-    <t>File Management PCBs 1st quadrant</t>
-  </si>
-  <si>
     <t>root directory, working directory</t>
   </si>
   <si>
-    <t>File Management PCBs 2nd quadrant</t>
-  </si>
-  <si>
     <t>file descriptors</t>
   </si>
   <si>
-    <t>File Management PCBs 3rd quadrant</t>
-  </si>
-  <si>
     <t>UID</t>
   </si>
   <si>
-    <t>File Management PCBs 4th quadrant</t>
-  </si>
-  <si>
     <t>GID</t>
   </si>
   <si>
@@ -751,21 +727,12 @@
     <t>every thread can access every memory address within the same process address space</t>
   </si>
   <si>
-    <t>TCBs 1st quadrant</t>
-  </si>
-  <si>
     <t>TID, stack pointer</t>
   </si>
   <si>
-    <t>TCBs 2st quadrant</t>
-  </si>
-  <si>
     <t>program counter, state of the thread</t>
   </si>
   <si>
-    <t>TCBs 3rd quadrant</t>
-  </si>
-  <si>
     <t>thread register, pointer to the PCBs</t>
   </si>
   <si>
@@ -970,18 +937,6 @@
     <t>C | What are the statement types in C? (Put in format [statement name]-statement) separated by comma)</t>
   </si>
   <si>
-    <t>C | What are the jump-statements in C? (separate the whole statements by "|")</t>
-  </si>
-  <si>
-    <t>C | What are the iteration-statements in C? (separate the whole statements by "|")</t>
-  </si>
-  <si>
-    <t>C | What are the selection-statements in C? (separate the whole statements by "|")</t>
-  </si>
-  <si>
-    <t>C | What are the labeled-statements in C? (separate the whole statements by "|")</t>
-  </si>
-  <si>
     <t>identifier:statement | case constant-expression:statement | default:statement</t>
   </si>
   <si>
@@ -1097,6 +1052,51 @@
   </si>
   <si>
     <t>C | What is the name for "i" and which values it may take in the following assignment statement: ndigit[i] = 0; ? (start with "a ..")</t>
+  </si>
+  <si>
+    <t>LTM | UNIX | Process Management PCBs 2nd quadrant</t>
+  </si>
+  <si>
+    <t>LTM | UNIX | Process Management PCBs 3rd quadrant</t>
+  </si>
+  <si>
+    <t>LTM | UNIX | Process Management PCBs 4th quadrant</t>
+  </si>
+  <si>
+    <t>LTM | UNIX | Process Management PCBs 1st quadrant</t>
+  </si>
+  <si>
+    <t>LTM | UNIX | File Management PCBs 1st quadrant</t>
+  </si>
+  <si>
+    <t>LTM | UNIX | File Management PCBs 2nd quadrant</t>
+  </si>
+  <si>
+    <t>LTM | UNIX | File Management PCBs 3rd quadrant</t>
+  </si>
+  <si>
+    <t>LTM | UNIX | File Management PCBs 4th quadrant</t>
+  </si>
+  <si>
+    <t>LTM | UNIX | TCBs 1st quadrant</t>
+  </si>
+  <si>
+    <t>LTM | UNIX | TCBs 2st quadrant</t>
+  </si>
+  <si>
+    <t>LTM | UNIX | TCBs 3rd quadrant</t>
+  </si>
+  <si>
+    <t>LTM | C | Statement Types 4th quadrant (jump)? (separate the whole statements by "|")</t>
+  </si>
+  <si>
+    <t>LTM | C | Statement Types 2nd quadrant (selection)? (separate the whole statements by "|")</t>
+  </si>
+  <si>
+    <t>LTM | C | Statement Types 1st quadrant (labeled)? (separate the whole statements by "|")</t>
+  </si>
+  <si>
+    <t>LTM | C | Statement Types 3rd quadrant (iteration)? (separate the whole statements by "|")</t>
   </si>
 </sst>
 </file>
@@ -1503,21 +1503,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B130" workbookViewId="0">
-      <selection activeCell="D135" sqref="D135"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="91" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="108.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="108.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
         <v>127</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A68" t="s">
         <v>135</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
         <v>137</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A72" t="s">
         <v>143</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A73" t="s">
         <v>145</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A76" t="s">
         <v>151</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A80" t="s">
         <v>159</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -2208,23 +2208,23 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A82" t="s">
         <v>163</v>
       </c>
       <c r="C82" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A83" t="s">
         <v>164</v>
       </c>
       <c r="C83" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A84" t="s">
         <v>165</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A85" t="s">
         <v>167</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A86" t="s">
         <v>169</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A87" t="s">
         <v>171</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A88" t="s">
         <v>173</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A89" t="s">
         <v>175</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A90" t="s">
         <v>177</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A91" t="s">
         <v>179</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A92" t="s">
         <v>181</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A93" t="s">
         <v>183</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A94" t="s">
         <v>185</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A95" t="s">
         <v>187</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A96" t="s">
         <v>189</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A97" t="s">
         <v>191</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A98" t="s">
         <v>193</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A99" t="s">
         <v>195</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A100" t="s">
         <v>197</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A101" t="s">
         <v>199</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A102" t="s">
         <v>201</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A103" t="s">
         <v>203</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A104" t="s">
         <v>205</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A105" t="s">
         <v>207</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A106" t="s">
         <v>209</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A107" t="s">
         <v>211</v>
       </c>
@@ -2416,580 +2416,580 @@
         <v>212</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A108" t="s">
+        <v>347</v>
+      </c>
+      <c r="C108" t="s">
         <v>213</v>
       </c>
-      <c r="C108" t="s">
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A109" t="s">
+        <v>344</v>
+      </c>
+      <c r="C109" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A109" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A110" t="s">
+        <v>345</v>
+      </c>
+      <c r="C110" t="s">
         <v>215</v>
       </c>
-      <c r="C109" t="s">
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A111" t="s">
+        <v>346</v>
+      </c>
+      <c r="C111" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A110" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A112" t="s">
+        <v>348</v>
+      </c>
+      <c r="C112" t="s">
         <v>217</v>
       </c>
-      <c r="C110" t="s">
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A113" t="s">
+        <v>349</v>
+      </c>
+      <c r="C113" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A111" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A114" t="s">
+        <v>350</v>
+      </c>
+      <c r="C114" t="s">
         <v>219</v>
       </c>
-      <c r="C111" t="s">
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A115" t="s">
+        <v>351</v>
+      </c>
+      <c r="C115" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A112" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A116" t="s">
         <v>221</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C116" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A113" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A117" t="s">
         <v>223</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C117" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A114" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A118" t="s">
         <v>225</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C118" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A115" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A119" t="s">
         <v>227</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C119" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A116" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A120" t="s">
         <v>229</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C120" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A117" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A121" t="s">
         <v>231</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C121" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A118" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A122" t="s">
         <v>233</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C122" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A119" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A123" t="s">
+        <v>352</v>
+      </c>
+      <c r="C123" t="s">
         <v>235</v>
       </c>
-      <c r="C119" t="s">
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A124" t="s">
+        <v>353</v>
+      </c>
+      <c r="C124" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A120" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A125" t="s">
+        <v>354</v>
+      </c>
+      <c r="C125" t="s">
         <v>237</v>
       </c>
-      <c r="C120" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A121" t="s">
-        <v>239</v>
-      </c>
-      <c r="C121" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A122" t="s">
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A126" t="s">
+        <v>243</v>
+      </c>
+      <c r="C126" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A127" t="s">
+        <v>297</v>
+      </c>
+      <c r="C127" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A128" t="s">
+        <v>300</v>
+      </c>
+      <c r="C128" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A129" t="s">
+        <v>301</v>
+      </c>
+      <c r="C129" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A130" t="s">
+        <v>304</v>
+      </c>
+      <c r="C130" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A131" t="s">
+        <v>357</v>
+      </c>
+      <c r="C131" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A132" t="s">
+        <v>356</v>
+      </c>
+      <c r="C132" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A133" t="s">
+        <v>358</v>
+      </c>
+      <c r="C133" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A134" t="s">
+        <v>355</v>
+      </c>
+      <c r="C134" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A135" t="s">
+        <v>279</v>
+      </c>
+      <c r="C135" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A136" t="s">
+        <v>280</v>
+      </c>
+      <c r="C136" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A137" t="s">
+        <v>281</v>
+      </c>
+      <c r="C137" t="s">
         <v>241</v>
       </c>
-      <c r="C122" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A123" t="s">
-        <v>243</v>
-      </c>
-      <c r="C123" t="s">
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A138" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A124" t="s">
+      <c r="C138" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A139" t="s">
         <v>245</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C139" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A140" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A125" t="s">
+      <c r="C140" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A141" t="s">
         <v>247</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C141" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A142" t="s">
+        <v>249</v>
+      </c>
+      <c r="C142" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A126" t="s">
-        <v>254</v>
-      </c>
-      <c r="C126" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A127" t="s">
-        <v>308</v>
-      </c>
-      <c r="C127" t="s">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A143" t="s">
+        <v>250</v>
+      </c>
+      <c r="C143" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A144" t="s">
+        <v>252</v>
+      </c>
+      <c r="C144" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A145" t="s">
+        <v>266</v>
+      </c>
+      <c r="C145" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A146" t="s">
+        <v>267</v>
+      </c>
+      <c r="C146" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A147" t="s">
+        <v>268</v>
+      </c>
+      <c r="C147" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A148" t="s">
+        <v>269</v>
+      </c>
+      <c r="C148" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A149" t="s">
+        <v>270</v>
+      </c>
+      <c r="C149" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A150" t="s">
+        <v>271</v>
+      </c>
+      <c r="C150" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A151" t="s">
+        <v>313</v>
+      </c>
+      <c r="C151" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A128" t="s">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A152" t="s">
+        <v>312</v>
+      </c>
+      <c r="C152" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A153" t="s">
+        <v>314</v>
+      </c>
+      <c r="C153" t="s">
         <v>311</v>
       </c>
-      <c r="C128" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A129" t="s">
-        <v>312</v>
-      </c>
-      <c r="C129" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A130" t="s">
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A154" t="s">
         <v>315</v>
       </c>
-      <c r="C130" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A131" t="s">
+      <c r="C154" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A155" t="s">
+        <v>272</v>
+      </c>
+      <c r="C155" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A156" t="s">
+        <v>289</v>
+      </c>
+      <c r="C156" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A157" t="s">
+        <v>288</v>
+      </c>
+      <c r="C157" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A158" t="s">
+        <v>287</v>
+      </c>
+      <c r="C158" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A159" t="s">
+        <v>286</v>
+      </c>
+      <c r="C159" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A160" t="s">
+        <v>290</v>
+      </c>
+      <c r="C160" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A161" t="s">
+        <v>320</v>
+      </c>
+      <c r="C161" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A162" t="s">
         <v>319</v>
       </c>
-      <c r="C131" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A132" t="s">
+      <c r="C162" t="s">
         <v>318</v>
       </c>
-      <c r="C132" t="s">
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A163" t="s">
+        <v>317</v>
+      </c>
+      <c r="C163" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A164" t="s">
+        <v>316</v>
+      </c>
+      <c r="C164" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A165" t="s">
+        <v>323</v>
+      </c>
+      <c r="C165" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A166" t="s">
+        <v>322</v>
+      </c>
+      <c r="C166" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A167" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A133" t="s">
-        <v>317</v>
-      </c>
-      <c r="C133" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A134" t="s">
-        <v>316</v>
-      </c>
-      <c r="C134" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A135" t="s">
-        <v>290</v>
-      </c>
-      <c r="C135" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A136" t="s">
+      <c r="C167" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A168" t="s">
         <v>291</v>
       </c>
-      <c r="C136" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A137" t="s">
+      <c r="C168" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A169" t="s">
+        <v>295</v>
+      </c>
+      <c r="C169" t="s">
         <v>292</v>
       </c>
-      <c r="C137" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A138" t="s">
-        <v>255</v>
-      </c>
-      <c r="C138" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A139" t="s">
-        <v>256</v>
-      </c>
-      <c r="C139" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A140" t="s">
-        <v>257</v>
-      </c>
-      <c r="C140" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A141" t="s">
-        <v>258</v>
-      </c>
-      <c r="C141" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A142" t="s">
-        <v>260</v>
-      </c>
-      <c r="C142" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A143" t="s">
-        <v>261</v>
-      </c>
-      <c r="C143" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A144" t="s">
-        <v>263</v>
-      </c>
-      <c r="C144" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A145" t="s">
-        <v>277</v>
-      </c>
-      <c r="C145" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A146" t="s">
-        <v>278</v>
-      </c>
-      <c r="C146" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A147" t="s">
-        <v>279</v>
-      </c>
-      <c r="C147" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A148" t="s">
-        <v>280</v>
-      </c>
-      <c r="C148" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A149" t="s">
-        <v>281</v>
-      </c>
-      <c r="C149" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A150" t="s">
-        <v>282</v>
-      </c>
-      <c r="C150" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A151" t="s">
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A170" t="s">
+        <v>324</v>
+      </c>
+      <c r="C170" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A171" t="s">
+        <v>326</v>
+      </c>
+      <c r="C171" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A172" t="s">
         <v>328</v>
       </c>
-      <c r="C151" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A152" t="s">
-        <v>327</v>
-      </c>
-      <c r="C152" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A153" t="s">
+      <c r="C172" t="s">
         <v>329</v>
       </c>
-      <c r="C153" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A154" t="s">
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A173" t="s">
         <v>330</v>
       </c>
-      <c r="C154" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A155" t="s">
-        <v>283</v>
-      </c>
-      <c r="C155" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A156" t="s">
-        <v>300</v>
-      </c>
-      <c r="C156" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A157" t="s">
-        <v>299</v>
-      </c>
-      <c r="C157" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A158" t="s">
-        <v>298</v>
-      </c>
-      <c r="C158" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A159" t="s">
-        <v>297</v>
-      </c>
-      <c r="C159" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A160" t="s">
-        <v>301</v>
-      </c>
-      <c r="C160" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A161" t="s">
+      <c r="C173" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A174" t="s">
         <v>335</v>
       </c>
-      <c r="C161" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A162" t="s">
+      <c r="C174" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A175" t="s">
+        <v>333</v>
+      </c>
+      <c r="C175" t="s">
         <v>334</v>
       </c>
-      <c r="C162" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A163" t="s">
-        <v>332</v>
-      </c>
-      <c r="C163" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A164" t="s">
-        <v>331</v>
-      </c>
-      <c r="C164" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A165" t="s">
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A176" t="s">
         <v>338</v>
       </c>
-      <c r="C165" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A166" t="s">
+      <c r="C176" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A177" t="s">
+        <v>340</v>
+      </c>
+      <c r="C177" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A178" t="s">
+        <v>336</v>
+      </c>
+      <c r="C178" t="s">
         <v>337</v>
       </c>
-      <c r="C166" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A167" t="s">
-        <v>336</v>
-      </c>
-      <c r="C167" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A168" t="s">
-        <v>302</v>
-      </c>
-      <c r="C168" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A169" t="s">
-        <v>306</v>
-      </c>
-      <c r="C169" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A170" t="s">
-        <v>339</v>
-      </c>
-      <c r="C170" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A171" t="s">
-        <v>341</v>
-      </c>
-      <c r="C171" t="s">
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A179" t="s">
+        <v>343</v>
+      </c>
+      <c r="C179" t="s">
         <v>342</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A172" t="s">
-        <v>343</v>
-      </c>
-      <c r="C172" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A173" t="s">
-        <v>345</v>
-      </c>
-      <c r="C173" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A174" t="s">
-        <v>350</v>
-      </c>
-      <c r="C174" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A175" t="s">
-        <v>348</v>
-      </c>
-      <c r="C175" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A176" t="s">
-        <v>353</v>
-      </c>
-      <c r="C176" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A177" t="s">
-        <v>355</v>
-      </c>
-      <c r="C177" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A178" t="s">
-        <v>351</v>
-      </c>
-      <c r="C178" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A179" t="s">
-        <v>358</v>
-      </c>
-      <c r="C179" t="s">
-        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FC064A10-714A-4BEE-A96B-DC411764DBC2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D2F6FF64-EC1B-4792-9E5C-F45F88867EBB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="15840" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -937,18 +937,6 @@
     <t>C | What are the statement types in C? (Put in format [statement name]-statement) separated by comma)</t>
   </si>
   <si>
-    <t>identifier:statement | case constant-expression:statement | default:statement</t>
-  </si>
-  <si>
-    <t>if (expression) statement | if (expression) statement else statement |  switch (expression) statement</t>
-  </si>
-  <si>
-    <t>while (expression) statement | do statement while (expression); | for (expression; expression; expression) statement | for (declaration expression; expression) statement</t>
-  </si>
-  <si>
-    <t>goto identifiers; | continue; |  break; | return expression;</t>
-  </si>
-  <si>
     <t>the condition/expression, fahr is less than or equal to upper, is tested</t>
   </si>
   <si>
@@ -1087,16 +1075,28 @@
     <t>LTM | UNIX | TCBs 3rd quadrant</t>
   </si>
   <si>
-    <t>LTM | C | Statement Types 4th quadrant (jump)? (separate the whole statements by "|")</t>
-  </si>
-  <si>
-    <t>LTM | C | Statement Types 2nd quadrant (selection)? (separate the whole statements by "|")</t>
-  </si>
-  <si>
-    <t>LTM | C | Statement Types 1st quadrant (labeled)? (separate the whole statements by "|")</t>
-  </si>
-  <si>
-    <t>LTM | C | Statement Types 3rd quadrant (iteration)? (separate the whole statements by "|")</t>
+    <t>LTM | C | Statement Types 1st quadrant (labeled)? (separate the whole statements by ",")</t>
+  </si>
+  <si>
+    <t>LTM | C | Statement Types 2nd quadrant (selection)? (separate the whole statements by ",")</t>
+  </si>
+  <si>
+    <t>LTM | C | Statement Types 3rd quadrant (iteration)? (separate the whole statements by ",")</t>
+  </si>
+  <si>
+    <t>LTM | C | Statement Types 4th quadrant (jump)? (separate the whole statements by ",")</t>
+  </si>
+  <si>
+    <t>identifier:statement, case constant-expression:statement, default:statement</t>
+  </si>
+  <si>
+    <t>if (expression) statement, if (expression) statement else statement, switch (expression) statement</t>
+  </si>
+  <si>
+    <t>while (expression) statement, do statement while (expression);, for (expression; expression; expression) statement, for (declaration expression; expression) statement</t>
+  </si>
+  <si>
+    <t>goto identifiers;, continue;,  break;, return expression;</t>
   </si>
 </sst>
 </file>
@@ -1503,8 +1503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="A132" sqref="A132"/>
+    <sheetView tabSelected="1" topLeftCell="C121" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.75"/>
@@ -2418,7 +2418,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A108" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C108" t="s">
         <v>213</v>
@@ -2426,7 +2426,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A109" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C109" t="s">
         <v>214</v>
@@ -2434,7 +2434,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A110" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C110" t="s">
         <v>215</v>
@@ -2442,7 +2442,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A111" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C111" t="s">
         <v>216</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A112" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C112" t="s">
         <v>217</v>
@@ -2458,7 +2458,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A113" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C113" t="s">
         <v>218</v>
@@ -2466,7 +2466,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A114" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C114" t="s">
         <v>219</v>
@@ -2474,7 +2474,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A115" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C115" t="s">
         <v>220</v>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A123" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C123" t="s">
         <v>235</v>
@@ -2546,7 +2546,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A124" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C124" t="s">
         <v>236</v>
@@ -2554,7 +2554,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A125" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C125" t="s">
         <v>237</v>
@@ -2602,34 +2602,34 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A131" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C131" t="s">
-        <v>305</v>
+        <v>355</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A132" t="s">
+        <v>352</v>
+      </c>
+      <c r="C132" t="s">
         <v>356</v>
-      </c>
-      <c r="C132" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A133" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C133" t="s">
-        <v>307</v>
+        <v>357</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A134" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C134" t="s">
-        <v>308</v>
+        <v>358</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.75">
@@ -2762,31 +2762,31 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A151" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C151" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A152" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C152" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A153" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C153" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A154" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C154" t="s">
         <v>264</v>
@@ -2842,7 +2842,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A161" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C161" t="s">
         <v>277</v>
@@ -2850,15 +2850,15 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A162" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C162" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A163" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C163" t="s">
         <v>278</v>
@@ -2866,7 +2866,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A164" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C164" t="s">
         <v>282</v>
@@ -2874,7 +2874,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A165" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C165" t="s">
         <v>283</v>
@@ -2882,7 +2882,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A166" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C166" t="s">
         <v>284</v>
@@ -2890,7 +2890,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A167" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C167" t="s">
         <v>282</v>
@@ -2914,82 +2914,82 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A170" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C170" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A171" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C171" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A172" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C172" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A173" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C173" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A174" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C174" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A175" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C175" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A176" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C176" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A177" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C177" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A178" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C178" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A179" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C179" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D2F6FF64-EC1B-4792-9E5C-F45F88867EBB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{53F3D961-88F0-477B-B3E7-7B5891EB8CAA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="15840" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1504,7 +1504,7 @@
   <dimension ref="A1:D179"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C121" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+      <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.75"/>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{53F3D961-88F0-477B-B3E7-7B5891EB8CAA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{507A7541-F05B-4D3F-B39D-A449756E17A4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15840" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="16296" windowWidth="18048" windowHeight="6588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="361">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -1097,6 +1097,12 @@
   </si>
   <si>
     <t>goto identifiers;, continue;,  break;, return expression;</t>
+  </si>
+  <si>
+    <t>C | What does this declaration mean, in genaral: int power(int m, int n)? (start with "it says that…")</t>
+  </si>
+  <si>
+    <t>it says that power is a function that expects two int arguments and returns an int</t>
   </si>
 </sst>
 </file>
@@ -1501,21 +1507,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D179"/>
+  <dimension ref="A1:D180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C121" workbookViewId="0">
-      <selection activeCell="C133" sqref="C133"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="A180" sqref="A180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="91" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="108.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="108.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>240</v>
       </c>
@@ -1525,7 +1531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1539,7 +1545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1553,7 +1559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1565,7 +1571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1579,7 +1585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1593,7 +1599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1607,7 +1613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1618,7 +1624,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1629,7 +1635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1640,7 +1646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1648,7 +1654,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1656,7 +1662,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -1664,7 +1670,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -1672,7 +1678,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -1680,7 +1686,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -1688,7 +1694,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -1696,7 +1702,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -1704,7 +1710,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -1712,7 +1718,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -1720,7 +1726,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -1728,7 +1734,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -1736,7 +1742,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1744,7 +1750,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1752,7 +1758,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -1760,7 +1766,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -1768,7 +1774,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -1776,7 +1782,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -1784,7 +1790,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -1792,7 +1798,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -1800,7 +1806,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -1808,7 +1814,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -1816,7 +1822,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -1824,7 +1830,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -1832,7 +1838,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -1840,7 +1846,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -1848,7 +1854,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -1856,7 +1862,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -1864,7 +1870,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -1872,7 +1878,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -1880,7 +1886,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -1888,7 +1894,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -1896,7 +1902,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -1904,7 +1910,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -1912,7 +1918,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -1920,7 +1926,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -1928,7 +1934,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -1936,7 +1942,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -1944,7 +1950,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -1952,7 +1958,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -1960,7 +1966,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -1968,7 +1974,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -1976,7 +1982,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -1984,7 +1990,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -1992,7 +1998,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -2000,7 +2006,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -2008,7 +2014,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -2016,7 +2022,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -2024,7 +2030,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -2032,7 +2038,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -2040,7 +2046,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -2048,7 +2054,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -2056,7 +2062,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -2064,7 +2070,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>127</v>
       </c>
@@ -2072,7 +2078,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -2080,7 +2086,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -2088,7 +2094,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -2096,7 +2102,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>135</v>
       </c>
@@ -2104,7 +2110,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>137</v>
       </c>
@@ -2112,7 +2118,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -2120,7 +2126,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -2128,7 +2134,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>143</v>
       </c>
@@ -2136,7 +2142,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>145</v>
       </c>
@@ -2144,7 +2150,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -2152,7 +2158,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -2160,7 +2166,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>151</v>
       </c>
@@ -2168,7 +2174,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -2176,7 +2182,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -2184,7 +2190,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -2192,7 +2198,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>159</v>
       </c>
@@ -2200,7 +2206,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -2208,7 +2214,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -2216,7 +2222,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>164</v>
       </c>
@@ -2224,7 +2230,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>165</v>
       </c>
@@ -2232,7 +2238,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>167</v>
       </c>
@@ -2240,7 +2246,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>169</v>
       </c>
@@ -2248,7 +2254,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>171</v>
       </c>
@@ -2256,7 +2262,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>173</v>
       </c>
@@ -2264,7 +2270,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>175</v>
       </c>
@@ -2272,7 +2278,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>177</v>
       </c>
@@ -2280,7 +2286,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>179</v>
       </c>
@@ -2288,7 +2294,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>181</v>
       </c>
@@ -2296,7 +2302,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>183</v>
       </c>
@@ -2304,7 +2310,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>185</v>
       </c>
@@ -2312,7 +2318,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>187</v>
       </c>
@@ -2320,7 +2326,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>189</v>
       </c>
@@ -2328,7 +2334,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>191</v>
       </c>
@@ -2336,7 +2342,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>193</v>
       </c>
@@ -2344,7 +2350,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>195</v>
       </c>
@@ -2352,7 +2358,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>197</v>
       </c>
@@ -2360,7 +2366,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>199</v>
       </c>
@@ -2368,7 +2374,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>201</v>
       </c>
@@ -2376,7 +2382,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>203</v>
       </c>
@@ -2384,7 +2390,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>205</v>
       </c>
@@ -2392,7 +2398,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>207</v>
       </c>
@@ -2400,7 +2406,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>209</v>
       </c>
@@ -2408,7 +2414,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>211</v>
       </c>
@@ -2416,7 +2422,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>343</v>
       </c>
@@ -2424,7 +2430,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>340</v>
       </c>
@@ -2432,7 +2438,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>341</v>
       </c>
@@ -2440,7 +2446,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>342</v>
       </c>
@@ -2448,7 +2454,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>344</v>
       </c>
@@ -2456,7 +2462,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>345</v>
       </c>
@@ -2464,7 +2470,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>346</v>
       </c>
@@ -2472,7 +2478,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>347</v>
       </c>
@@ -2480,7 +2486,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>221</v>
       </c>
@@ -2488,7 +2494,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>223</v>
       </c>
@@ -2496,7 +2502,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>225</v>
       </c>
@@ -2504,7 +2510,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>227</v>
       </c>
@@ -2512,7 +2518,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>229</v>
       </c>
@@ -2520,7 +2526,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>231</v>
       </c>
@@ -2528,7 +2534,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>233</v>
       </c>
@@ -2536,7 +2542,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>348</v>
       </c>
@@ -2544,7 +2550,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>349</v>
       </c>
@@ -2552,7 +2558,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>350</v>
       </c>
@@ -2560,7 +2566,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>243</v>
       </c>
@@ -2568,7 +2574,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>297</v>
       </c>
@@ -2576,7 +2582,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>300</v>
       </c>
@@ -2584,7 +2590,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>301</v>
       </c>
@@ -2592,7 +2598,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>304</v>
       </c>
@@ -2600,7 +2606,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>351</v>
       </c>
@@ -2608,7 +2614,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>352</v>
       </c>
@@ -2616,7 +2622,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>353</v>
       </c>
@@ -2624,7 +2630,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>354</v>
       </c>
@@ -2632,7 +2638,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>279</v>
       </c>
@@ -2640,7 +2646,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>280</v>
       </c>
@@ -2648,7 +2654,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>281</v>
       </c>
@@ -2656,7 +2662,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>244</v>
       </c>
@@ -2664,7 +2670,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>245</v>
       </c>
@@ -2672,7 +2678,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>246</v>
       </c>
@@ -2680,7 +2686,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>247</v>
       </c>
@@ -2688,7 +2694,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>249</v>
       </c>
@@ -2696,7 +2702,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>250</v>
       </c>
@@ -2704,7 +2710,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>252</v>
       </c>
@@ -2712,7 +2718,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>266</v>
       </c>
@@ -2720,7 +2726,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>267</v>
       </c>
@@ -2728,7 +2734,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>268</v>
       </c>
@@ -2736,7 +2742,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>269</v>
       </c>
@@ -2744,7 +2750,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>270</v>
       </c>
@@ -2752,7 +2758,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>271</v>
       </c>
@@ -2760,7 +2766,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>309</v>
       </c>
@@ -2768,7 +2774,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>308</v>
       </c>
@@ -2776,7 +2782,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>310</v>
       </c>
@@ -2784,7 +2790,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>311</v>
       </c>
@@ -2792,7 +2798,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>272</v>
       </c>
@@ -2800,7 +2806,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>289</v>
       </c>
@@ -2808,7 +2814,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>288</v>
       </c>
@@ -2816,7 +2822,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>287</v>
       </c>
@@ -2824,7 +2830,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>286</v>
       </c>
@@ -2832,7 +2838,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>290</v>
       </c>
@@ -2840,7 +2846,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>316</v>
       </c>
@@ -2848,7 +2854,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>315</v>
       </c>
@@ -2856,7 +2862,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>313</v>
       </c>
@@ -2864,7 +2870,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>312</v>
       </c>
@@ -2872,7 +2878,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>319</v>
       </c>
@@ -2880,7 +2886,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>318</v>
       </c>
@@ -2888,7 +2894,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>317</v>
       </c>
@@ -2896,7 +2902,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
         <v>291</v>
       </c>
@@ -2904,7 +2910,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
         <v>295</v>
       </c>
@@ -2912,7 +2918,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>320</v>
       </c>
@@ -2920,7 +2926,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>322</v>
       </c>
@@ -2928,7 +2934,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>324</v>
       </c>
@@ -2936,7 +2942,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
         <v>326</v>
       </c>
@@ -2944,7 +2950,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
         <v>331</v>
       </c>
@@ -2952,7 +2958,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>329</v>
       </c>
@@ -2960,7 +2966,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
         <v>334</v>
       </c>
@@ -2968,7 +2974,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>336</v>
       </c>
@@ -2976,7 +2982,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>332</v>
       </c>
@@ -2984,12 +2990,20 @@
         <v>333</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
         <v>339</v>
       </c>
       <c r="C179" t="s">
         <v>338</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180" t="s">
+        <v>359</v>
+      </c>
+      <c r="C180" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{507A7541-F05B-4D3F-B39D-A449756E17A4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0A748F12-0953-49E0-B330-66029A82A4CA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="16296" windowWidth="18048" windowHeight="6588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="16298" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="365">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -1099,10 +1099,22 @@
     <t>goto identifiers;, continue;,  break;, return expression;</t>
   </si>
   <si>
-    <t>C | What does this declaration mean, in genaral: int power(int m, int n)? (start with "it says that…")</t>
-  </si>
-  <si>
     <t>it says that power is a function that expects two int arguments and returns an int</t>
+  </si>
+  <si>
+    <t>C | What does this function prototype mean, in genaral: int power(int m, int n); ? (start with "it says that…")</t>
+  </si>
+  <si>
+    <t>C | What is function prototype? (start with "it is a …")</t>
+  </si>
+  <si>
+    <t>it is a declaration of a function that declares the types of its parameters</t>
+  </si>
+  <si>
+    <t>int power(int a, int b);, int power(int, int)</t>
+  </si>
+  <si>
+    <t>C | What are the two notations for the function prototype, specifically, for the function named power, that expects two int arguments called a and b and returns an integer?</t>
   </si>
 </sst>
 </file>
@@ -1507,21 +1519,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D180"/>
+  <dimension ref="A1:D182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="A180" sqref="A180"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="B170" sqref="B170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="91" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="108.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.46484375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="108.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
         <v>240</v>
       </c>
@@ -1531,7 +1543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1545,7 +1557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1559,7 +1571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1571,7 +1583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1585,7 +1597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1599,7 +1611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1613,7 +1625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1624,7 +1636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1635,7 +1647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1646,7 +1658,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1654,7 +1666,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1662,7 +1674,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -1670,7 +1682,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -1678,7 +1690,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -1686,7 +1698,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -1694,7 +1706,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -1702,7 +1714,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -1710,7 +1722,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -1718,7 +1730,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -1726,7 +1738,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -1734,7 +1746,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -1742,7 +1754,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1750,7 +1762,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1758,7 +1770,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -1766,7 +1778,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -1774,7 +1786,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -1782,7 +1794,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -1790,7 +1802,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -1798,7 +1810,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -1806,7 +1818,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -1814,7 +1826,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -1822,7 +1834,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -1830,7 +1842,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -1838,7 +1850,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -1846,7 +1858,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -1854,7 +1866,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -1862,7 +1874,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -1870,7 +1882,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -1878,7 +1890,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -1886,7 +1898,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -1894,7 +1906,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -1902,7 +1914,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -1910,7 +1922,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -1918,7 +1930,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -1926,7 +1938,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -1934,7 +1946,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -1942,7 +1954,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -1950,7 +1962,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -1958,7 +1970,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -1966,7 +1978,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -1974,7 +1986,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -1982,7 +1994,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -1990,7 +2002,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -1998,7 +2010,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -2006,7 +2018,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -2014,7 +2026,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -2022,7 +2034,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -2030,7 +2042,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -2038,7 +2050,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -2046,7 +2058,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -2054,7 +2066,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -2062,7 +2074,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -2070,7 +2082,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
         <v>127</v>
       </c>
@@ -2078,7 +2090,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -2086,7 +2098,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -2094,7 +2106,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -2102,7 +2114,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A68" t="s">
         <v>135</v>
       </c>
@@ -2110,7 +2122,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
         <v>137</v>
       </c>
@@ -2118,7 +2130,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -2126,7 +2138,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -2134,7 +2146,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A72" t="s">
         <v>143</v>
       </c>
@@ -2142,7 +2154,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A73" t="s">
         <v>145</v>
       </c>
@@ -2150,7 +2162,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -2158,7 +2170,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -2166,7 +2178,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A76" t="s">
         <v>151</v>
       </c>
@@ -2174,7 +2186,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -2182,7 +2194,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -2190,7 +2202,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -2198,7 +2210,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A80" t="s">
         <v>159</v>
       </c>
@@ -2206,7 +2218,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -2214,7 +2226,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -2222,7 +2234,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A83" t="s">
         <v>164</v>
       </c>
@@ -2230,7 +2242,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A84" t="s">
         <v>165</v>
       </c>
@@ -2238,7 +2250,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A85" t="s">
         <v>167</v>
       </c>
@@ -2246,7 +2258,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A86" t="s">
         <v>169</v>
       </c>
@@ -2254,7 +2266,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A87" t="s">
         <v>171</v>
       </c>
@@ -2262,7 +2274,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A88" t="s">
         <v>173</v>
       </c>
@@ -2270,7 +2282,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A89" t="s">
         <v>175</v>
       </c>
@@ -2278,7 +2290,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A90" t="s">
         <v>177</v>
       </c>
@@ -2286,7 +2298,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A91" t="s">
         <v>179</v>
       </c>
@@ -2294,7 +2306,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A92" t="s">
         <v>181</v>
       </c>
@@ -2302,7 +2314,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A93" t="s">
         <v>183</v>
       </c>
@@ -2310,7 +2322,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A94" t="s">
         <v>185</v>
       </c>
@@ -2318,7 +2330,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A95" t="s">
         <v>187</v>
       </c>
@@ -2326,7 +2338,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A96" t="s">
         <v>189</v>
       </c>
@@ -2334,7 +2346,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A97" t="s">
         <v>191</v>
       </c>
@@ -2342,7 +2354,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A98" t="s">
         <v>193</v>
       </c>
@@ -2350,7 +2362,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A99" t="s">
         <v>195</v>
       </c>
@@ -2358,7 +2370,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A100" t="s">
         <v>197</v>
       </c>
@@ -2366,7 +2378,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A101" t="s">
         <v>199</v>
       </c>
@@ -2374,7 +2386,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A102" t="s">
         <v>201</v>
       </c>
@@ -2382,7 +2394,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A103" t="s">
         <v>203</v>
       </c>
@@ -2390,7 +2402,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A104" t="s">
         <v>205</v>
       </c>
@@ -2398,7 +2410,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A105" t="s">
         <v>207</v>
       </c>
@@ -2406,7 +2418,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A106" t="s">
         <v>209</v>
       </c>
@@ -2414,7 +2426,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A107" t="s">
         <v>211</v>
       </c>
@@ -2422,7 +2434,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A108" t="s">
         <v>343</v>
       </c>
@@ -2430,7 +2442,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A109" t="s">
         <v>340</v>
       </c>
@@ -2438,7 +2450,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A110" t="s">
         <v>341</v>
       </c>
@@ -2446,7 +2458,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A111" t="s">
         <v>342</v>
       </c>
@@ -2454,7 +2466,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A112" t="s">
         <v>344</v>
       </c>
@@ -2462,7 +2474,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A113" t="s">
         <v>345</v>
       </c>
@@ -2470,7 +2482,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A114" t="s">
         <v>346</v>
       </c>
@@ -2478,7 +2490,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A115" t="s">
         <v>347</v>
       </c>
@@ -2486,7 +2498,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A116" t="s">
         <v>221</v>
       </c>
@@ -2494,7 +2506,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A117" t="s">
         <v>223</v>
       </c>
@@ -2502,7 +2514,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A118" t="s">
         <v>225</v>
       </c>
@@ -2510,7 +2522,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A119" t="s">
         <v>227</v>
       </c>
@@ -2518,7 +2530,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A120" t="s">
         <v>229</v>
       </c>
@@ -2526,7 +2538,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A121" t="s">
         <v>231</v>
       </c>
@@ -2534,7 +2546,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A122" t="s">
         <v>233</v>
       </c>
@@ -2542,7 +2554,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A123" t="s">
         <v>348</v>
       </c>
@@ -2550,7 +2562,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A124" t="s">
         <v>349</v>
       </c>
@@ -2558,7 +2570,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A125" t="s">
         <v>350</v>
       </c>
@@ -2566,7 +2578,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A126" t="s">
         <v>243</v>
       </c>
@@ -2574,7 +2586,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A127" t="s">
         <v>297</v>
       </c>
@@ -2582,7 +2594,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A128" t="s">
         <v>300</v>
       </c>
@@ -2590,7 +2602,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A129" t="s">
         <v>301</v>
       </c>
@@ -2598,7 +2610,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A130" t="s">
         <v>304</v>
       </c>
@@ -2606,7 +2618,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A131" t="s">
         <v>351</v>
       </c>
@@ -2614,7 +2626,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A132" t="s">
         <v>352</v>
       </c>
@@ -2622,7 +2634,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A133" t="s">
         <v>353</v>
       </c>
@@ -2630,7 +2642,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A134" t="s">
         <v>354</v>
       </c>
@@ -2638,7 +2650,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A135" t="s">
         <v>279</v>
       </c>
@@ -2646,7 +2658,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A136" t="s">
         <v>280</v>
       </c>
@@ -2654,7 +2666,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A137" t="s">
         <v>281</v>
       </c>
@@ -2662,7 +2674,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A138" t="s">
         <v>244</v>
       </c>
@@ -2670,7 +2682,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A139" t="s">
         <v>245</v>
       </c>
@@ -2678,7 +2690,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A140" t="s">
         <v>246</v>
       </c>
@@ -2686,7 +2698,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A141" t="s">
         <v>247</v>
       </c>
@@ -2694,7 +2706,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A142" t="s">
         <v>249</v>
       </c>
@@ -2702,7 +2714,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A143" t="s">
         <v>250</v>
       </c>
@@ -2710,7 +2722,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A144" t="s">
         <v>252</v>
       </c>
@@ -2718,7 +2730,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A145" t="s">
         <v>266</v>
       </c>
@@ -2726,7 +2738,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A146" t="s">
         <v>267</v>
       </c>
@@ -2734,7 +2746,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A147" t="s">
         <v>268</v>
       </c>
@@ -2742,7 +2754,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A148" t="s">
         <v>269</v>
       </c>
@@ -2750,7 +2762,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A149" t="s">
         <v>270</v>
       </c>
@@ -2758,7 +2770,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A150" t="s">
         <v>271</v>
       </c>
@@ -2766,7 +2778,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A151" t="s">
         <v>309</v>
       </c>
@@ -2774,7 +2786,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A152" t="s">
         <v>308</v>
       </c>
@@ -2782,7 +2794,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A153" t="s">
         <v>310</v>
       </c>
@@ -2790,7 +2802,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A154" t="s">
         <v>311</v>
       </c>
@@ -2798,7 +2810,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A155" t="s">
         <v>272</v>
       </c>
@@ -2806,7 +2818,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A156" t="s">
         <v>289</v>
       </c>
@@ -2814,7 +2826,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A157" t="s">
         <v>288</v>
       </c>
@@ -2822,7 +2834,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A158" t="s">
         <v>287</v>
       </c>
@@ -2830,7 +2842,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A159" t="s">
         <v>286</v>
       </c>
@@ -2838,7 +2850,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A160" t="s">
         <v>290</v>
       </c>
@@ -2846,7 +2858,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A161" t="s">
         <v>316</v>
       </c>
@@ -2854,7 +2866,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A162" t="s">
         <v>315</v>
       </c>
@@ -2862,7 +2874,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A163" t="s">
         <v>313</v>
       </c>
@@ -2870,7 +2882,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A164" t="s">
         <v>312</v>
       </c>
@@ -2878,7 +2890,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A165" t="s">
         <v>319</v>
       </c>
@@ -2886,7 +2898,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A166" t="s">
         <v>318</v>
       </c>
@@ -2894,7 +2906,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A167" t="s">
         <v>317</v>
       </c>
@@ -2902,7 +2914,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A168" t="s">
         <v>291</v>
       </c>
@@ -2910,7 +2922,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A169" t="s">
         <v>295</v>
       </c>
@@ -2918,7 +2930,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A170" t="s">
         <v>320</v>
       </c>
@@ -2926,7 +2938,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A171" t="s">
         <v>322</v>
       </c>
@@ -2934,7 +2946,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A172" t="s">
         <v>324</v>
       </c>
@@ -2942,7 +2954,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A173" t="s">
         <v>326</v>
       </c>
@@ -2950,7 +2962,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A174" t="s">
         <v>331</v>
       </c>
@@ -2958,7 +2970,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A175" t="s">
         <v>329</v>
       </c>
@@ -2966,7 +2978,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A176" t="s">
         <v>334</v>
       </c>
@@ -2974,7 +2986,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A177" t="s">
         <v>336</v>
       </c>
@@ -2982,7 +2994,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A178" t="s">
         <v>332</v>
       </c>
@@ -2990,7 +3002,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A179" t="s">
         <v>339</v>
       </c>
@@ -2998,12 +3010,28 @@
         <v>338</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A180" t="s">
+        <v>360</v>
+      </c>
+      <c r="C180" t="s">
         <v>359</v>
       </c>
-      <c r="C180" t="s">
-        <v>360</v>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A181" t="s">
+        <v>361</v>
+      </c>
+      <c r="C181" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A182" t="s">
+        <v>364</v>
+      </c>
+      <c r="C182" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0A748F12-0953-49E0-B330-66029A82A4CA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{54303F0C-D32B-445A-A53F-E66E8457F679}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="16298" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="369">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -1115,6 +1115,18 @@
   </si>
   <si>
     <t>C | What are the two notations for the function prototype, specifically, for the function named power, that expects two int arguments called a and b and returns an integer?</t>
+  </si>
+  <si>
+    <t>C | What are the characteristics of the funtion type? (start with "A function type is characterized …")</t>
+  </si>
+  <si>
+    <t>a function type is characterized by its return type and the number and types of its parameters</t>
+  </si>
+  <si>
+    <t>C | What does point type describes? (Start with it describes…")</t>
+  </si>
+  <si>
+    <t>it describes an object whose value provides a reference to an entity of the referenced type</t>
   </si>
 </sst>
 </file>
@@ -1519,10 +1531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D182"/>
+  <dimension ref="A1:D184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="B170" sqref="B170"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="A185" sqref="A185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.75"/>
@@ -3034,6 +3046,22 @@
         <v>363</v>
       </c>
     </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A183" t="s">
+        <v>365</v>
+      </c>
+      <c r="C183" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A184" t="s">
+        <v>367</v>
+      </c>
+      <c r="C184" t="s">
+        <v>368</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{54303F0C-D32B-445A-A53F-E66E8457F679}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E7E051F8-4BC9-4026-8F8B-2DD3C1110C12}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="16298" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="371">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -1127,6 +1127,12 @@
   </si>
   <si>
     <t>it describes an object whose value provides a reference to an entity of the referenced type</t>
+  </si>
+  <si>
+    <t>C | What would be the type of the argument 'a' in the function: "int convert(a, b) {…}" if the prototype function is the following: "int convert(int parA,int parB);"? (start with "type of 'a'…)</t>
+  </si>
+  <si>
+    <t>type of 'a' defaults to 'int'</t>
   </si>
 </sst>
 </file>
@@ -1531,7 +1537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D184"/>
+  <dimension ref="A1:D185"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
       <selection activeCell="A185" sqref="A185"/>
@@ -3062,6 +3068,14 @@
         <v>368</v>
       </c>
     </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A185" t="s">
+        <v>369</v>
+      </c>
+      <c r="C185" t="s">
+        <v>370</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E7E051F8-4BC9-4026-8F8B-2DD3C1110C12}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{07B14D14-5F76-4525-870A-BBFD9D6F678A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="16298" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="374">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -1133,6 +1133,15 @@
   </si>
   <si>
     <t>type of 'a' defaults to 'int'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C | Write the function called 'my_getline' that reads the whole line from input and returns 'i' as a length of the line. It receives 1st argument 'line[]'. The length of the line should be less that 2nd argument. </t>
+  </si>
+  <si>
+    <t>C | Write down the string representation of the following input line, in the memory: "hello\n"?</t>
+  </si>
+  <si>
+    <t>hello\n\0</t>
   </si>
 </sst>
 </file>
@@ -1537,10 +1546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D185"/>
+  <dimension ref="A1:D187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="A185" sqref="A185"/>
+      <selection activeCell="A187" sqref="A187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.75"/>
@@ -3076,6 +3085,19 @@
         <v>370</v>
       </c>
     </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A186" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A187" t="s">
+        <v>372</v>
+      </c>
+      <c r="C187" t="s">
+        <v>373</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{07B14D14-5F76-4525-870A-BBFD9D6F678A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4EE5823F-B5A2-42F7-A791-5D2C64A36DC7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="16298" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="375">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -1135,13 +1135,16 @@
     <t>type of 'a' defaults to 'int'</t>
   </si>
   <si>
-    <t xml:space="preserve">C | Write the function called 'my_getline' that reads the whole line from input and returns 'i' as a length of the line. It receives 1st argument 'line[]'. The length of the line should be less that 2nd argument. </t>
-  </si>
-  <si>
     <t>C | Write down the string representation of the following input line, in the memory: "hello\n"?</t>
   </si>
   <si>
     <t>hello\n\0</t>
+  </si>
+  <si>
+    <t>int my_function(char s[], int lim) { int c,i; for (i=0; i&lt;lim-1&amp;&amp;((c=getchar())!=EOF)&amp;&amp;c!='\n'; ++i) s[i]=c; if (c='\n') { s[i]=c; ++i; } s[i]='\0'; return i; }</t>
+  </si>
+  <si>
+    <t>C | Write the function called 'my_getline' that reads the whole line from input and returns 'i' as a length of the line. It receives 1st argument 'line[]'. The length of the line should be less that 2nd argument. As a side effect it should be modifying the elements of the array 'line[]' that it receives with the respective characters from input.</t>
   </si>
 </sst>
 </file>
@@ -1548,8 +1551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="A187" sqref="A187"/>
+    <sheetView tabSelected="1" topLeftCell="C168" workbookViewId="0">
+      <selection activeCell="C186" sqref="C186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.75"/>
@@ -3087,15 +3090,18 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A186" t="s">
-        <v>371</v>
+        <v>374</v>
+      </c>
+      <c r="C186" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A187" t="s">
+        <v>371</v>
+      </c>
+      <c r="C187" t="s">
         <v>372</v>
-      </c>
-      <c r="C187" t="s">
-        <v>373</v>
       </c>
     </row>
   </sheetData>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4EE5823F-B5A2-42F7-A791-5D2C64A36DC7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4CC24707-4D6C-41F6-B574-406F4BE03C6F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="16298" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="413">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -811,9 +811,6 @@
     <t>the parentheses after the function name surround the argument list</t>
   </si>
   <si>
-    <t>it announces the properties of variables, consists of a type name and a list of variables</t>
-  </si>
-  <si>
     <t>when the test becomes false, fahr exceeds upper, the loop ends and the execution continues at the statement that follows the loop</t>
   </si>
   <si>
@@ -1021,9 +1018,6 @@
     <t>C | Explain the Semantics of an Array Subsription? (start with "a postfix expression…")</t>
   </si>
   <si>
-    <t>a postfix expression followed by an expression in square brackets [] is a subscribed designation of an element of an array object</t>
-  </si>
-  <si>
     <t>C | What is an Expression? (start with "an expression is…")</t>
   </si>
   <si>
@@ -1120,9 +1114,6 @@
     <t>C | What are the characteristics of the funtion type? (start with "A function type is characterized …")</t>
   </si>
   <si>
-    <t>a function type is characterized by its return type and the number and types of its parameters</t>
-  </si>
-  <si>
     <t>C | What does point type describes? (Start with it describes…")</t>
   </si>
   <si>
@@ -1145,6 +1136,129 @@
   </si>
   <si>
     <t>C | Write the function called 'my_getline' that reads the whole line from input and returns 'i' as a length of the line. It receives 1st argument 'line[]'. The length of the line should be less that 2nd argument. As a side effect it should be modifying the elements of the array 'line[]' that it receives with the respective characters from input.</t>
+  </si>
+  <si>
+    <t>garbage</t>
+  </si>
+  <si>
+    <t>C | What will contain the variable by default before the usage, if the value for the variable has not been set beforehand? (put just one word)</t>
+  </si>
+  <si>
+    <t>function, file, block, function prototype</t>
+  </si>
+  <si>
+    <t>it announces the properties of variables, consists of a declarator/type specifier and a list of variables</t>
+  </si>
+  <si>
+    <t>C | How the scope is determined, depending on what? (Start with "scope is determined by …")</t>
+  </si>
+  <si>
+    <t>scope is determined by the placement of its declaration</t>
+  </si>
+  <si>
+    <t>C | What are the kinds of scope of identifiers in C?</t>
+  </si>
+  <si>
+    <t>C | What does identifier can denote in C? (Start WITHOUT "An identifier can denote…")</t>
+  </si>
+  <si>
+    <t>object, function, tag, member of a structure, union, enumeration, typedef name, label name, macro name, macro parameter</t>
+  </si>
+  <si>
+    <t>C | What does mean, that the identifier has a block scope? (Start with "the declarator/type specifier..")</t>
+  </si>
+  <si>
+    <t>C | What does mean, that the identifier has a file scope, and when it terminates? (Start with "the declarator/type specifier… and terminates …")</t>
+  </si>
+  <si>
+    <t>it is a source file together with all the headers and source files included via the preprocessing directive #include</t>
+  </si>
+  <si>
+    <t>C | What is translation unit in C?</t>
+  </si>
+  <si>
+    <t>a postfix expression followed by an expression in square brackets is a subscribed designation of an element of an array object</t>
+  </si>
+  <si>
+    <t>a function type is characterized by its return type, number and types of its parameters</t>
+  </si>
+  <si>
+    <t>the function main is called with no prototype for it, return type int, no/two parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C | What is the happening on program startup? (start with "the function …", use "with" only once) </t>
+  </si>
+  <si>
+    <t>C | What is the preprocessing translation unit in C? (Start with "it is a source file…")</t>
+  </si>
+  <si>
+    <t>preprocessed preprocessing translation unit</t>
+  </si>
+  <si>
+    <t>C | What does environment do with the C source files, in general? (start with "an implementation …")</t>
+  </si>
+  <si>
+    <t>pre-processing, compilation, assembly, linking</t>
+  </si>
+  <si>
+    <t>C | What are the main phases for a C program to become an executable?</t>
+  </si>
+  <si>
+    <t>an implementation translates c source files in the translation environment and execute it in execution environment</t>
+  </si>
+  <si>
+    <t>C | What does mean, that the identifier has a function scope? (Start with "the declarator/type specifier..")</t>
+  </si>
+  <si>
+    <t>the declarator/type specifier appears outside the block or list of parameter declarations in a function definition and terminates at the end of the translation unit</t>
+  </si>
+  <si>
+    <t>the declarator/type specifier appears inside the block or list of parameter declarations in a function definition and terminates at the end of the block</t>
+  </si>
+  <si>
+    <t>the declarator/type specifier appears inside the list of parameter declarations in a function prototype definition and terminates at the end of the function declarator</t>
+  </si>
+  <si>
+    <t>C | What are the storage durations in C?</t>
+  </si>
+  <si>
+    <t>static, thread, automatic, allocated</t>
+  </si>
+  <si>
+    <t>C | What is linkage in C?</t>
+  </si>
+  <si>
+    <t>it is a process of referring an identifier, declared in the same/different scopes more than once, to the same object/function</t>
+  </si>
+  <si>
+    <t>external, internal, none</t>
+  </si>
+  <si>
+    <t>C | What are the kinds of linkage in C?</t>
+  </si>
+  <si>
+    <t>C | What is the declaration syntax in C?</t>
+  </si>
+  <si>
+    <t>C | What does mean, that an identifier has internal linkage in C? (start with "the declaration…")</t>
+  </si>
+  <si>
+    <t>the declaration of a file scope identifier for an object or a function contains the storage-class specifier static</t>
+  </si>
+  <si>
+    <t>declaration-specifier init-declarator-list</t>
+  </si>
+  <si>
+    <t>C | What are the declaration-specifiers in C?</t>
+  </si>
+  <si>
+    <t>storage-class-specifier, type-specifier, type-qualifier, function-specifier, alignment-specifier</t>
+  </si>
+  <si>
+    <t>C | What are the storage-class specifiers in C?</t>
+  </si>
+  <si>
+    <t>typedef, extern, static, _Thread_local, auto, register</t>
   </si>
 </sst>
 </file>
@@ -1549,10 +1663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D187"/>
+  <dimension ref="A1:D207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C168" workbookViewId="0">
-      <selection activeCell="C186" sqref="C186"/>
+    <sheetView tabSelected="1" topLeftCell="C179" workbookViewId="0">
+      <selection activeCell="C203" sqref="C203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.75"/>
@@ -2466,7 +2580,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A108" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C108" t="s">
         <v>213</v>
@@ -2474,7 +2588,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A109" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C109" t="s">
         <v>214</v>
@@ -2482,7 +2596,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A110" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C110" t="s">
         <v>215</v>
@@ -2490,7 +2604,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A111" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C111" t="s">
         <v>216</v>
@@ -2498,7 +2612,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A112" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C112" t="s">
         <v>217</v>
@@ -2506,7 +2620,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A113" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C113" t="s">
         <v>218</v>
@@ -2514,7 +2628,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A114" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C114" t="s">
         <v>219</v>
@@ -2522,7 +2636,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A115" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C115" t="s">
         <v>220</v>
@@ -2586,7 +2700,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A123" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C123" t="s">
         <v>235</v>
@@ -2594,7 +2708,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A124" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C124" t="s">
         <v>236</v>
@@ -2602,7 +2716,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A125" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C125" t="s">
         <v>237</v>
@@ -2613,76 +2727,76 @@
         <v>243</v>
       </c>
       <c r="C126" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A127" t="s">
+        <v>296</v>
+      </c>
+      <c r="C127" t="s">
         <v>297</v>
-      </c>
-      <c r="C127" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A128" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C128" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A129" t="s">
+        <v>300</v>
+      </c>
+      <c r="C129" t="s">
         <v>301</v>
-      </c>
-      <c r="C129" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A130" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C130" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A131" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C131" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A132" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C132" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A133" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C133" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A134" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C134" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A135" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C135" t="s">
         <v>261</v>
@@ -2690,7 +2804,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A136" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C136" t="s">
         <v>242</v>
@@ -2698,7 +2812,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A137" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C137" t="s">
         <v>241</v>
@@ -2762,7 +2876,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A145" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C145" t="s">
         <v>258</v>
@@ -2770,7 +2884,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A146" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C146" t="s">
         <v>259</v>
@@ -2778,7 +2892,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A147" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C147" t="s">
         <v>260</v>
@@ -2786,15 +2900,15 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A148" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C148" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A149" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C149" t="s">
         <v>262</v>
@@ -2802,306 +2916,466 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A150" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C150" t="s">
-        <v>263</v>
+        <v>375</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A151" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C151" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A152" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C152" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A153" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C153" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A154" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C154" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A155" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C155" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A156" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C156" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A157" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C157" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A158" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C158" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A159" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C159" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A160" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C160" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A161" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C161" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A162" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C162" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A163" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C163" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A164" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C164" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A165" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C165" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A166" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C166" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A167" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C167" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A168" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C168" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A169" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C169" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A170" t="s">
+        <v>319</v>
+      </c>
+      <c r="C170" t="s">
         <v>320</v>
-      </c>
-      <c r="C170" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A171" t="s">
+        <v>321</v>
+      </c>
+      <c r="C171" t="s">
         <v>322</v>
-      </c>
-      <c r="C171" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A172" t="s">
+        <v>323</v>
+      </c>
+      <c r="C172" t="s">
         <v>324</v>
-      </c>
-      <c r="C172" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A173" t="s">
+        <v>325</v>
+      </c>
+      <c r="C173" t="s">
         <v>326</v>
-      </c>
-      <c r="C173" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A174" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C174" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A175" t="s">
+        <v>328</v>
+      </c>
+      <c r="C175" t="s">
         <v>329</v>
-      </c>
-      <c r="C175" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A176" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C176" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A177" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C177" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A178" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C178" t="s">
-        <v>333</v>
+        <v>385</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A179" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C179" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A180" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C180" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A181" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C181" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A182" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C182" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A183" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C183" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A184" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C184" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A185" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C185" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A186" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C186" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A187" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C187" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A188" t="s">
+        <v>373</v>
+      </c>
+      <c r="C188" t="s">
         <v>372</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A189" t="s">
+        <v>379</v>
+      </c>
+      <c r="C189" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A190" t="s">
+        <v>378</v>
+      </c>
+      <c r="C190" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A191" t="s">
+        <v>376</v>
+      </c>
+      <c r="C191" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A192" t="s">
+        <v>382</v>
+      </c>
+      <c r="C192" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A193" t="s">
+        <v>381</v>
+      </c>
+      <c r="C193" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A194" t="s">
+        <v>395</v>
+      </c>
+      <c r="C194" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A195" t="s">
+        <v>389</v>
+      </c>
+      <c r="C195" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A196" t="s">
+        <v>384</v>
+      </c>
+      <c r="C196" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A197" t="s">
+        <v>388</v>
+      </c>
+      <c r="C197" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A198" t="s">
+        <v>391</v>
+      </c>
+      <c r="C198" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A199" t="s">
+        <v>393</v>
+      </c>
+      <c r="C199" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A200" t="s">
+        <v>393</v>
+      </c>
+      <c r="C200" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A201" t="s">
+        <v>405</v>
+      </c>
+      <c r="C201" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A202" t="s">
+        <v>409</v>
+      </c>
+      <c r="C202" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A203" t="s">
+        <v>411</v>
+      </c>
+      <c r="C203" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A204" t="s">
+        <v>406</v>
+      </c>
+      <c r="C204" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A205" t="s">
+        <v>401</v>
+      </c>
+      <c r="C205" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A206" t="s">
+        <v>404</v>
+      </c>
+      <c r="C206" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A207" t="s">
+        <v>399</v>
+      </c>
+      <c r="C207" t="s">
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4CC24707-4D6C-41F6-B574-406F4BE03C6F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{56714DA3-737B-4B29-93F8-23FB5517DA64}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="16298" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="414">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -1259,6 +1259,9 @@
   </si>
   <si>
     <t>typedef, extern, static, _Thread_local, auto, register</t>
+  </si>
+  <si>
+    <t>What are the BRE?</t>
   </si>
 </sst>
 </file>
@@ -1663,10 +1666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D207"/>
+  <dimension ref="A1:D208"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C179" workbookViewId="0">
-      <selection activeCell="C203" sqref="C203"/>
+      <selection activeCell="C194" sqref="C194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.75"/>
@@ -3378,6 +3381,11 @@
         <v>400</v>
       </c>
     </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A208" t="s">
+        <v>413</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{56714DA3-737B-4B29-93F8-23FB5517DA64}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2111DB8E-D034-4211-AD21-DE2512D8AB47}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="16298" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1668,8 +1668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C179" workbookViewId="0">
-      <selection activeCell="C194" sqref="C194"/>
+    <sheetView tabSelected="1" topLeftCell="B193" workbookViewId="0">
+      <selection activeCell="B208" sqref="B208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.75"/>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2111DB8E-D034-4211-AD21-DE2512D8AB47}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{772EBB6B-C94E-4452-900C-17E559254EBD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="16298" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="16752" windowWidth="18048" windowHeight="6588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1668,19 +1668,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B193" workbookViewId="0">
-      <selection activeCell="B208" sqref="B208"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="91" customWidth="1"/>
-    <col min="2" max="2" width="17.46484375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="108.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="108.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>240</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>127</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>135</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>137</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>143</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>145</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>151</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>159</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>164</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>165</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>167</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>169</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>171</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>173</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>175</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>177</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>179</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>181</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>183</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>185</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>187</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>189</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>191</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>193</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>195</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>197</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>199</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>201</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>203</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>205</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>207</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>209</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>211</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>341</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>338</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>339</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>340</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>342</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>343</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>344</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>345</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>221</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>223</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>225</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>227</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>229</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>231</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>233</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>346</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>347</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>348</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>243</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>296</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>299</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>300</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>303</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>349</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>350</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>351</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>352</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>278</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>279</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>280</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>244</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>245</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>246</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>247</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>249</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>250</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>252</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>265</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>266</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>267</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>268</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>269</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>270</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>308</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>307</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>309</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>310</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>271</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>288</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>287</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>286</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>285</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>289</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>315</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>314</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>312</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>311</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>318</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>317</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>316</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
         <v>290</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
         <v>294</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>319</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>321</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>323</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
         <v>325</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
         <v>330</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>328</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
         <v>332</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>334</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>331</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
         <v>337</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
         <v>358</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>359</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
         <v>362</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
         <v>363</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
         <v>364</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>366</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>371</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
         <v>368</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
         <v>373</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>379</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>378</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>376</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
         <v>382</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
         <v>381</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
         <v>395</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
         <v>389</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>384</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>388</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
         <v>391</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
         <v>393</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
         <v>393</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
         <v>405</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
         <v>409</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
         <v>411</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
         <v>406</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
         <v>401</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
         <v>404</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
         <v>399</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
         <v>413</v>
       </c>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{772EBB6B-C94E-4452-900C-17E559254EBD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{818CD075-280A-4F62-807D-9C54C41B540E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="16752" windowWidth="18048" windowHeight="6588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="16755" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="415">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -1261,7 +1261,10 @@
     <t>typedef, extern, static, _Thread_local, auto, register</t>
   </si>
   <si>
-    <t>What are the BRE?</t>
+    <t>POSIX | What are the BRE?</t>
+  </si>
+  <si>
+    <t>POSIX | What are the ERE?</t>
   </si>
 </sst>
 </file>
@@ -1666,21 +1669,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D208"/>
+  <dimension ref="A1:D209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150"/>
+    <sheetView tabSelected="1" topLeftCell="B192" workbookViewId="0">
+      <selection activeCell="C203" sqref="C203"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="91" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="108.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.46484375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="108.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
         <v>240</v>
       </c>
@@ -1690,7 +1693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1704,7 +1707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1718,7 +1721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1730,7 +1733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1744,7 +1747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1758,7 +1761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1772,7 +1775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1783,7 +1786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1794,7 +1797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,7 +1808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1813,7 +1816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1821,7 +1824,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -1829,7 +1832,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -1837,7 +1840,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -1845,7 +1848,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -1853,7 +1856,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -1861,7 +1864,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -1869,7 +1872,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -1877,7 +1880,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -1885,7 +1888,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -1893,7 +1896,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -1901,7 +1904,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1909,7 +1912,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1917,7 +1920,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -1925,7 +1928,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -1933,7 +1936,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -1941,7 +1944,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -1949,7 +1952,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -1957,7 +1960,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -1965,7 +1968,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -1973,7 +1976,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -1981,7 +1984,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -1989,7 +1992,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -1997,7 +2000,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -2005,7 +2008,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -2013,7 +2016,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -2021,7 +2024,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -2029,7 +2032,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -2037,7 +2040,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -2045,7 +2048,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -2053,7 +2056,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -2061,7 +2064,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -2069,7 +2072,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -2077,7 +2080,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -2085,7 +2088,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -2093,7 +2096,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -2101,7 +2104,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -2109,7 +2112,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -2117,7 +2120,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -2125,7 +2128,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -2133,7 +2136,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -2141,7 +2144,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -2149,7 +2152,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -2157,7 +2160,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -2165,7 +2168,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -2173,7 +2176,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -2181,7 +2184,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -2189,7 +2192,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -2197,7 +2200,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -2205,7 +2208,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -2213,7 +2216,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -2221,7 +2224,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -2229,7 +2232,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
         <v>127</v>
       </c>
@@ -2237,7 +2240,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -2245,7 +2248,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -2253,7 +2256,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -2261,7 +2264,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A68" t="s">
         <v>135</v>
       </c>
@@ -2269,7 +2272,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
         <v>137</v>
       </c>
@@ -2277,7 +2280,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -2285,7 +2288,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -2293,7 +2296,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A72" t="s">
         <v>143</v>
       </c>
@@ -2301,7 +2304,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A73" t="s">
         <v>145</v>
       </c>
@@ -2309,7 +2312,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -2317,7 +2320,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -2325,7 +2328,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A76" t="s">
         <v>151</v>
       </c>
@@ -2333,7 +2336,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -2341,7 +2344,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -2349,7 +2352,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -2357,7 +2360,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A80" t="s">
         <v>159</v>
       </c>
@@ -2365,7 +2368,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -2373,7 +2376,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -2381,7 +2384,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A83" t="s">
         <v>164</v>
       </c>
@@ -2389,7 +2392,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A84" t="s">
         <v>165</v>
       </c>
@@ -2397,7 +2400,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A85" t="s">
         <v>167</v>
       </c>
@@ -2405,7 +2408,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A86" t="s">
         <v>169</v>
       </c>
@@ -2413,7 +2416,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A87" t="s">
         <v>171</v>
       </c>
@@ -2421,7 +2424,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A88" t="s">
         <v>173</v>
       </c>
@@ -2429,7 +2432,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A89" t="s">
         <v>175</v>
       </c>
@@ -2437,7 +2440,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A90" t="s">
         <v>177</v>
       </c>
@@ -2445,7 +2448,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A91" t="s">
         <v>179</v>
       </c>
@@ -2453,7 +2456,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A92" t="s">
         <v>181</v>
       </c>
@@ -2461,7 +2464,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A93" t="s">
         <v>183</v>
       </c>
@@ -2469,7 +2472,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A94" t="s">
         <v>185</v>
       </c>
@@ -2477,7 +2480,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A95" t="s">
         <v>187</v>
       </c>
@@ -2485,7 +2488,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A96" t="s">
         <v>189</v>
       </c>
@@ -2493,7 +2496,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A97" t="s">
         <v>191</v>
       </c>
@@ -2501,7 +2504,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A98" t="s">
         <v>193</v>
       </c>
@@ -2509,7 +2512,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A99" t="s">
         <v>195</v>
       </c>
@@ -2517,7 +2520,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A100" t="s">
         <v>197</v>
       </c>
@@ -2525,7 +2528,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A101" t="s">
         <v>199</v>
       </c>
@@ -2533,7 +2536,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A102" t="s">
         <v>201</v>
       </c>
@@ -2541,7 +2544,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A103" t="s">
         <v>203</v>
       </c>
@@ -2549,7 +2552,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A104" t="s">
         <v>205</v>
       </c>
@@ -2557,7 +2560,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A105" t="s">
         <v>207</v>
       </c>
@@ -2565,7 +2568,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A106" t="s">
         <v>209</v>
       </c>
@@ -2573,7 +2576,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A107" t="s">
         <v>211</v>
       </c>
@@ -2581,7 +2584,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A108" t="s">
         <v>341</v>
       </c>
@@ -2589,7 +2592,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A109" t="s">
         <v>338</v>
       </c>
@@ -2597,7 +2600,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A110" t="s">
         <v>339</v>
       </c>
@@ -2605,7 +2608,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A111" t="s">
         <v>340</v>
       </c>
@@ -2613,7 +2616,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A112" t="s">
         <v>342</v>
       </c>
@@ -2621,7 +2624,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A113" t="s">
         <v>343</v>
       </c>
@@ -2629,7 +2632,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A114" t="s">
         <v>344</v>
       </c>
@@ -2637,7 +2640,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A115" t="s">
         <v>345</v>
       </c>
@@ -2645,7 +2648,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A116" t="s">
         <v>221</v>
       </c>
@@ -2653,7 +2656,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A117" t="s">
         <v>223</v>
       </c>
@@ -2661,7 +2664,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A118" t="s">
         <v>225</v>
       </c>
@@ -2669,7 +2672,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A119" t="s">
         <v>227</v>
       </c>
@@ -2677,7 +2680,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A120" t="s">
         <v>229</v>
       </c>
@@ -2685,7 +2688,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A121" t="s">
         <v>231</v>
       </c>
@@ -2693,7 +2696,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A122" t="s">
         <v>233</v>
       </c>
@@ -2701,7 +2704,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A123" t="s">
         <v>346</v>
       </c>
@@ -2709,7 +2712,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A124" t="s">
         <v>347</v>
       </c>
@@ -2717,7 +2720,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A125" t="s">
         <v>348</v>
       </c>
@@ -2725,7 +2728,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A126" t="s">
         <v>243</v>
       </c>
@@ -2733,7 +2736,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A127" t="s">
         <v>296</v>
       </c>
@@ -2741,7 +2744,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A128" t="s">
         <v>299</v>
       </c>
@@ -2749,7 +2752,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A129" t="s">
         <v>300</v>
       </c>
@@ -2757,7 +2760,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A130" t="s">
         <v>303</v>
       </c>
@@ -2765,7 +2768,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A131" t="s">
         <v>349</v>
       </c>
@@ -2773,7 +2776,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A132" t="s">
         <v>350</v>
       </c>
@@ -2781,7 +2784,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A133" t="s">
         <v>351</v>
       </c>
@@ -2789,7 +2792,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A134" t="s">
         <v>352</v>
       </c>
@@ -2797,7 +2800,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A135" t="s">
         <v>278</v>
       </c>
@@ -2805,7 +2808,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A136" t="s">
         <v>279</v>
       </c>
@@ -2813,7 +2816,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A137" t="s">
         <v>280</v>
       </c>
@@ -2821,7 +2824,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A138" t="s">
         <v>244</v>
       </c>
@@ -2829,7 +2832,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A139" t="s">
         <v>245</v>
       </c>
@@ -2837,7 +2840,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A140" t="s">
         <v>246</v>
       </c>
@@ -2845,7 +2848,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A141" t="s">
         <v>247</v>
       </c>
@@ -2853,7 +2856,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A142" t="s">
         <v>249</v>
       </c>
@@ -2861,7 +2864,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A143" t="s">
         <v>250</v>
       </c>
@@ -2869,7 +2872,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A144" t="s">
         <v>252</v>
       </c>
@@ -2877,7 +2880,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A145" t="s">
         <v>265</v>
       </c>
@@ -2885,7 +2888,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A146" t="s">
         <v>266</v>
       </c>
@@ -2893,7 +2896,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A147" t="s">
         <v>267</v>
       </c>
@@ -2901,7 +2904,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A148" t="s">
         <v>268</v>
       </c>
@@ -2909,7 +2912,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A149" t="s">
         <v>269</v>
       </c>
@@ -2917,7 +2920,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A150" t="s">
         <v>270</v>
       </c>
@@ -2925,7 +2928,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A151" t="s">
         <v>308</v>
       </c>
@@ -2933,7 +2936,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A152" t="s">
         <v>307</v>
       </c>
@@ -2941,7 +2944,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A153" t="s">
         <v>309</v>
       </c>
@@ -2949,7 +2952,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A154" t="s">
         <v>310</v>
       </c>
@@ -2957,7 +2960,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A155" t="s">
         <v>271</v>
       </c>
@@ -2965,7 +2968,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A156" t="s">
         <v>288</v>
       </c>
@@ -2973,7 +2976,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A157" t="s">
         <v>287</v>
       </c>
@@ -2981,7 +2984,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A158" t="s">
         <v>286</v>
       </c>
@@ -2989,7 +2992,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A159" t="s">
         <v>285</v>
       </c>
@@ -2997,7 +3000,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A160" t="s">
         <v>289</v>
       </c>
@@ -3005,7 +3008,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A161" t="s">
         <v>315</v>
       </c>
@@ -3013,7 +3016,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A162" t="s">
         <v>314</v>
       </c>
@@ -3021,7 +3024,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A163" t="s">
         <v>312</v>
       </c>
@@ -3029,7 +3032,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A164" t="s">
         <v>311</v>
       </c>
@@ -3037,7 +3040,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A165" t="s">
         <v>318</v>
       </c>
@@ -3045,7 +3048,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A166" t="s">
         <v>317</v>
       </c>
@@ -3053,7 +3056,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A167" t="s">
         <v>316</v>
       </c>
@@ -3061,7 +3064,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A168" t="s">
         <v>290</v>
       </c>
@@ -3069,7 +3072,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A169" t="s">
         <v>294</v>
       </c>
@@ -3077,7 +3080,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A170" t="s">
         <v>319</v>
       </c>
@@ -3085,7 +3088,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A171" t="s">
         <v>321</v>
       </c>
@@ -3093,7 +3096,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A172" t="s">
         <v>323</v>
       </c>
@@ -3101,7 +3104,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A173" t="s">
         <v>325</v>
       </c>
@@ -3109,7 +3112,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A174" t="s">
         <v>330</v>
       </c>
@@ -3117,7 +3120,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A175" t="s">
         <v>328</v>
       </c>
@@ -3125,7 +3128,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A176" t="s">
         <v>332</v>
       </c>
@@ -3133,7 +3136,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A177" t="s">
         <v>334</v>
       </c>
@@ -3141,7 +3144,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A178" t="s">
         <v>331</v>
       </c>
@@ -3149,7 +3152,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A179" t="s">
         <v>337</v>
       </c>
@@ -3157,7 +3160,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A180" t="s">
         <v>358</v>
       </c>
@@ -3165,7 +3168,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A181" t="s">
         <v>359</v>
       </c>
@@ -3173,7 +3176,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A182" t="s">
         <v>362</v>
       </c>
@@ -3181,7 +3184,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A183" t="s">
         <v>363</v>
       </c>
@@ -3189,7 +3192,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A184" t="s">
         <v>364</v>
       </c>
@@ -3197,7 +3200,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A185" t="s">
         <v>366</v>
       </c>
@@ -3205,7 +3208,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A186" t="s">
         <v>371</v>
       </c>
@@ -3213,7 +3216,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A187" t="s">
         <v>368</v>
       </c>
@@ -3221,7 +3224,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A188" t="s">
         <v>373</v>
       </c>
@@ -3229,7 +3232,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A189" t="s">
         <v>379</v>
       </c>
@@ -3237,7 +3240,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A190" t="s">
         <v>378</v>
       </c>
@@ -3245,7 +3248,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A191" t="s">
         <v>376</v>
       </c>
@@ -3253,7 +3256,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A192" t="s">
         <v>382</v>
       </c>
@@ -3261,7 +3264,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A193" t="s">
         <v>381</v>
       </c>
@@ -3269,7 +3272,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A194" t="s">
         <v>395</v>
       </c>
@@ -3277,7 +3280,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A195" t="s">
         <v>389</v>
       </c>
@@ -3285,7 +3288,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A196" t="s">
         <v>384</v>
       </c>
@@ -3293,7 +3296,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A197" t="s">
         <v>388</v>
       </c>
@@ -3301,7 +3304,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A198" t="s">
         <v>391</v>
       </c>
@@ -3309,7 +3312,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A199" t="s">
         <v>393</v>
       </c>
@@ -3317,7 +3320,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A200" t="s">
         <v>393</v>
       </c>
@@ -3325,7 +3328,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A201" t="s">
         <v>405</v>
       </c>
@@ -3333,7 +3336,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A202" t="s">
         <v>409</v>
       </c>
@@ -3341,7 +3344,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A203" t="s">
         <v>411</v>
       </c>
@@ -3349,7 +3352,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A204" t="s">
         <v>406</v>
       </c>
@@ -3357,7 +3360,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A205" t="s">
         <v>401</v>
       </c>
@@ -3365,7 +3368,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A206" t="s">
         <v>404</v>
       </c>
@@ -3373,7 +3376,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A207" t="s">
         <v>399</v>
       </c>
@@ -3381,9 +3384,14 @@
         <v>400</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A208" t="s">
         <v>413</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A209" t="s">
+        <v>414</v>
       </c>
     </row>
   </sheetData>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{818CD075-280A-4F62-807D-9C54C41B540E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8807A8EC-E517-4959-9D45-7304848C61E0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="16755" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="423">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -991,12 +991,6 @@
     <t>signed char, short int, int, long int, long long int</t>
   </si>
   <si>
-    <t>C | What are the floating types categories in C?</t>
-  </si>
-  <si>
-    <t>real floating types, complex types</t>
-  </si>
-  <si>
     <t>C | What are the real floating types in C?</t>
   </si>
   <si>
@@ -1261,10 +1255,40 @@
     <t>typedef, extern, static, _Thread_local, auto, register</t>
   </si>
   <si>
-    <t>POSIX | What are the BRE?</t>
-  </si>
-  <si>
-    <t>POSIX | What are the ERE?</t>
+    <t>C | What are the basic types in C?</t>
+  </si>
+  <si>
+    <t>real floating type, complex type</t>
+  </si>
+  <si>
+    <t>C | What are the arithmetic types in C?</t>
+  </si>
+  <si>
+    <t>integer types, floating types</t>
+  </si>
+  <si>
+    <t>C | What are the floating types in C?</t>
+  </si>
+  <si>
+    <t>C | What are the integer types in C?</t>
+  </si>
+  <si>
+    <t>char type, signed integer type, unsigned integer type, enumerated type</t>
+  </si>
+  <si>
+    <t>C | What are the real types in C?</t>
+  </si>
+  <si>
+    <t>char type, signed integer type, unsigned integer type, floating types</t>
+  </si>
+  <si>
+    <t>integer types, real floating types</t>
+  </si>
+  <si>
+    <t>preprocessor directives, global declarations, function prototypes, function definitions</t>
+  </si>
+  <si>
+    <t>C | What is the program structure? (end with "s")</t>
   </si>
 </sst>
 </file>
@@ -1669,10 +1693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D209"/>
+  <dimension ref="A1:D211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B192" workbookViewId="0">
-      <selection activeCell="C203" sqref="C203"/>
+    <sheetView tabSelected="1" topLeftCell="B195" workbookViewId="0">
+      <selection activeCell="C202" sqref="C202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.75"/>
@@ -2586,7 +2610,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A108" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C108" t="s">
         <v>213</v>
@@ -2594,7 +2618,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A109" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C109" t="s">
         <v>214</v>
@@ -2602,7 +2626,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A110" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C110" t="s">
         <v>215</v>
@@ -2610,7 +2634,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A111" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C111" t="s">
         <v>216</v>
@@ -2618,7 +2642,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A112" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C112" t="s">
         <v>217</v>
@@ -2626,7 +2650,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A113" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C113" t="s">
         <v>218</v>
@@ -2634,7 +2658,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A114" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C114" t="s">
         <v>219</v>
@@ -2642,7 +2666,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A115" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C115" t="s">
         <v>220</v>
@@ -2706,7 +2730,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A123" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C123" t="s">
         <v>235</v>
@@ -2714,7 +2738,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A124" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C124" t="s">
         <v>236</v>
@@ -2722,7 +2746,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A125" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C125" t="s">
         <v>237</v>
@@ -2770,34 +2794,34 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A131" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C131" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A132" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C132" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A133" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C133" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A134" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C134" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.75">
@@ -2925,7 +2949,7 @@
         <v>270</v>
       </c>
       <c r="C150" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.75">
@@ -3082,316 +3106,338 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A170" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="C170" t="s">
-        <v>320</v>
+        <v>383</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A171" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="C171" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A172" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="C172" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A173" t="s">
-        <v>325</v>
+        <v>357</v>
       </c>
       <c r="C173" t="s">
-        <v>326</v>
+        <v>358</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A174" t="s">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="C174" t="s">
-        <v>327</v>
+        <v>359</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A175" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="C175" t="s">
-        <v>329</v>
+        <v>384</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A176" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="C176" t="s">
-        <v>333</v>
+        <v>363</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A177" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="C177" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A178" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="C178" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A179" t="s">
-        <v>337</v>
+        <v>366</v>
       </c>
       <c r="C179" t="s">
-        <v>336</v>
+        <v>367</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A180" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="C180" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A181" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="C181" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A182" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="C182" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A183" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="C183" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A184" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="C184" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A185" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="C185" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A186" t="s">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="C186" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A187" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="C187" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A188" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="C188" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A189" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="C189" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A190" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="C190" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A191" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="C191" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A192" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="C192" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A193" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="C193" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A194" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="C194" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A195" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="C195" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A196" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="C196" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A197" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="C197" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A198" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="C198" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A199" t="s">
-        <v>393</v>
+        <v>319</v>
       </c>
       <c r="C199" t="s">
-        <v>392</v>
+        <v>320</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A200" t="s">
-        <v>393</v>
+        <v>321</v>
       </c>
       <c r="C200" t="s">
-        <v>392</v>
+        <v>322</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A201" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="C201" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A202" t="s">
-        <v>409</v>
+        <v>323</v>
       </c>
       <c r="C202" t="s">
-        <v>410</v>
+        <v>324</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A203" t="s">
-        <v>411</v>
+        <v>328</v>
       </c>
       <c r="C203" t="s">
-        <v>412</v>
+        <v>325</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A204" t="s">
-        <v>406</v>
+        <v>326</v>
       </c>
       <c r="C204" t="s">
-        <v>407</v>
+        <v>327</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A205" t="s">
-        <v>401</v>
+        <v>330</v>
       </c>
       <c r="C205" t="s">
-        <v>402</v>
+        <v>331</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A206" t="s">
-        <v>404</v>
+        <v>332</v>
       </c>
       <c r="C206" t="s">
-        <v>403</v>
+        <v>333</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A207" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="C207" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A208" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="C208" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A209" t="s">
-        <v>414</v>
+        <v>416</v>
+      </c>
+      <c r="C209" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A210" t="s">
+        <v>418</v>
+      </c>
+      <c r="C210" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A211" t="s">
+        <v>422</v>
+      </c>
+      <c r="C211" t="s">
+        <v>421</v>
       </c>
     </row>
   </sheetData>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8807A8EC-E517-4959-9D45-7304848C61E0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C50F46CF-9F54-4081-A595-3C4C3580592F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="16755" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="425">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -1289,6 +1289,12 @@
   </si>
   <si>
     <t>C | What is the program structure? (end with "s")</t>
+  </si>
+  <si>
+    <t>C | What are the escape sequences in C?</t>
+  </si>
+  <si>
+    <t>alert, backspace, formfeed, newline, carriage return, horizontal tab, vertical tab, backslash, question mark, single quote, double quote, octal number, hexadecimal number</t>
   </si>
 </sst>
 </file>
@@ -1693,10 +1699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D211"/>
+  <dimension ref="A1:D212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B195" workbookViewId="0">
-      <selection activeCell="C202" sqref="C202"/>
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="A213" sqref="A213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.75"/>
@@ -3440,6 +3446,14 @@
         <v>421</v>
       </c>
     </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A212" t="s">
+        <v>423</v>
+      </c>
+      <c r="C212" t="s">
+        <v>424</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C50F46CF-9F54-4081-A595-3C4C3580592F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2A09CF16-AAB8-4C28-8D8E-9590694AC441}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="16755" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="429">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -1295,6 +1295,18 @@
   </si>
   <si>
     <t>alert, backspace, formfeed, newline, carriage return, horizontal tab, vertical tab, backslash, question mark, single quote, double quote, octal number, hexadecimal number</t>
+  </si>
+  <si>
+    <t>C | What is 'x' mean in C?</t>
+  </si>
+  <si>
+    <t>integer used to produce the numeric value of the letter x in the machine's character set</t>
+  </si>
+  <si>
+    <t>C | What is "x" mean in C?</t>
+  </si>
+  <si>
+    <t>array of characters that contains one character, letter x, and '\0'</t>
   </si>
 </sst>
 </file>
@@ -1699,7 +1711,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D212"/>
+  <dimension ref="A1:D214"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
       <selection activeCell="A213" sqref="A213"/>
@@ -3454,6 +3466,22 @@
         <v>424</v>
       </c>
     </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A213" t="s">
+        <v>425</v>
+      </c>
+      <c r="C213" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A214" t="s">
+        <v>427</v>
+      </c>
+      <c r="C214" t="s">
+        <v>428</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2A09CF16-AAB8-4C28-8D8E-9590694AC441}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{352E60B0-75C7-4C64-BA5F-A098525AF3EF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="16755" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -895,9 +895,6 @@
     <t>C | Explain the difference between the two loops: "while (…) { statement1; statement2; statement3 }"  and "while (…) statement1; statement2; statement3" (start with "if you leave…")</t>
   </si>
   <si>
-    <t>it represents an integer value equal to the numerical value of the character in the machine's character set, character constant</t>
-  </si>
-  <si>
     <t>if you leave out the curly braces the only statement1 will be executed inside the loop</t>
   </si>
   <si>
@@ -1307,6 +1304,9 @@
   </si>
   <si>
     <t>array of characters that contains one character, letter x, and '\0'</t>
+  </si>
+  <si>
+    <t>it represents numeric value of the character in the machine's character set, character constant</t>
   </si>
 </sst>
 </file>
@@ -1713,8 +1713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="A213" sqref="A213"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="A170" sqref="A170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.75"/>
@@ -2628,7 +2628,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A108" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C108" t="s">
         <v>213</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A109" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C109" t="s">
         <v>214</v>
@@ -2644,7 +2644,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A110" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C110" t="s">
         <v>215</v>
@@ -2652,7 +2652,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A111" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C111" t="s">
         <v>216</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A112" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C112" t="s">
         <v>217</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A113" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C113" t="s">
         <v>218</v>
@@ -2676,7 +2676,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A114" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C114" t="s">
         <v>219</v>
@@ -2684,7 +2684,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A115" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C115" t="s">
         <v>220</v>
@@ -2748,7 +2748,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A123" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C123" t="s">
         <v>235</v>
@@ -2756,7 +2756,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A124" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C124" t="s">
         <v>236</v>
@@ -2764,7 +2764,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A125" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C125" t="s">
         <v>237</v>
@@ -2775,71 +2775,71 @@
         <v>243</v>
       </c>
       <c r="C126" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A127" t="s">
+        <v>295</v>
+      </c>
+      <c r="C127" t="s">
         <v>296</v>
-      </c>
-      <c r="C127" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A128" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C128" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A129" t="s">
+        <v>299</v>
+      </c>
+      <c r="C129" t="s">
         <v>300</v>
-      </c>
-      <c r="C129" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A130" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C130" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A131" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C131" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A132" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C132" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A133" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C133" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A134" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C134" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.75">
@@ -2951,7 +2951,7 @@
         <v>268</v>
       </c>
       <c r="C148" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.75">
@@ -2967,36 +2967,36 @@
         <v>270</v>
       </c>
       <c r="C150" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A151" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C151" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A152" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C152" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A153" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C153" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A154" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C154" t="s">
         <v>263</v>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A161" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C161" t="s">
         <v>276</v>
@@ -3060,15 +3060,15 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A162" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C162" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A163" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C163" t="s">
         <v>277</v>
@@ -3076,7 +3076,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A164" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C164" t="s">
         <v>281</v>
@@ -3084,7 +3084,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A165" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C165" t="s">
         <v>282</v>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A166" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C166" t="s">
         <v>283</v>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A167" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C167" t="s">
         <v>281</v>
@@ -3111,375 +3111,375 @@
         <v>290</v>
       </c>
       <c r="C168" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A169" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C169" t="s">
-        <v>291</v>
+        <v>428</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A170" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C170" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A171" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C171" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A172" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C172" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A173" t="s">
+        <v>356</v>
+      </c>
+      <c r="C173" t="s">
         <v>357</v>
-      </c>
-      <c r="C173" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A174" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C174" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A175" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C175" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A176" t="s">
+        <v>361</v>
+      </c>
+      <c r="C176" t="s">
         <v>362</v>
-      </c>
-      <c r="C176" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A177" t="s">
+        <v>363</v>
+      </c>
+      <c r="C177" t="s">
         <v>364</v>
-      </c>
-      <c r="C177" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A178" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C178" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A179" t="s">
+        <v>365</v>
+      </c>
+      <c r="C179" t="s">
         <v>366</v>
-      </c>
-      <c r="C179" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A180" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C180" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A181" t="s">
+        <v>376</v>
+      </c>
+      <c r="C181" t="s">
         <v>377</v>
-      </c>
-      <c r="C181" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A182" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C182" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A183" t="s">
+        <v>373</v>
+      </c>
+      <c r="C183" t="s">
         <v>374</v>
-      </c>
-      <c r="C183" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A184" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C184" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A185" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C185" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A186" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C186" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A187" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C187" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A188" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C188" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A189" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C189" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A190" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C190" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A191" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C191" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A192" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C192" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A193" t="s">
+        <v>406</v>
+      </c>
+      <c r="C193" t="s">
         <v>407</v>
-      </c>
-      <c r="C193" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A194" t="s">
+        <v>408</v>
+      </c>
+      <c r="C194" t="s">
         <v>409</v>
-      </c>
-      <c r="C194" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A195" t="s">
+        <v>403</v>
+      </c>
+      <c r="C195" t="s">
         <v>404</v>
-      </c>
-      <c r="C195" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A196" t="s">
+        <v>398</v>
+      </c>
+      <c r="C196" t="s">
         <v>399</v>
-      </c>
-      <c r="C196" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A197" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C197" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A198" t="s">
+        <v>396</v>
+      </c>
+      <c r="C198" t="s">
         <v>397</v>
-      </c>
-      <c r="C198" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A199" t="s">
+        <v>318</v>
+      </c>
+      <c r="C199" t="s">
         <v>319</v>
-      </c>
-      <c r="C199" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A200" t="s">
+        <v>320</v>
+      </c>
+      <c r="C200" t="s">
         <v>321</v>
-      </c>
-      <c r="C200" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A201" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C201" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A202" t="s">
+        <v>322</v>
+      </c>
+      <c r="C202" t="s">
         <v>323</v>
-      </c>
-      <c r="C202" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A203" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C203" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A204" t="s">
+        <v>325</v>
+      </c>
+      <c r="C204" t="s">
         <v>326</v>
-      </c>
-      <c r="C204" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A205" t="s">
+        <v>329</v>
+      </c>
+      <c r="C205" t="s">
         <v>330</v>
-      </c>
-      <c r="C205" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A206" t="s">
+        <v>331</v>
+      </c>
+      <c r="C206" t="s">
         <v>332</v>
-      </c>
-      <c r="C206" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A207" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C207" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A208" t="s">
+        <v>412</v>
+      </c>
+      <c r="C208" t="s">
         <v>413</v>
-      </c>
-      <c r="C208" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A209" t="s">
+        <v>415</v>
+      </c>
+      <c r="C209" t="s">
         <v>416</v>
-      </c>
-      <c r="C209" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A210" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C210" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A211" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C211" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A212" t="s">
+        <v>422</v>
+      </c>
+      <c r="C212" t="s">
         <v>423</v>
-      </c>
-      <c r="C212" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A213" t="s">
+        <v>424</v>
+      </c>
+      <c r="C213" t="s">
         <v>425</v>
-      </c>
-      <c r="C213" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A214" t="s">
+        <v>426</v>
+      </c>
+      <c r="C214" t="s">
         <v>427</v>
-      </c>
-      <c r="C214" t="s">
-        <v>428</v>
       </c>
     </row>
   </sheetData>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{352E60B0-75C7-4C64-BA5F-A098525AF3EF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C8975AD5-92DB-41C5-B13B-8E04869C8DF7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="16755" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="12383" windowHeight="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -919,12 +919,6 @@
     <t>C | What are the categories of  punctuators/operators in C? (without examples but end each type with "s")</t>
   </si>
   <si>
-    <t>C | What are the punctuators in C? (without examples)</t>
-  </si>
-  <si>
-    <t>array subscript operator, parentheses operators, braces, equal sign, comma operator and punctuator, semicolon, colon, asterisk, quotes, ellipsis, typecast</t>
-  </si>
-  <si>
     <t>labeled-statement, compound-statement, expression-statement, selection-statement, iteration-statement, jump-statement</t>
   </si>
   <si>
@@ -1307,6 +1301,12 @@
   </si>
   <si>
     <t>it represents numeric value of the character in the machine's character set, character constant</t>
+  </si>
+  <si>
+    <t>C | What is operand in C? (start with "an operand is …")</t>
+  </si>
+  <si>
+    <t>an operand is an entity on which an operator acts</t>
   </si>
 </sst>
 </file>
@@ -1713,8 +1713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="A170" sqref="A170"/>
+    <sheetView tabSelected="1" topLeftCell="C114" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.75"/>
@@ -2628,7 +2628,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A108" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C108" t="s">
         <v>213</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A109" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C109" t="s">
         <v>214</v>
@@ -2644,7 +2644,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A110" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C110" t="s">
         <v>215</v>
@@ -2652,7 +2652,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A111" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C111" t="s">
         <v>216</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A112" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C112" t="s">
         <v>217</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A113" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C113" t="s">
         <v>218</v>
@@ -2676,7 +2676,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A114" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C114" t="s">
         <v>219</v>
@@ -2684,7 +2684,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A115" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C115" t="s">
         <v>220</v>
@@ -2748,7 +2748,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A123" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C123" t="s">
         <v>235</v>
@@ -2756,7 +2756,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A124" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C124" t="s">
         <v>236</v>
@@ -2764,7 +2764,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A125" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C125" t="s">
         <v>237</v>
@@ -2796,50 +2796,50 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A129" t="s">
-        <v>299</v>
+        <v>427</v>
       </c>
       <c r="C129" t="s">
-        <v>300</v>
+        <v>428</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A130" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C130" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A131" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C131" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A132" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C132" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A133" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C133" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A134" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C134" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.75">
@@ -2967,36 +2967,36 @@
         <v>270</v>
       </c>
       <c r="C150" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A151" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C151" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A152" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C152" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A153" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C153" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A154" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C154" t="s">
         <v>263</v>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A161" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C161" t="s">
         <v>276</v>
@@ -3060,15 +3060,15 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A162" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C162" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A163" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C163" t="s">
         <v>277</v>
@@ -3076,7 +3076,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A164" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C164" t="s">
         <v>281</v>
@@ -3084,7 +3084,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A165" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C165" t="s">
         <v>282</v>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A166" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C166" t="s">
         <v>283</v>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A167" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C167" t="s">
         <v>281</v>
@@ -3119,367 +3119,367 @@
         <v>293</v>
       </c>
       <c r="C169" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A170" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C170" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A171" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C171" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A172" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C172" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A173" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C173" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A174" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C174" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A175" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C175" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A176" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C176" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A177" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C177" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A178" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C178" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A179" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C179" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A180" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C180" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A181" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C181" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A182" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C182" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A183" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C183" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A184" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C184" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A185" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C185" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A186" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C186" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A187" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C187" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A188" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C188" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A189" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C189" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A190" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C190" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A191" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C191" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A192" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C192" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A193" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C193" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A194" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C194" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A195" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C195" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A196" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C196" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A197" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C197" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A198" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C198" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A199" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C199" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A200" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C200" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A201" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C201" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A202" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C202" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A203" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C203" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A204" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C204" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A205" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C205" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A206" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C206" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A207" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C207" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A208" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C208" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A209" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C209" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A210" t="s">
+        <v>415</v>
+      </c>
+      <c r="C210" t="s">
         <v>417</v>
-      </c>
-      <c r="C210" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A211" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C211" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A212" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C212" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A213" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C213" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A214" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C214" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C8975AD5-92DB-41C5-B13B-8E04869C8DF7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BAE2015B-AE22-41F3-965D-A1F7D046CDB1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="458" windowWidth="12383" windowHeight="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="908" windowWidth="12383" windowHeight="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1713,8 +1713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C114" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+    <sheetView tabSelected="1" topLeftCell="C175" workbookViewId="0">
+      <selection activeCell="C187" sqref="C187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.75"/>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BAE2015B-AE22-41F3-965D-A1F7D046CDB1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1070DF38-05C1-42AA-878E-94E180A46272}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="908" windowWidth="12383" windowHeight="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1358" windowWidth="12383" windowHeight="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="430">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -1307,6 +1307,9 @@
   </si>
   <si>
     <t>an operand is an entity on which an operator acts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C | What is the </t>
   </si>
 </sst>
 </file>
@@ -1711,10 +1714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D214"/>
+  <dimension ref="A1:D215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C175" workbookViewId="0">
-      <selection activeCell="C187" sqref="C187"/>
+    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="A201" sqref="A201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.75"/>
@@ -3482,6 +3485,11 @@
         <v>425</v>
       </c>
     </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A215" t="s">
+        <v>429</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1070DF38-05C1-42AA-878E-94E180A46272}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CFC5F1EF-8F1A-47E0-ABB4-9D0F8D185917}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1358" windowWidth="12383" windowHeight="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1808" windowWidth="12383" windowHeight="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="431">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -1309,7 +1309,10 @@
     <t>an operand is an entity on which an operator acts</t>
   </si>
   <si>
-    <t xml:space="preserve">C | What is the </t>
+    <t>C | What does this declaration mean: static char *allocp = allocbuf; ? (start with "it defines…") (round each runnable text or variable with `)</t>
+  </si>
+  <si>
+    <t>it defines `allocp` to be a charater pointer and initializes it to point to the beginning of `allocbuf`</t>
   </si>
 </sst>
 </file>
@@ -1716,8 +1719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="A201" sqref="A201"/>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="A215" sqref="A215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.75"/>
@@ -3489,6 +3492,9 @@
       <c r="A215" t="s">
         <v>429</v>
       </c>
+      <c r="C215" t="s">
+        <v>430</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CFC5F1EF-8F1A-47E0-ABB4-9D0F8D185917}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{20CDE7C2-70F5-4BB4-8329-D5B90203663F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1808" windowWidth="12383" windowHeight="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2258" windowWidth="12383" windowHeight="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="433">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -1313,6 +1313,12 @@
   </si>
   <si>
     <t>it defines `allocp` to be a charater pointer and initializes it to point to the beginning of `allocbuf`</t>
+  </si>
+  <si>
+    <t>C | What is the alternative notation to the following declaration: `static char*allocp=allocbuf;` ?</t>
+  </si>
+  <si>
+    <t>static char *allocp=&amp;allocbuf[0];</t>
   </si>
 </sst>
 </file>
@@ -1717,10 +1723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D215"/>
+  <dimension ref="A1:D216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="A215" sqref="A215"/>
+    <sheetView tabSelected="1" topLeftCell="C189" workbookViewId="0">
+      <selection activeCell="C215" sqref="C215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.75"/>
@@ -3496,6 +3502,14 @@
         <v>430</v>
       </c>
     </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A216" t="s">
+        <v>431</v>
+      </c>
+      <c r="C216" t="s">
+        <v>432</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{20CDE7C2-70F5-4BB4-8329-D5B90203663F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A1E3E116-9AF8-4135-A0ED-5412EE138545}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2258" windowWidth="12383" windowHeight="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2708" windowWidth="12383" windowHeight="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="437">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -1319,6 +1319,18 @@
   </si>
   <si>
     <t>static char *allocp=&amp;allocbuf[0];</t>
+  </si>
+  <si>
+    <t>C | What is the * operator in C, and what does it mean, when applied to a pointer, like: `p=&amp;a` `char *p`? (Start with `The unary operator…`)</t>
+  </si>
+  <si>
+    <t>the unary operator * is the indirection or dereferencing operator, when applied to a pointer, it accesses the object the pointer points to</t>
+  </si>
+  <si>
+    <t>C | What does operator &amp; do, when applied to an object, like: p=&amp;a? (start with "the unary operator &amp;…")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the unary operator &amp; gives the virtual address of an object </t>
   </si>
 </sst>
 </file>
@@ -1723,10 +1735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D216"/>
+  <dimension ref="A1:D218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C189" workbookViewId="0">
-      <selection activeCell="C215" sqref="C215"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="A219" sqref="A219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.75"/>
@@ -3510,6 +3522,22 @@
         <v>432</v>
       </c>
     </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A217" t="s">
+        <v>433</v>
+      </c>
+      <c r="C217" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A218" t="s">
+        <v>435</v>
+      </c>
+      <c r="C218" t="s">
+        <v>436</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A1E3E116-9AF8-4135-A0ED-5412EE138545}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{68F6E00C-D1B9-498B-AC7A-9A0CD8105CD5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2708" windowWidth="12383" windowHeight="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3158" windowWidth="12383" windowHeight="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="441">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -1331,6 +1331,18 @@
   </si>
   <si>
     <t xml:space="preserve">the unary operator &amp; gives the virtual address of an object </t>
+  </si>
+  <si>
+    <t>C | What does the following declaration do: int x[] = {1,3,5}; ?</t>
+  </si>
+  <si>
+    <t>defines and initializes x as one-dimensional array object that has three elements, as no size was specified and there are three initializers</t>
+  </si>
+  <si>
+    <t>C | What does the following declaration do: int y[4][3]={ {1,3,5}, {2,4,6}, {3,5,7} };? (start with " is a definition with…")</t>
+  </si>
+  <si>
+    <t>is a definition with a fully bracketed initialization: 1,3,5 initialize the first row of y</t>
   </si>
 </sst>
 </file>
@@ -1735,10 +1747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D218"/>
+  <dimension ref="A1:D220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="A219" sqref="A219"/>
+    <sheetView tabSelected="1" topLeftCell="C216" workbookViewId="0">
+      <selection activeCell="C220" sqref="C220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.75"/>
@@ -3538,6 +3550,22 @@
         <v>436</v>
       </c>
     </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A219" t="s">
+        <v>437</v>
+      </c>
+      <c r="C219" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A220" t="s">
+        <v>439</v>
+      </c>
+      <c r="C220" t="s">
+        <v>440</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{68F6E00C-D1B9-498B-AC7A-9A0CD8105CD5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6BDBFD0C-9D47-4231-89AA-1A711C05471A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3158" windowWidth="12383" windowHeight="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4058" windowWidth="12383" windowHeight="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="457">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -1339,10 +1339,58 @@
     <t>defines and initializes x as one-dimensional array object that has three elements, as no size was specified and there are three initializers</t>
   </si>
   <si>
-    <t>C | What does the following declaration do: int y[4][3]={ {1,3,5}, {2,4,6}, {3,5,7} };? (start with " is a definition with…")</t>
-  </si>
-  <si>
-    <t>is a definition with a fully bracketed initialization: 1,3,5 initialize the first row of y</t>
+    <t>bash | What are the Shell Operations - 1?</t>
+  </si>
+  <si>
+    <t>bash | What are the Shell Operations - 2?</t>
+  </si>
+  <si>
+    <t>bash | What are the Shell Operations - 3?</t>
+  </si>
+  <si>
+    <t>bash | What are the Shell Operations - 4?</t>
+  </si>
+  <si>
+    <t>bash | What are the Shell Operations - 5?</t>
+  </si>
+  <si>
+    <t>bash | What are the Shell Operations - 6?</t>
+  </si>
+  <si>
+    <t>bash | What are the Shell Operations - 7?</t>
+  </si>
+  <si>
+    <t>breaks the input into words and operators according to the quoting rules</t>
+  </si>
+  <si>
+    <t>parses the tokens into simple and compound commands</t>
+  </si>
+  <si>
+    <t>performs various shell expansions</t>
+  </si>
+  <si>
+    <t>performs any necessary redirections, removes the redirection operators and their operands from the argument list</t>
+  </si>
+  <si>
+    <t>executes the command</t>
+  </si>
+  <si>
+    <t>optionally waits for the command to complete and collects its exit status</t>
+  </si>
+  <si>
+    <t>reads the input from a file, string supplied as an argument to the -c invocation option, from the user's terminal</t>
+  </si>
+  <si>
+    <t>a namespace is a self-contained package of variables, which are known as the attributes of the namespace object</t>
+  </si>
+  <si>
+    <t>Python | What is a namespace? (start with "A namespace is a…")</t>
+  </si>
+  <si>
+    <t>Python | What does a module's namespace contain? (start with "it contains…")</t>
+  </si>
+  <si>
+    <t>it contains all the names assigned by code at the top level of the module file</t>
   </si>
 </sst>
 </file>
@@ -1747,10 +1795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D220"/>
+  <dimension ref="A1:D228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C216" workbookViewId="0">
-      <selection activeCell="C220" sqref="C220"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="A224" sqref="A224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.75"/>
@@ -3563,7 +3611,71 @@
         <v>439</v>
       </c>
       <c r="C220" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A221" t="s">
         <v>440</v>
+      </c>
+      <c r="C221" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A222" t="s">
+        <v>441</v>
+      </c>
+      <c r="C222" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A223" t="s">
+        <v>442</v>
+      </c>
+      <c r="C223" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A224" t="s">
+        <v>443</v>
+      </c>
+      <c r="C224" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A225" t="s">
+        <v>444</v>
+      </c>
+      <c r="C225" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A226" t="s">
+        <v>445</v>
+      </c>
+      <c r="C226" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A227" t="s">
+        <v>454</v>
+      </c>
+      <c r="C227" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A228" t="s">
+        <v>455</v>
+      </c>
+      <c r="C228" t="s">
+        <v>456</v>
       </c>
     </row>
   </sheetData>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6BDBFD0C-9D47-4231-89AA-1A711C05471A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FE335B14-A4BC-4F53-B7D2-966C7AC1DAAF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4058" windowWidth="12383" windowHeight="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4512" windowWidth="12384" windowHeight="828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="461">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -1391,6 +1391,18 @@
   </si>
   <si>
     <t>it contains all the names assigned by code at the top level of the module file</t>
+  </si>
+  <si>
+    <t>involves providing a series of instructions for the computer to follow in the defined order</t>
+  </si>
+  <si>
+    <t>aims to combine data and the processes, that act on that data into objects which is called encapsulation</t>
+  </si>
+  <si>
+    <t>Python | What is Imperative Stype of Programming? (start with "involves …")</t>
+  </si>
+  <si>
+    <t>Python | What is Object Oriented Stype of Programming? (start with "aims to…")</t>
   </si>
 </sst>
 </file>
@@ -1795,21 +1807,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D228"/>
+  <dimension ref="A1:D230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="A224" sqref="A224"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="B231" sqref="B231"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="91" customWidth="1"/>
-    <col min="2" max="2" width="17.46484375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="108.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="108.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>240</v>
       </c>
@@ -1819,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1833,7 +1845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1847,7 +1859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1859,7 +1871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1873,7 +1885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1887,7 +1899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1901,7 +1913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1912,7 +1924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1923,7 +1935,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1934,7 +1946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1942,7 +1954,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1950,7 +1962,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -1958,7 +1970,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -1966,7 +1978,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -1974,7 +1986,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -1982,7 +1994,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -1990,7 +2002,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -1998,7 +2010,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -2006,7 +2018,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -2014,7 +2026,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -2022,7 +2034,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -2030,7 +2042,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -2038,7 +2050,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -2046,7 +2058,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -2054,7 +2066,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -2062,7 +2074,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -2070,7 +2082,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -2078,7 +2090,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -2086,7 +2098,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -2094,7 +2106,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -2102,7 +2114,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -2110,7 +2122,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -2118,7 +2130,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -2126,7 +2138,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -2134,7 +2146,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -2142,7 +2154,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -2150,7 +2162,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -2158,7 +2170,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -2166,7 +2178,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -2174,7 +2186,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -2182,7 +2194,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -2190,7 +2202,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -2198,7 +2210,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -2206,7 +2218,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -2214,7 +2226,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -2222,7 +2234,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -2230,7 +2242,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -2238,7 +2250,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -2246,7 +2258,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -2254,7 +2266,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -2262,7 +2274,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -2270,7 +2282,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -2278,7 +2290,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -2286,7 +2298,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -2294,7 +2306,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -2302,7 +2314,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -2310,7 +2322,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -2318,7 +2330,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -2326,7 +2338,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -2334,7 +2346,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -2342,7 +2354,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -2350,7 +2362,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -2358,7 +2370,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>127</v>
       </c>
@@ -2366,7 +2378,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -2374,7 +2386,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -2382,7 +2394,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -2390,7 +2402,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>135</v>
       </c>
@@ -2398,7 +2410,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>137</v>
       </c>
@@ -2406,7 +2418,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -2414,7 +2426,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -2422,7 +2434,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>143</v>
       </c>
@@ -2430,7 +2442,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>145</v>
       </c>
@@ -2438,7 +2450,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -2446,7 +2458,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -2454,7 +2466,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>151</v>
       </c>
@@ -2462,7 +2474,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -2470,7 +2482,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -2478,7 +2490,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -2486,7 +2498,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>159</v>
       </c>
@@ -2494,7 +2506,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -2502,7 +2514,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -2510,7 +2522,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>164</v>
       </c>
@@ -2518,7 +2530,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>165</v>
       </c>
@@ -2526,7 +2538,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>167</v>
       </c>
@@ -2534,7 +2546,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>169</v>
       </c>
@@ -2542,7 +2554,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>171</v>
       </c>
@@ -2550,7 +2562,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>173</v>
       </c>
@@ -2558,7 +2570,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>175</v>
       </c>
@@ -2566,7 +2578,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>177</v>
       </c>
@@ -2574,7 +2586,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>179</v>
       </c>
@@ -2582,7 +2594,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>181</v>
       </c>
@@ -2590,7 +2602,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>183</v>
       </c>
@@ -2598,7 +2610,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>185</v>
       </c>
@@ -2606,7 +2618,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>187</v>
       </c>
@@ -2614,7 +2626,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>189</v>
       </c>
@@ -2622,7 +2634,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>191</v>
       </c>
@@ -2630,7 +2642,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>193</v>
       </c>
@@ -2638,7 +2650,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>195</v>
       </c>
@@ -2646,7 +2658,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>197</v>
       </c>
@@ -2654,7 +2666,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>199</v>
       </c>
@@ -2662,7 +2674,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>201</v>
       </c>
@@ -2670,7 +2682,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>203</v>
       </c>
@@ -2678,7 +2690,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>205</v>
       </c>
@@ -2686,7 +2698,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>207</v>
       </c>
@@ -2694,7 +2706,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>209</v>
       </c>
@@ -2702,7 +2714,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>211</v>
       </c>
@@ -2710,7 +2722,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>336</v>
       </c>
@@ -2718,7 +2730,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>333</v>
       </c>
@@ -2726,7 +2738,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>334</v>
       </c>
@@ -2734,7 +2746,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>335</v>
       </c>
@@ -2742,7 +2754,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>337</v>
       </c>
@@ -2750,7 +2762,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>338</v>
       </c>
@@ -2758,7 +2770,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>339</v>
       </c>
@@ -2766,7 +2778,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>340</v>
       </c>
@@ -2774,7 +2786,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>221</v>
       </c>
@@ -2782,7 +2794,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>223</v>
       </c>
@@ -2790,7 +2802,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>225</v>
       </c>
@@ -2798,7 +2810,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>227</v>
       </c>
@@ -2806,7 +2818,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>229</v>
       </c>
@@ -2814,7 +2826,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>231</v>
       </c>
@@ -2822,7 +2834,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>233</v>
       </c>
@@ -2830,7 +2842,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>341</v>
       </c>
@@ -2838,7 +2850,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>342</v>
       </c>
@@ -2846,7 +2858,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>343</v>
       </c>
@@ -2854,7 +2866,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>243</v>
       </c>
@@ -2862,7 +2874,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>295</v>
       </c>
@@ -2870,7 +2882,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>298</v>
       </c>
@@ -2878,7 +2890,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>427</v>
       </c>
@@ -2886,7 +2898,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>300</v>
       </c>
@@ -2894,7 +2906,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>344</v>
       </c>
@@ -2902,7 +2914,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>345</v>
       </c>
@@ -2910,7 +2922,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>346</v>
       </c>
@@ -2918,7 +2930,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>347</v>
       </c>
@@ -2926,7 +2938,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>278</v>
       </c>
@@ -2934,7 +2946,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>279</v>
       </c>
@@ -2942,7 +2954,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>280</v>
       </c>
@@ -2950,7 +2962,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>244</v>
       </c>
@@ -2958,7 +2970,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>245</v>
       </c>
@@ -2966,7 +2978,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>246</v>
       </c>
@@ -2974,7 +2986,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>247</v>
       </c>
@@ -2982,7 +2994,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>249</v>
       </c>
@@ -2990,7 +3002,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>250</v>
       </c>
@@ -2998,7 +3010,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>252</v>
       </c>
@@ -3006,7 +3018,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>265</v>
       </c>
@@ -3014,7 +3026,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>266</v>
       </c>
@@ -3022,7 +3034,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>267</v>
       </c>
@@ -3030,7 +3042,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>268</v>
       </c>
@@ -3038,7 +3050,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>269</v>
       </c>
@@ -3046,7 +3058,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>270</v>
       </c>
@@ -3054,7 +3066,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>305</v>
       </c>
@@ -3062,7 +3074,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>304</v>
       </c>
@@ -3070,7 +3082,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>306</v>
       </c>
@@ -3078,7 +3090,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>307</v>
       </c>
@@ -3086,7 +3098,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>271</v>
       </c>
@@ -3094,7 +3106,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>288</v>
       </c>
@@ -3102,7 +3114,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>287</v>
       </c>
@@ -3110,7 +3122,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>286</v>
       </c>
@@ -3118,7 +3130,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>285</v>
       </c>
@@ -3126,7 +3138,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>289</v>
       </c>
@@ -3134,7 +3146,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>312</v>
       </c>
@@ -3142,7 +3154,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>311</v>
       </c>
@@ -3150,7 +3162,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>309</v>
       </c>
@@ -3158,7 +3170,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>308</v>
       </c>
@@ -3166,7 +3178,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>315</v>
       </c>
@@ -3174,7 +3186,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>314</v>
       </c>
@@ -3182,7 +3194,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>313</v>
       </c>
@@ -3190,7 +3202,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
         <v>290</v>
       </c>
@@ -3198,7 +3210,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
         <v>293</v>
       </c>
@@ -3206,7 +3218,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>326</v>
       </c>
@@ -3214,7 +3226,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>332</v>
       </c>
@@ -3222,7 +3234,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>353</v>
       </c>
@@ -3230,7 +3242,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
         <v>354</v>
       </c>
@@ -3238,7 +3250,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
         <v>357</v>
       </c>
@@ -3246,7 +3258,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>358</v>
       </c>
@@ -3254,7 +3266,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
         <v>359</v>
       </c>
@@ -3262,7 +3274,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>361</v>
       </c>
@@ -3270,7 +3282,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>366</v>
       </c>
@@ -3278,7 +3290,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
         <v>363</v>
       </c>
@@ -3286,7 +3298,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
         <v>368</v>
       </c>
@@ -3294,7 +3306,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>374</v>
       </c>
@@ -3302,7 +3314,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
         <v>373</v>
       </c>
@@ -3310,7 +3322,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
         <v>371</v>
       </c>
@@ -3318,7 +3330,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
         <v>377</v>
       </c>
@@ -3326,7 +3338,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>376</v>
       </c>
@@ -3334,7 +3346,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>390</v>
       </c>
@@ -3342,7 +3354,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
         <v>384</v>
       </c>
@@ -3350,7 +3362,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
         <v>379</v>
       </c>
@@ -3358,7 +3370,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>383</v>
       </c>
@@ -3366,7 +3378,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>386</v>
       </c>
@@ -3374,7 +3386,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>388</v>
       </c>
@@ -3382,7 +3394,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
         <v>400</v>
       </c>
@@ -3390,7 +3402,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
         <v>404</v>
       </c>
@@ -3398,7 +3410,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
         <v>406</v>
       </c>
@@ -3406,7 +3418,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
         <v>401</v>
       </c>
@@ -3414,7 +3426,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>396</v>
       </c>
@@ -3422,7 +3434,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>399</v>
       </c>
@@ -3430,7 +3442,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
         <v>394</v>
       </c>
@@ -3438,7 +3450,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
         <v>316</v>
       </c>
@@ -3446,7 +3458,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
         <v>318</v>
       </c>
@@ -3454,7 +3466,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
         <v>412</v>
       </c>
@@ -3462,7 +3474,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
         <v>320</v>
       </c>
@@ -3470,7 +3482,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
         <v>325</v>
       </c>
@@ -3478,7 +3490,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
         <v>323</v>
       </c>
@@ -3486,7 +3498,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
         <v>327</v>
       </c>
@@ -3494,7 +3506,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
         <v>329</v>
       </c>
@@ -3502,7 +3514,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
         <v>408</v>
       </c>
@@ -3510,7 +3522,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
         <v>410</v>
       </c>
@@ -3518,7 +3530,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
         <v>413</v>
       </c>
@@ -3526,7 +3538,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
         <v>415</v>
       </c>
@@ -3534,7 +3546,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
         <v>419</v>
       </c>
@@ -3542,7 +3554,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
         <v>420</v>
       </c>
@@ -3550,7 +3562,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
         <v>422</v>
       </c>
@@ -3558,7 +3570,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
         <v>424</v>
       </c>
@@ -3566,7 +3578,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
         <v>429</v>
       </c>
@@ -3574,7 +3586,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
         <v>431</v>
       </c>
@@ -3582,7 +3594,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
         <v>433</v>
       </c>
@@ -3590,7 +3602,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
         <v>435</v>
       </c>
@@ -3598,7 +3610,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
         <v>437</v>
       </c>
@@ -3606,7 +3618,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
         <v>439</v>
       </c>
@@ -3614,7 +3626,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
         <v>440</v>
       </c>
@@ -3622,7 +3634,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
         <v>441</v>
       </c>
@@ -3630,7 +3642,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
         <v>442</v>
       </c>
@@ -3638,7 +3650,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
         <v>443</v>
       </c>
@@ -3646,7 +3658,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
         <v>444</v>
       </c>
@@ -3654,7 +3666,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
         <v>445</v>
       </c>
@@ -3662,7 +3674,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
         <v>454</v>
       </c>
@@ -3670,12 +3682,28 @@
         <v>453</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
         <v>455</v>
       </c>
       <c r="C228" t="s">
         <v>456</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A229" t="s">
+        <v>459</v>
+      </c>
+      <c r="C229" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A230" t="s">
+        <v>460</v>
+      </c>
+      <c r="C230" t="s">
+        <v>458</v>
       </c>
     </row>
   </sheetData>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FE335B14-A4BC-4F53-B7D2-966C7AC1DAAF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AC41F8C8-D841-4956-8F81-B61C83BF0E05}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4512" windowWidth="12384" windowHeight="828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4967" windowWidth="12387" windowHeight="827" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="469">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -1403,6 +1403,30 @@
   </si>
   <si>
     <t>Python | What is Object Oriented Stype of Programming? (start with "aims to…")</t>
+  </si>
+  <si>
+    <t>Python | What is CLASS in Python? (start with "template…")</t>
+  </si>
+  <si>
+    <t>template for creating objects</t>
+  </si>
+  <si>
+    <t>Python | What is OBJECT in Python? (start with "an ...")</t>
+  </si>
+  <si>
+    <t>an instance of the class</t>
+  </si>
+  <si>
+    <t>Python | What is Method in Python? (start with "a ...")</t>
+  </si>
+  <si>
+    <t>a function defined in the class</t>
+  </si>
+  <si>
+    <t>Python | What is Instance Variable or Attribute in Python? (start with "a ...")</t>
+  </si>
+  <si>
+    <t>a variable bound to an instance of the class</t>
   </si>
 </sst>
 </file>
@@ -1807,21 +1831,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D230"/>
+  <dimension ref="A1:D234"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="B231" sqref="B231"/>
+      <selection activeCell="A235" sqref="A235"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
   <cols>
     <col min="1" max="1" width="91" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="108.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.41015625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="108.41015625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.52734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.6">
       <c r="A1" s="7" t="s">
         <v>240</v>
       </c>
@@ -1831,7 +1855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1845,7 +1869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1859,7 +1883,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1871,7 +1895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1885,7 +1909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1899,7 +1923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1913,7 +1937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1924,7 +1948,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1935,7 +1959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1946,7 +1970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1954,7 +1978,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1962,7 +1986,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -1970,7 +1994,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -1978,7 +2002,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -1986,7 +2010,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -1994,7 +2018,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -2002,7 +2026,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -2010,7 +2034,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -2018,7 +2042,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -2026,7 +2050,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -2034,7 +2058,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -2042,7 +2066,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -2050,7 +2074,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -2058,7 +2082,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -2066,7 +2090,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -2074,7 +2098,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -2082,7 +2106,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -2090,7 +2114,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -2098,7 +2122,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -2106,7 +2130,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -2114,7 +2138,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -2122,7 +2146,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -2130,7 +2154,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -2138,7 +2162,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -2146,7 +2170,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -2154,7 +2178,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -2162,7 +2186,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -2170,7 +2194,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -2178,7 +2202,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -2186,7 +2210,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -2194,7 +2218,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -2202,7 +2226,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -2210,7 +2234,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -2218,7 +2242,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -2226,7 +2250,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -2234,7 +2258,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -2242,7 +2266,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -2250,7 +2274,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -2258,7 +2282,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -2266,7 +2290,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -2274,7 +2298,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -2282,7 +2306,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -2290,7 +2314,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -2298,7 +2322,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -2306,7 +2330,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -2314,7 +2338,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -2322,7 +2346,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -2330,7 +2354,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -2338,7 +2362,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -2346,7 +2370,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -2354,7 +2378,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -2362,7 +2386,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -2370,7 +2394,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A64" t="s">
         <v>127</v>
       </c>
@@ -2378,7 +2402,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -2386,7 +2410,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -2394,7 +2418,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -2402,7 +2426,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A68" t="s">
         <v>135</v>
       </c>
@@ -2410,7 +2434,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A69" t="s">
         <v>137</v>
       </c>
@@ -2418,7 +2442,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -2426,7 +2450,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -2434,7 +2458,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A72" t="s">
         <v>143</v>
       </c>
@@ -2442,7 +2466,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A73" t="s">
         <v>145</v>
       </c>
@@ -2450,7 +2474,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -2458,7 +2482,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -2466,7 +2490,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A76" t="s">
         <v>151</v>
       </c>
@@ -2474,7 +2498,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -2482,7 +2506,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -2490,7 +2514,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -2498,7 +2522,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A80" t="s">
         <v>159</v>
       </c>
@@ -2506,7 +2530,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -2514,7 +2538,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -2522,7 +2546,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A83" t="s">
         <v>164</v>
       </c>
@@ -2530,7 +2554,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A84" t="s">
         <v>165</v>
       </c>
@@ -2538,7 +2562,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A85" t="s">
         <v>167</v>
       </c>
@@ -2546,7 +2570,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A86" t="s">
         <v>169</v>
       </c>
@@ -2554,7 +2578,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A87" t="s">
         <v>171</v>
       </c>
@@ -2562,7 +2586,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A88" t="s">
         <v>173</v>
       </c>
@@ -2570,7 +2594,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A89" t="s">
         <v>175</v>
       </c>
@@ -2578,7 +2602,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A90" t="s">
         <v>177</v>
       </c>
@@ -2586,7 +2610,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A91" t="s">
         <v>179</v>
       </c>
@@ -2594,7 +2618,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A92" t="s">
         <v>181</v>
       </c>
@@ -2602,7 +2626,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A93" t="s">
         <v>183</v>
       </c>
@@ -2610,7 +2634,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A94" t="s">
         <v>185</v>
       </c>
@@ -2618,7 +2642,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A95" t="s">
         <v>187</v>
       </c>
@@ -2626,7 +2650,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A96" t="s">
         <v>189</v>
       </c>
@@ -2634,7 +2658,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A97" t="s">
         <v>191</v>
       </c>
@@ -2642,7 +2666,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A98" t="s">
         <v>193</v>
       </c>
@@ -2650,7 +2674,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A99" t="s">
         <v>195</v>
       </c>
@@ -2658,7 +2682,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A100" t="s">
         <v>197</v>
       </c>
@@ -2666,7 +2690,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A101" t="s">
         <v>199</v>
       </c>
@@ -2674,7 +2698,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A102" t="s">
         <v>201</v>
       </c>
@@ -2682,7 +2706,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A103" t="s">
         <v>203</v>
       </c>
@@ -2690,7 +2714,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A104" t="s">
         <v>205</v>
       </c>
@@ -2698,7 +2722,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A105" t="s">
         <v>207</v>
       </c>
@@ -2706,7 +2730,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A106" t="s">
         <v>209</v>
       </c>
@@ -2714,7 +2738,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A107" t="s">
         <v>211</v>
       </c>
@@ -2722,7 +2746,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A108" t="s">
         <v>336</v>
       </c>
@@ -2730,7 +2754,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A109" t="s">
         <v>333</v>
       </c>
@@ -2738,7 +2762,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A110" t="s">
         <v>334</v>
       </c>
@@ -2746,7 +2770,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A111" t="s">
         <v>335</v>
       </c>
@@ -2754,7 +2778,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A112" t="s">
         <v>337</v>
       </c>
@@ -2762,7 +2786,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A113" t="s">
         <v>338</v>
       </c>
@@ -2770,7 +2794,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A114" t="s">
         <v>339</v>
       </c>
@@ -2778,7 +2802,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A115" t="s">
         <v>340</v>
       </c>
@@ -2786,7 +2810,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A116" t="s">
         <v>221</v>
       </c>
@@ -2794,7 +2818,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A117" t="s">
         <v>223</v>
       </c>
@@ -2802,7 +2826,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A118" t="s">
         <v>225</v>
       </c>
@@ -2810,7 +2834,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A119" t="s">
         <v>227</v>
       </c>
@@ -2818,7 +2842,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A120" t="s">
         <v>229</v>
       </c>
@@ -2826,7 +2850,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A121" t="s">
         <v>231</v>
       </c>
@@ -2834,7 +2858,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A122" t="s">
         <v>233</v>
       </c>
@@ -2842,7 +2866,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A123" t="s">
         <v>341</v>
       </c>
@@ -2850,7 +2874,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A124" t="s">
         <v>342</v>
       </c>
@@ -2858,7 +2882,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A125" t="s">
         <v>343</v>
       </c>
@@ -2866,7 +2890,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A126" t="s">
         <v>243</v>
       </c>
@@ -2874,7 +2898,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A127" t="s">
         <v>295</v>
       </c>
@@ -2882,7 +2906,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A128" t="s">
         <v>298</v>
       </c>
@@ -2890,7 +2914,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A129" t="s">
         <v>427</v>
       </c>
@@ -2898,7 +2922,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A130" t="s">
         <v>300</v>
       </c>
@@ -2906,7 +2930,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A131" t="s">
         <v>344</v>
       </c>
@@ -2914,7 +2938,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A132" t="s">
         <v>345</v>
       </c>
@@ -2922,7 +2946,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A133" t="s">
         <v>346</v>
       </c>
@@ -2930,7 +2954,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A134" t="s">
         <v>347</v>
       </c>
@@ -2938,7 +2962,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A135" t="s">
         <v>278</v>
       </c>
@@ -2946,7 +2970,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A136" t="s">
         <v>279</v>
       </c>
@@ -2954,7 +2978,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A137" t="s">
         <v>280</v>
       </c>
@@ -2962,7 +2986,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A138" t="s">
         <v>244</v>
       </c>
@@ -2970,7 +2994,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A139" t="s">
         <v>245</v>
       </c>
@@ -2978,7 +3002,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A140" t="s">
         <v>246</v>
       </c>
@@ -2986,7 +3010,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A141" t="s">
         <v>247</v>
       </c>
@@ -2994,7 +3018,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A142" t="s">
         <v>249</v>
       </c>
@@ -3002,7 +3026,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A143" t="s">
         <v>250</v>
       </c>
@@ -3010,7 +3034,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A144" t="s">
         <v>252</v>
       </c>
@@ -3018,7 +3042,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A145" t="s">
         <v>265</v>
       </c>
@@ -3026,7 +3050,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A146" t="s">
         <v>266</v>
       </c>
@@ -3034,7 +3058,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A147" t="s">
         <v>267</v>
       </c>
@@ -3042,7 +3066,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A148" t="s">
         <v>268</v>
       </c>
@@ -3050,7 +3074,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A149" t="s">
         <v>269</v>
       </c>
@@ -3058,7 +3082,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A150" t="s">
         <v>270</v>
       </c>
@@ -3066,7 +3090,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A151" t="s">
         <v>305</v>
       </c>
@@ -3074,7 +3098,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A152" t="s">
         <v>304</v>
       </c>
@@ -3082,7 +3106,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A153" t="s">
         <v>306</v>
       </c>
@@ -3090,7 +3114,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A154" t="s">
         <v>307</v>
       </c>
@@ -3098,7 +3122,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A155" t="s">
         <v>271</v>
       </c>
@@ -3106,7 +3130,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A156" t="s">
         <v>288</v>
       </c>
@@ -3114,7 +3138,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A157" t="s">
         <v>287</v>
       </c>
@@ -3122,7 +3146,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A158" t="s">
         <v>286</v>
       </c>
@@ -3130,7 +3154,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A159" t="s">
         <v>285</v>
       </c>
@@ -3138,7 +3162,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A160" t="s">
         <v>289</v>
       </c>
@@ -3146,7 +3170,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A161" t="s">
         <v>312</v>
       </c>
@@ -3154,7 +3178,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A162" t="s">
         <v>311</v>
       </c>
@@ -3162,7 +3186,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A163" t="s">
         <v>309</v>
       </c>
@@ -3170,7 +3194,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A164" t="s">
         <v>308</v>
       </c>
@@ -3178,7 +3202,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A165" t="s">
         <v>315</v>
       </c>
@@ -3186,7 +3210,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A166" t="s">
         <v>314</v>
       </c>
@@ -3194,7 +3218,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A167" t="s">
         <v>313</v>
       </c>
@@ -3202,7 +3226,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A168" t="s">
         <v>290</v>
       </c>
@@ -3210,7 +3234,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A169" t="s">
         <v>293</v>
       </c>
@@ -3218,7 +3242,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A170" t="s">
         <v>326</v>
       </c>
@@ -3226,7 +3250,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A171" t="s">
         <v>332</v>
       </c>
@@ -3234,7 +3258,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A172" t="s">
         <v>353</v>
       </c>
@@ -3242,7 +3266,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A173" t="s">
         <v>354</v>
       </c>
@@ -3250,7 +3274,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A174" t="s">
         <v>357</v>
       </c>
@@ -3258,7 +3282,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A175" t="s">
         <v>358</v>
       </c>
@@ -3266,7 +3290,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A176" t="s">
         <v>359</v>
       </c>
@@ -3274,7 +3298,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A177" t="s">
         <v>361</v>
       </c>
@@ -3282,7 +3306,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A178" t="s">
         <v>366</v>
       </c>
@@ -3290,7 +3314,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A179" t="s">
         <v>363</v>
       </c>
@@ -3298,7 +3322,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A180" t="s">
         <v>368</v>
       </c>
@@ -3306,7 +3330,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A181" t="s">
         <v>374</v>
       </c>
@@ -3314,7 +3338,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A182" t="s">
         <v>373</v>
       </c>
@@ -3322,7 +3346,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A183" t="s">
         <v>371</v>
       </c>
@@ -3330,7 +3354,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A184" t="s">
         <v>377</v>
       </c>
@@ -3338,7 +3362,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A185" t="s">
         <v>376</v>
       </c>
@@ -3346,7 +3370,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A186" t="s">
         <v>390</v>
       </c>
@@ -3354,7 +3378,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A187" t="s">
         <v>384</v>
       </c>
@@ -3362,7 +3386,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A188" t="s">
         <v>379</v>
       </c>
@@ -3370,7 +3394,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A189" t="s">
         <v>383</v>
       </c>
@@ -3378,7 +3402,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A190" t="s">
         <v>386</v>
       </c>
@@ -3386,7 +3410,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A191" t="s">
         <v>388</v>
       </c>
@@ -3394,7 +3418,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A192" t="s">
         <v>400</v>
       </c>
@@ -3402,7 +3426,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A193" t="s">
         <v>404</v>
       </c>
@@ -3410,7 +3434,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A194" t="s">
         <v>406</v>
       </c>
@@ -3418,7 +3442,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A195" t="s">
         <v>401</v>
       </c>
@@ -3426,7 +3450,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A196" t="s">
         <v>396</v>
       </c>
@@ -3434,7 +3458,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A197" t="s">
         <v>399</v>
       </c>
@@ -3442,7 +3466,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A198" t="s">
         <v>394</v>
       </c>
@@ -3450,7 +3474,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A199" t="s">
         <v>316</v>
       </c>
@@ -3458,7 +3482,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A200" t="s">
         <v>318</v>
       </c>
@@ -3466,7 +3490,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A201" t="s">
         <v>412</v>
       </c>
@@ -3474,7 +3498,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A202" t="s">
         <v>320</v>
       </c>
@@ -3482,7 +3506,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A203" t="s">
         <v>325</v>
       </c>
@@ -3490,7 +3514,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A204" t="s">
         <v>323</v>
       </c>
@@ -3498,7 +3522,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A205" t="s">
         <v>327</v>
       </c>
@@ -3506,7 +3530,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A206" t="s">
         <v>329</v>
       </c>
@@ -3514,7 +3538,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A207" t="s">
         <v>408</v>
       </c>
@@ -3522,7 +3546,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A208" t="s">
         <v>410</v>
       </c>
@@ -3530,7 +3554,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A209" t="s">
         <v>413</v>
       </c>
@@ -3538,7 +3562,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A210" t="s">
         <v>415</v>
       </c>
@@ -3546,7 +3570,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A211" t="s">
         <v>419</v>
       </c>
@@ -3554,7 +3578,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A212" t="s">
         <v>420</v>
       </c>
@@ -3562,7 +3586,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A213" t="s">
         <v>422</v>
       </c>
@@ -3570,7 +3594,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A214" t="s">
         <v>424</v>
       </c>
@@ -3578,7 +3602,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A215" t="s">
         <v>429</v>
       </c>
@@ -3586,7 +3610,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A216" t="s">
         <v>431</v>
       </c>
@@ -3594,7 +3618,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A217" t="s">
         <v>433</v>
       </c>
@@ -3602,7 +3626,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A218" t="s">
         <v>435</v>
       </c>
@@ -3610,7 +3634,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A219" t="s">
         <v>437</v>
       </c>
@@ -3618,7 +3642,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A220" t="s">
         <v>439</v>
       </c>
@@ -3626,7 +3650,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A221" t="s">
         <v>440</v>
       </c>
@@ -3634,7 +3658,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A222" t="s">
         <v>441</v>
       </c>
@@ -3642,7 +3666,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A223" t="s">
         <v>442</v>
       </c>
@@ -3650,7 +3674,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A224" t="s">
         <v>443</v>
       </c>
@@ -3658,7 +3682,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A225" t="s">
         <v>444</v>
       </c>
@@ -3666,7 +3690,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A226" t="s">
         <v>445</v>
       </c>
@@ -3674,7 +3698,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A227" t="s">
         <v>454</v>
       </c>
@@ -3682,7 +3706,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A228" t="s">
         <v>455</v>
       </c>
@@ -3690,7 +3714,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A229" t="s">
         <v>459</v>
       </c>
@@ -3698,12 +3722,44 @@
         <v>457</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A230" t="s">
         <v>460</v>
       </c>
       <c r="C230" t="s">
         <v>458</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.85">
+      <c r="A231" t="s">
+        <v>461</v>
+      </c>
+      <c r="C231" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.85">
+      <c r="A232" t="s">
+        <v>463</v>
+      </c>
+      <c r="C232" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.85">
+      <c r="A233" t="s">
+        <v>465</v>
+      </c>
+      <c r="C233" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.85">
+      <c r="A234" t="s">
+        <v>467</v>
+      </c>
+      <c r="C234" t="s">
+        <v>468</v>
       </c>
     </row>
   </sheetData>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AC41F8C8-D841-4956-8F81-B61C83BF0E05}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C89C98A0-2B9A-4E13-B3D5-B0E42C1DE51D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4967" windowWidth="12387" windowHeight="827" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5420" windowWidth="12387" windowHeight="827" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="471">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -1396,9 +1396,6 @@
     <t>involves providing a series of instructions for the computer to follow in the defined order</t>
   </si>
   <si>
-    <t>aims to combine data and the processes, that act on that data into objects which is called encapsulation</t>
-  </si>
-  <si>
     <t>Python | What is Imperative Stype of Programming? (start with "involves …")</t>
   </si>
   <si>
@@ -1427,6 +1424,15 @@
   </si>
   <si>
     <t>a variable bound to an instance of the class</t>
+  </si>
+  <si>
+    <t>Python | Why to use Static methods? (start with "because the static methods are...")</t>
+  </si>
+  <si>
+    <t>because the static names are local to the the classes in which they are coded</t>
+  </si>
+  <si>
+    <t>aims to combine data and the processes, that act on that data into objects, which is called encapsulation</t>
   </si>
 </sst>
 </file>
@@ -1831,10 +1837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D234"/>
+  <dimension ref="A1:D235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="A235" sqref="A235"/>
+    <sheetView tabSelected="1" topLeftCell="B221" workbookViewId="0">
+      <selection activeCell="C227" sqref="C227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
@@ -3716,7 +3722,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A229" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C229" t="s">
         <v>457</v>
@@ -3724,42 +3730,50 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A230" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C230" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A231" t="s">
+        <v>460</v>
+      </c>
+      <c r="C231" t="s">
         <v>461</v>
-      </c>
-      <c r="C231" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A232" t="s">
+        <v>462</v>
+      </c>
+      <c r="C232" t="s">
         <v>463</v>
-      </c>
-      <c r="C232" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A233" t="s">
+        <v>464</v>
+      </c>
+      <c r="C233" t="s">
         <v>465</v>
-      </c>
-      <c r="C233" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A234" t="s">
+        <v>466</v>
+      </c>
+      <c r="C234" t="s">
         <v>467</v>
       </c>
-      <c r="C234" t="s">
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.85">
+      <c r="A235" t="s">
         <v>468</v>
+      </c>
+      <c r="C235" t="s">
+        <v>469</v>
       </c>
     </row>
   </sheetData>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C89C98A0-2B9A-4E13-B3D5-B0E42C1DE51D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{328ED092-F9AB-466E-90B6-0D0C7A5EA16E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5420" windowWidth="12387" windowHeight="827" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5880" windowWidth="12384" windowHeight="828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1839,19 +1839,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B221" workbookViewId="0">
-      <selection activeCell="C227" sqref="C227"/>
+    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
+      <selection activeCell="C229" sqref="C229"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
+  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="91" customWidth="1"/>
-    <col min="2" max="2" width="17.41015625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="108.41015625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.52734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="108.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>240</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>127</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>135</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>137</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>143</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>145</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>151</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>159</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>164</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>165</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>167</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>169</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>171</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>173</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>175</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>177</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>179</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>181</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>183</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>185</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>187</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>189</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>191</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>193</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>195</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>197</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>199</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>201</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>203</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>205</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>207</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>209</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>211</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>336</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>333</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>334</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>335</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>337</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>338</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>339</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>340</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>221</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>223</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>225</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>227</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>229</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>231</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>233</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>341</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>342</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>343</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>243</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>295</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>298</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>427</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>300</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>344</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>345</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>346</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>347</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>278</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>279</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>280</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>244</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>245</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>246</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>247</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>249</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>250</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>252</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>265</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>266</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>267</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>268</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>269</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>270</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>305</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>304</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>306</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>307</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>271</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>288</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>287</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>286</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>285</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>289</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>312</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>311</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>309</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>308</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>315</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>314</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>313</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
         <v>290</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
         <v>293</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>326</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>332</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>353</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
         <v>354</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
         <v>357</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>358</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
         <v>359</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>361</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>366</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
         <v>363</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
         <v>368</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>374</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
         <v>373</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
         <v>371</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
         <v>377</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>376</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>390</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
         <v>384</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
         <v>379</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>383</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>386</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>388</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
         <v>400</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
         <v>404</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
         <v>406</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
         <v>401</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>396</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>399</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
         <v>394</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
         <v>316</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
         <v>318</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
         <v>412</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
         <v>320</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
         <v>325</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
         <v>323</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
         <v>327</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
         <v>329</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
         <v>408</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
         <v>410</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
         <v>413</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
         <v>415</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
         <v>419</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
         <v>420</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
         <v>422</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
         <v>424</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
         <v>429</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
         <v>431</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
         <v>433</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
         <v>435</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
         <v>437</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
         <v>439</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
         <v>440</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
         <v>441</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
         <v>442</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
         <v>443</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
         <v>444</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
         <v>445</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
         <v>454</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
         <v>455</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
         <v>458</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
         <v>459</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
         <v>460</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
         <v>462</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
         <v>464</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
         <v>466</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
         <v>468</v>
       </c>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{328ED092-F9AB-466E-90B6-0D0C7A5EA16E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E0839F32-E6F9-4FA0-B6CF-AC4984F9A5FA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5880" windowWidth="12384" windowHeight="828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6333" windowWidth="12387" windowHeight="827" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1429,10 +1429,10 @@
     <t>Python | Why to use Static methods? (start with "because the static methods are...")</t>
   </si>
   <si>
-    <t>because the static names are local to the the classes in which they are coded</t>
-  </si>
-  <si>
     <t>aims to combine data and the processes, that act on that data into objects, which is called encapsulation</t>
+  </si>
+  <si>
+    <t>because the static names are local to the classes in which they are coded</t>
   </si>
 </sst>
 </file>
@@ -1839,19 +1839,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="C229" sqref="C229"/>
+    <sheetView tabSelected="1" topLeftCell="B221" workbookViewId="0">
+      <selection activeCell="C235" sqref="C235"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
   <cols>
     <col min="1" max="1" width="91" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="108.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.41015625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="108.41015625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.52734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.6">
       <c r="A1" s="7" t="s">
         <v>240</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A64" t="s">
         <v>127</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A68" t="s">
         <v>135</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A69" t="s">
         <v>137</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A72" t="s">
         <v>143</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A73" t="s">
         <v>145</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A76" t="s">
         <v>151</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A80" t="s">
         <v>159</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A83" t="s">
         <v>164</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A84" t="s">
         <v>165</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A85" t="s">
         <v>167</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A86" t="s">
         <v>169</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A87" t="s">
         <v>171</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A88" t="s">
         <v>173</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A89" t="s">
         <v>175</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A90" t="s">
         <v>177</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A91" t="s">
         <v>179</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A92" t="s">
         <v>181</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A93" t="s">
         <v>183</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A94" t="s">
         <v>185</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A95" t="s">
         <v>187</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A96" t="s">
         <v>189</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A97" t="s">
         <v>191</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A98" t="s">
         <v>193</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A99" t="s">
         <v>195</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A100" t="s">
         <v>197</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A101" t="s">
         <v>199</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A102" t="s">
         <v>201</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A103" t="s">
         <v>203</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A104" t="s">
         <v>205</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A105" t="s">
         <v>207</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A106" t="s">
         <v>209</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A107" t="s">
         <v>211</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A108" t="s">
         <v>336</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A109" t="s">
         <v>333</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A110" t="s">
         <v>334</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A111" t="s">
         <v>335</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A112" t="s">
         <v>337</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A113" t="s">
         <v>338</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A114" t="s">
         <v>339</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A115" t="s">
         <v>340</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A116" t="s">
         <v>221</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A117" t="s">
         <v>223</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A118" t="s">
         <v>225</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A119" t="s">
         <v>227</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A120" t="s">
         <v>229</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A121" t="s">
         <v>231</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A122" t="s">
         <v>233</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A123" t="s">
         <v>341</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A124" t="s">
         <v>342</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A125" t="s">
         <v>343</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A126" t="s">
         <v>243</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A127" t="s">
         <v>295</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A128" t="s">
         <v>298</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A129" t="s">
         <v>427</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A130" t="s">
         <v>300</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A131" t="s">
         <v>344</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A132" t="s">
         <v>345</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A133" t="s">
         <v>346</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A134" t="s">
         <v>347</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A135" t="s">
         <v>278</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A136" t="s">
         <v>279</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A137" t="s">
         <v>280</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A138" t="s">
         <v>244</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A139" t="s">
         <v>245</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A140" t="s">
         <v>246</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A141" t="s">
         <v>247</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A142" t="s">
         <v>249</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A143" t="s">
         <v>250</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A144" t="s">
         <v>252</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A145" t="s">
         <v>265</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A146" t="s">
         <v>266</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A147" t="s">
         <v>267</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A148" t="s">
         <v>268</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A149" t="s">
         <v>269</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A150" t="s">
         <v>270</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A151" t="s">
         <v>305</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A152" t="s">
         <v>304</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A153" t="s">
         <v>306</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A154" t="s">
         <v>307</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A155" t="s">
         <v>271</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A156" t="s">
         <v>288</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A157" t="s">
         <v>287</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A158" t="s">
         <v>286</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A159" t="s">
         <v>285</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A160" t="s">
         <v>289</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A161" t="s">
         <v>312</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A162" t="s">
         <v>311</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A163" t="s">
         <v>309</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A164" t="s">
         <v>308</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A165" t="s">
         <v>315</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A166" t="s">
         <v>314</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A167" t="s">
         <v>313</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A168" t="s">
         <v>290</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A169" t="s">
         <v>293</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A170" t="s">
         <v>326</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A171" t="s">
         <v>332</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A172" t="s">
         <v>353</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A173" t="s">
         <v>354</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A174" t="s">
         <v>357</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A175" t="s">
         <v>358</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A176" t="s">
         <v>359</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A177" t="s">
         <v>361</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A178" t="s">
         <v>366</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A179" t="s">
         <v>363</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A180" t="s">
         <v>368</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A181" t="s">
         <v>374</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A182" t="s">
         <v>373</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A183" t="s">
         <v>371</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A184" t="s">
         <v>377</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A185" t="s">
         <v>376</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A186" t="s">
         <v>390</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A187" t="s">
         <v>384</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A188" t="s">
         <v>379</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A189" t="s">
         <v>383</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A190" t="s">
         <v>386</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A191" t="s">
         <v>388</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A192" t="s">
         <v>400</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A193" t="s">
         <v>404</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A194" t="s">
         <v>406</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A195" t="s">
         <v>401</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A196" t="s">
         <v>396</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A197" t="s">
         <v>399</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A198" t="s">
         <v>394</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A199" t="s">
         <v>316</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A200" t="s">
         <v>318</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A201" t="s">
         <v>412</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A202" t="s">
         <v>320</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A203" t="s">
         <v>325</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A204" t="s">
         <v>323</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A205" t="s">
         <v>327</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A206" t="s">
         <v>329</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A207" t="s">
         <v>408</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A208" t="s">
         <v>410</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A209" t="s">
         <v>413</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A210" t="s">
         <v>415</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A211" t="s">
         <v>419</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A212" t="s">
         <v>420</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A213" t="s">
         <v>422</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A214" t="s">
         <v>424</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A215" t="s">
         <v>429</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A216" t="s">
         <v>431</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A217" t="s">
         <v>433</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A218" t="s">
         <v>435</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A219" t="s">
         <v>437</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A220" t="s">
         <v>439</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A221" t="s">
         <v>440</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A222" t="s">
         <v>441</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A223" t="s">
         <v>442</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A224" t="s">
         <v>443</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A225" t="s">
         <v>444</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A226" t="s">
         <v>445</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A227" t="s">
         <v>454</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A228" t="s">
         <v>455</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A229" t="s">
         <v>458</v>
       </c>
@@ -3728,15 +3728,15 @@
         <v>457</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A230" t="s">
         <v>459</v>
       </c>
       <c r="C230" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A231" t="s">
         <v>460</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A232" t="s">
         <v>462</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A233" t="s">
         <v>464</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A234" t="s">
         <v>466</v>
       </c>
@@ -3768,12 +3768,12 @@
         <v>467</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A235" t="s">
         <v>468</v>
       </c>
       <c r="C235" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E0839F32-E6F9-4FA0-B6CF-AC4984F9A5FA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0436890A-0C49-4E81-A9B1-86F3B17FB717}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6333" windowWidth="12387" windowHeight="827" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6787" windowWidth="12387" windowHeight="827" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1426,13 +1426,13 @@
     <t>a variable bound to an instance of the class</t>
   </si>
   <si>
-    <t>Python | Why to use Static methods? (start with "because the static methods are...")</t>
-  </si>
-  <si>
     <t>aims to combine data and the processes, that act on that data into objects, which is called encapsulation</t>
   </si>
   <si>
     <t>because the static names are local to the classes in which they are coded</t>
+  </si>
+  <si>
+    <t>Python | Why to use Static methods? (start with "because the static names are...")</t>
   </si>
 </sst>
 </file>
@@ -1839,8 +1839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B221" workbookViewId="0">
-      <selection activeCell="C235" sqref="C235"/>
+    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
+      <selection activeCell="A235" sqref="A235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
@@ -3733,7 +3733,7 @@
         <v>459</v>
       </c>
       <c r="C230" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.85">
@@ -3770,10 +3770,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A235" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C235" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0436890A-0C49-4E81-A9B1-86F3B17FB717}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CA438260-88E9-47D4-B488-4B76AC5C4056}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6787" windowWidth="12387" windowHeight="827" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="7248" windowWidth="12384" windowHeight="828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="475">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -1433,6 +1433,18 @@
   </si>
   <si>
     <t>Python | Why to use Static methods? (start with "because the static names are...")</t>
+  </si>
+  <si>
+    <t>from left to right, returns first one that is true</t>
+  </si>
+  <si>
+    <t>Python | Continue statement: "For boolean `or` operator, Python evaluates …, returns"</t>
+  </si>
+  <si>
+    <t>Python | Continue statement: "For boolean `and` operator, Python evaluates …, returns"</t>
+  </si>
+  <si>
+    <t>from left to right, returns left operand if it is false, otherwise returns right operand</t>
   </si>
 </sst>
 </file>
@@ -1837,21 +1849,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D235"/>
+  <dimension ref="A1:D237"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="A235" sqref="A235"/>
+      <selection activeCell="C221" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
+  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="91" customWidth="1"/>
-    <col min="2" max="2" width="17.41015625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="108.41015625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.52734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="108.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>240</v>
       </c>
@@ -1861,7 +1873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1875,7 +1887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1889,7 +1901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1901,7 +1913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1915,7 +1927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1929,7 +1941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1943,7 +1955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1954,7 +1966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1965,7 +1977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1976,7 +1988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1984,7 +1996,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1992,7 +2004,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -2000,7 +2012,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -2008,7 +2020,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -2016,7 +2028,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -2024,7 +2036,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -2032,7 +2044,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -2040,7 +2052,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -2048,7 +2060,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -2056,7 +2068,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -2064,7 +2076,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -2072,7 +2084,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -2080,7 +2092,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -2088,7 +2100,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -2096,7 +2108,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -2104,7 +2116,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -2112,7 +2124,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -2120,7 +2132,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -2128,7 +2140,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -2136,7 +2148,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -2144,7 +2156,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -2152,7 +2164,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -2160,7 +2172,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -2168,7 +2180,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -2176,7 +2188,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -2184,7 +2196,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -2192,7 +2204,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -2200,7 +2212,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -2208,7 +2220,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -2216,7 +2228,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -2224,7 +2236,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -2232,7 +2244,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -2240,7 +2252,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -2248,7 +2260,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -2256,7 +2268,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -2264,7 +2276,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -2272,7 +2284,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -2280,7 +2292,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -2288,7 +2300,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -2296,7 +2308,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -2304,7 +2316,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -2312,7 +2324,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -2320,7 +2332,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -2328,7 +2340,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -2336,7 +2348,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -2344,7 +2356,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -2352,7 +2364,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -2360,7 +2372,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -2368,7 +2380,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -2376,7 +2388,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -2384,7 +2396,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -2392,7 +2404,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -2400,7 +2412,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>127</v>
       </c>
@@ -2408,7 +2420,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -2416,7 +2428,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -2424,7 +2436,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -2432,7 +2444,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>135</v>
       </c>
@@ -2440,7 +2452,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>137</v>
       </c>
@@ -2448,7 +2460,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -2456,7 +2468,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -2464,7 +2476,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>143</v>
       </c>
@@ -2472,7 +2484,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>145</v>
       </c>
@@ -2480,7 +2492,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -2488,7 +2500,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -2496,7 +2508,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>151</v>
       </c>
@@ -2504,7 +2516,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -2512,7 +2524,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -2520,7 +2532,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -2528,7 +2540,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>159</v>
       </c>
@@ -2536,7 +2548,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -2544,7 +2556,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -2552,7 +2564,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>164</v>
       </c>
@@ -2560,7 +2572,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>165</v>
       </c>
@@ -2568,7 +2580,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>167</v>
       </c>
@@ -2576,7 +2588,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>169</v>
       </c>
@@ -2584,7 +2596,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>171</v>
       </c>
@@ -2592,7 +2604,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>173</v>
       </c>
@@ -2600,7 +2612,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>175</v>
       </c>
@@ -2608,7 +2620,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>177</v>
       </c>
@@ -2616,7 +2628,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>179</v>
       </c>
@@ -2624,7 +2636,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>181</v>
       </c>
@@ -2632,7 +2644,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>183</v>
       </c>
@@ -2640,7 +2652,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>185</v>
       </c>
@@ -2648,7 +2660,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>187</v>
       </c>
@@ -2656,7 +2668,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>189</v>
       </c>
@@ -2664,7 +2676,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>191</v>
       </c>
@@ -2672,7 +2684,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>193</v>
       </c>
@@ -2680,7 +2692,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>195</v>
       </c>
@@ -2688,7 +2700,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>197</v>
       </c>
@@ -2696,7 +2708,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>199</v>
       </c>
@@ -2704,7 +2716,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>201</v>
       </c>
@@ -2712,7 +2724,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>203</v>
       </c>
@@ -2720,7 +2732,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>205</v>
       </c>
@@ -2728,7 +2740,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>207</v>
       </c>
@@ -2736,7 +2748,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>209</v>
       </c>
@@ -2744,7 +2756,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>211</v>
       </c>
@@ -2752,7 +2764,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>336</v>
       </c>
@@ -2760,7 +2772,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>333</v>
       </c>
@@ -2768,7 +2780,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>334</v>
       </c>
@@ -2776,7 +2788,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>335</v>
       </c>
@@ -2784,7 +2796,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>337</v>
       </c>
@@ -2792,7 +2804,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>338</v>
       </c>
@@ -2800,7 +2812,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>339</v>
       </c>
@@ -2808,7 +2820,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>340</v>
       </c>
@@ -2816,7 +2828,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>221</v>
       </c>
@@ -2824,7 +2836,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>223</v>
       </c>
@@ -2832,7 +2844,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>225</v>
       </c>
@@ -2840,7 +2852,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>227</v>
       </c>
@@ -2848,7 +2860,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>229</v>
       </c>
@@ -2856,7 +2868,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>231</v>
       </c>
@@ -2864,7 +2876,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>233</v>
       </c>
@@ -2872,7 +2884,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>341</v>
       </c>
@@ -2880,7 +2892,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>342</v>
       </c>
@@ -2888,7 +2900,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>343</v>
       </c>
@@ -2896,7 +2908,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>243</v>
       </c>
@@ -2904,7 +2916,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>295</v>
       </c>
@@ -2912,7 +2924,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>298</v>
       </c>
@@ -2920,7 +2932,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>427</v>
       </c>
@@ -2928,7 +2940,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>300</v>
       </c>
@@ -2936,7 +2948,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>344</v>
       </c>
@@ -2944,7 +2956,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>345</v>
       </c>
@@ -2952,7 +2964,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>346</v>
       </c>
@@ -2960,7 +2972,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>347</v>
       </c>
@@ -2968,7 +2980,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>278</v>
       </c>
@@ -2976,7 +2988,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>279</v>
       </c>
@@ -2984,7 +2996,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>280</v>
       </c>
@@ -2992,7 +3004,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>244</v>
       </c>
@@ -3000,7 +3012,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>245</v>
       </c>
@@ -3008,7 +3020,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>246</v>
       </c>
@@ -3016,7 +3028,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>247</v>
       </c>
@@ -3024,7 +3036,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>249</v>
       </c>
@@ -3032,7 +3044,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>250</v>
       </c>
@@ -3040,7 +3052,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>252</v>
       </c>
@@ -3048,7 +3060,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>265</v>
       </c>
@@ -3056,7 +3068,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>266</v>
       </c>
@@ -3064,7 +3076,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>267</v>
       </c>
@@ -3072,7 +3084,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>268</v>
       </c>
@@ -3080,7 +3092,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>269</v>
       </c>
@@ -3088,7 +3100,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>270</v>
       </c>
@@ -3096,7 +3108,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>305</v>
       </c>
@@ -3104,7 +3116,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>304</v>
       </c>
@@ -3112,7 +3124,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>306</v>
       </c>
@@ -3120,7 +3132,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>307</v>
       </c>
@@ -3128,7 +3140,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>271</v>
       </c>
@@ -3136,7 +3148,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>288</v>
       </c>
@@ -3144,7 +3156,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>287</v>
       </c>
@@ -3152,7 +3164,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>286</v>
       </c>
@@ -3160,7 +3172,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>285</v>
       </c>
@@ -3168,7 +3180,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>289</v>
       </c>
@@ -3176,7 +3188,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>312</v>
       </c>
@@ -3184,7 +3196,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>311</v>
       </c>
@@ -3192,7 +3204,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>309</v>
       </c>
@@ -3200,7 +3212,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>308</v>
       </c>
@@ -3208,7 +3220,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>315</v>
       </c>
@@ -3216,7 +3228,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>314</v>
       </c>
@@ -3224,7 +3236,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>313</v>
       </c>
@@ -3232,7 +3244,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
         <v>290</v>
       </c>
@@ -3240,7 +3252,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
         <v>293</v>
       </c>
@@ -3248,7 +3260,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>326</v>
       </c>
@@ -3256,7 +3268,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>332</v>
       </c>
@@ -3264,7 +3276,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>353</v>
       </c>
@@ -3272,7 +3284,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
         <v>354</v>
       </c>
@@ -3280,7 +3292,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
         <v>357</v>
       </c>
@@ -3288,7 +3300,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>358</v>
       </c>
@@ -3296,7 +3308,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
         <v>359</v>
       </c>
@@ -3304,7 +3316,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>361</v>
       </c>
@@ -3312,7 +3324,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>366</v>
       </c>
@@ -3320,7 +3332,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
         <v>363</v>
       </c>
@@ -3328,7 +3340,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
         <v>368</v>
       </c>
@@ -3336,7 +3348,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>374</v>
       </c>
@@ -3344,7 +3356,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
         <v>373</v>
       </c>
@@ -3352,7 +3364,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
         <v>371</v>
       </c>
@@ -3360,7 +3372,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
         <v>377</v>
       </c>
@@ -3368,7 +3380,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>376</v>
       </c>
@@ -3376,7 +3388,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>390</v>
       </c>
@@ -3384,7 +3396,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
         <v>384</v>
       </c>
@@ -3392,7 +3404,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
         <v>379</v>
       </c>
@@ -3400,7 +3412,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>383</v>
       </c>
@@ -3408,7 +3420,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>386</v>
       </c>
@@ -3416,7 +3428,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>388</v>
       </c>
@@ -3424,7 +3436,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
         <v>400</v>
       </c>
@@ -3432,7 +3444,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
         <v>404</v>
       </c>
@@ -3440,7 +3452,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
         <v>406</v>
       </c>
@@ -3448,7 +3460,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
         <v>401</v>
       </c>
@@ -3456,7 +3468,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>396</v>
       </c>
@@ -3464,7 +3476,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>399</v>
       </c>
@@ -3472,7 +3484,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
         <v>394</v>
       </c>
@@ -3480,7 +3492,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
         <v>316</v>
       </c>
@@ -3488,7 +3500,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
         <v>318</v>
       </c>
@@ -3496,7 +3508,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
         <v>412</v>
       </c>
@@ -3504,7 +3516,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
         <v>320</v>
       </c>
@@ -3512,7 +3524,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
         <v>325</v>
       </c>
@@ -3520,7 +3532,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
         <v>323</v>
       </c>
@@ -3528,7 +3540,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
         <v>327</v>
       </c>
@@ -3536,7 +3548,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
         <v>329</v>
       </c>
@@ -3544,7 +3556,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
         <v>408</v>
       </c>
@@ -3552,7 +3564,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
         <v>410</v>
       </c>
@@ -3560,7 +3572,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
         <v>413</v>
       </c>
@@ -3568,7 +3580,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
         <v>415</v>
       </c>
@@ -3576,7 +3588,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
         <v>419</v>
       </c>
@@ -3584,7 +3596,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
         <v>420</v>
       </c>
@@ -3592,7 +3604,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
         <v>422</v>
       </c>
@@ -3600,7 +3612,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
         <v>424</v>
       </c>
@@ -3608,7 +3620,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
         <v>429</v>
       </c>
@@ -3616,7 +3628,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
         <v>431</v>
       </c>
@@ -3624,7 +3636,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
         <v>433</v>
       </c>
@@ -3632,7 +3644,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
         <v>435</v>
       </c>
@@ -3640,7 +3652,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
         <v>437</v>
       </c>
@@ -3648,7 +3660,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
         <v>439</v>
       </c>
@@ -3656,7 +3668,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
         <v>440</v>
       </c>
@@ -3664,7 +3676,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
         <v>441</v>
       </c>
@@ -3672,7 +3684,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
         <v>442</v>
       </c>
@@ -3680,7 +3692,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
         <v>443</v>
       </c>
@@ -3688,7 +3700,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
         <v>444</v>
       </c>
@@ -3696,7 +3708,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
         <v>445</v>
       </c>
@@ -3704,7 +3716,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
         <v>454</v>
       </c>
@@ -3712,7 +3724,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
         <v>455</v>
       </c>
@@ -3720,7 +3732,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
         <v>458</v>
       </c>
@@ -3728,7 +3740,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
         <v>459</v>
       </c>
@@ -3736,7 +3748,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
         <v>460</v>
       </c>
@@ -3744,7 +3756,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
         <v>462</v>
       </c>
@@ -3752,7 +3764,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
         <v>464</v>
       </c>
@@ -3760,7 +3772,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
         <v>466</v>
       </c>
@@ -3768,12 +3780,28 @@
         <v>467</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
         <v>470</v>
       </c>
       <c r="C235" t="s">
         <v>469</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A236" t="s">
+        <v>472</v>
+      </c>
+      <c r="C236" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A237" t="s">
+        <v>473</v>
+      </c>
+      <c r="C237" t="s">
+        <v>474</v>
       </c>
     </row>
   </sheetData>

--- a/NPDESI EnEn.xlsx
+++ b/NPDESI EnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CA438260-88E9-47D4-B488-4B76AC5C4056}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{28F4AF81-6041-47B9-B9D8-2A2BBCBD0500}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7248" windowWidth="12384" windowHeight="828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="7700" windowWidth="12387" windowHeight="827" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="477">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -1445,6 +1445,12 @@
   </si>
   <si>
     <t>from left to right, returns left operand if it is false, otherwise returns right operand</t>
+  </si>
+  <si>
+    <t>Core Software Development | What are the main types of design patterns in software engineering?</t>
+  </si>
+  <si>
+    <t>creational, structural, behavioral</t>
   </si>
 </sst>
 </file>
@@ -1849,21 +1855,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D237"/>
+  <dimension ref="A1:D238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="C221" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="A236" sqref="A236"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
   <cols>
     <col min="1" max="1" width="91" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="108.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.41015625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="108.41015625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.52734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.6">
       <c r="A1" s="7" t="s">
         <v>240</v>
       </c>
@@ -1873,7 +1879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1887,7 +1893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1901,7 +1907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1913,7 +1919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1927,7 +1933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1941,7 +1947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1955,7 +1961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1966,7 +1972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1977,7 +1983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1988,7 +1994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1996,7 +2002,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -2004,7 +2010,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -2012,7 +2018,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -2020,7 +2026,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -2028,7 +2034,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -2036,7 +2042,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -2044,7 +2050,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -2052,7 +2058,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -2060,7 +2066,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -2068,7 +2074,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -2076,7 +2082,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -2084,7 +2090,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -2092,7 +2098,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -2100,7 +2106,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -2108,7 +2114,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -2116,7 +2122,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -2124,7 +2130,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -2132,7 +2138,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -2140,7 +2146,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -2148,7 +2154,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -2156,7 +2162,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -2164,7 +2170,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -2172,7 +2178,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -2180,7 +2186,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -2188,7 +2194,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -2196,7 +2202,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -2204,7 +2210,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -2212,7 +2218,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -2220,7 +2226,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -2228,7 +2234,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -2236,7 +2242,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -2244,7 +2250,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -2252,7 +2258,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -2260,7 +2266,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -2268,7 +2274,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -2276,7 +2282,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -2284,7 +2290,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -2292,7 +2298,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -2300,7 +2306,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -2308,7 +2314,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -2316,7 +2322,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -2324,7 +2330,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -2332,7 +2338,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -2340,7 +2346,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -2348,7 +2354,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -2356,7 +2362,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -2364,7 +2370,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -2372,7 +2378,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -2380,7 +2386,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -2388,7 +2394,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -2396,7 +2402,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -2404,7 +2410,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -2412,7 +2418,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A64" t="s">
         <v>127</v>
       </c>
@@ -2420,7 +2426,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -2428,7 +2434,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -2436,7 +2442,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -2444,7 +2450,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A68" t="s">
         <v>135</v>
       </c>
@@ -2452,7 +2458,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A69" t="s">
         <v>137</v>
       </c>
@@ -2460,7 +2466,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -2468,7 +2474,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -2476,7 +2482,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A72" t="s">
         <v>143</v>
       </c>
@@ -2484,7 +2490,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A73" t="s">
         <v>145</v>
       </c>
@@ -2492,7 +2498,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -2500,7 +2506,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -2508,7 +2514,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A76" t="s">
         <v>151</v>
       </c>
@@ -2516,7 +2522,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -2524,7 +2530,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -2532,7 +2538,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -2540,7 +2546,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A80" t="s">
         <v>159</v>
       </c>
@@ -2548,7 +2554,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -2556,7 +2562,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -2564,7 +2570,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A83" t="s">
         <v>164</v>
       </c>
@@ -2572,7 +2578,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A84" t="s">
         <v>165</v>
       </c>
@@ -2580,7 +2586,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A85" t="s">
         <v>167</v>
       </c>
@@ -2588,7 +2594,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A86" t="s">
         <v>169</v>
       </c>
@@ -2596,7 +2602,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A87" t="s">
         <v>171</v>
       </c>
@@ -2604,7 +2610,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A88" t="s">
         <v>173</v>
       </c>
@@ -2612,7 +2618,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A89" t="s">
         <v>175</v>
       </c>
@@ -2620,7 +2626,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A90" t="s">
         <v>177</v>
       </c>
@@ -2628,7 +2634,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A91" t="s">
         <v>179</v>
       </c>
@@ -2636,7 +2642,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A92" t="s">
         <v>181</v>
       </c>
@@ -2644,7 +2650,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A93" t="s">
         <v>183</v>
       </c>
@@ -2652,7 +2658,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A94" t="s">
         <v>185</v>
       </c>
@@ -2660,7 +2666,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A95" t="s">
         <v>187</v>
       </c>
@@ -2668,7 +2674,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A96" t="s">
         <v>189</v>
       </c>
@@ -2676,7 +2682,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A97" t="s">
         <v>191</v>
       </c>
@@ -2684,7 +2690,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A98" t="s">
         <v>193</v>
       </c>
@@ -2692,7 +2698,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A99" t="s">
         <v>195</v>
       </c>
@@ -2700,7 +2706,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A100" t="s">
         <v>197</v>
       </c>
@@ -2708,7 +2714,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A101" t="s">
         <v>199</v>
       </c>
@@ -2716,7 +2722,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A102" t="s">
         <v>201</v>
       </c>
@@ -2724,7 +2730,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A103" t="s">
         <v>203</v>
       </c>
@@ -2732,7 +2738,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A104" t="s">
         <v>205</v>
       </c>
@@ -2740,7 +2746,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A105" t="s">
         <v>207</v>
       </c>
@@ -2748,7 +2754,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A106" t="s">
         <v>209</v>
       </c>
@@ -2756,7 +2762,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A107" t="s">
         <v>211</v>
       </c>
@@ -2764,7 +2770,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A108" t="s">
         <v>336</v>
       </c>
@@ -2772,7 +2778,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A109" t="s">
         <v>333</v>
       </c>
@@ -2780,7 +2786,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A110" t="s">
         <v>334</v>
       </c>
@@ -2788,7 +2794,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A111" t="s">
         <v>335</v>
       </c>
@@ -2796,7 +2802,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A112" t="s">
         <v>337</v>
       </c>
@@ -2804,7 +2810,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A113" t="s">
         <v>338</v>
       </c>
@@ -2812,7 +2818,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A114" t="s">
         <v>339</v>
       </c>
@@ -2820,7 +2826,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A115" t="s">
         <v>340</v>
       </c>
@@ -2828,7 +2834,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A116" t="s">
         <v>221</v>
       </c>
@@ -2836,7 +2842,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A117" t="s">
         <v>223</v>
       </c>
@@ -2844,7 +2850,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A118" t="s">
         <v>225</v>
       </c>
@@ -2852,7 +2858,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A119" t="s">
         <v>227</v>
       </c>
@@ -2860,7 +2866,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A120" t="s">
         <v>229</v>
       </c>
@@ -2868,7 +2874,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A121" t="s">
         <v>231</v>
       </c>
@@ -2876,7 +2882,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A122" t="s">
         <v>233</v>
       </c>
@@ -2884,7 +2890,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A123" t="s">
         <v>341</v>
       </c>
@@ -2892,7 +2898,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A124" t="s">
         <v>342</v>
       </c>
@@ -2900,7 +2906,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A125" t="s">
         <v>343</v>
       </c>
@@ -2908,7 +2914,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A126" t="s">
         <v>243</v>
       </c>
@@ -2916,7 +2922,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A127" t="s">
         <v>295</v>
       </c>
@@ -2924,7 +2930,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A128" t="s">
         <v>298</v>
       </c>
@@ -2932,7 +2938,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A129" t="s">
         <v>427</v>
       </c>
@@ -2940,7 +2946,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A130" t="s">
         <v>300</v>
       </c>
@@ -2948,7 +2954,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A131" t="s">
         <v>344</v>
       </c>
@@ -2956,7 +2962,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A132" t="s">
         <v>345</v>
       </c>
@@ -2964,7 +2970,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A133" t="s">
         <v>346</v>
       </c>
@@ -2972,7 +2978,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A134" t="s">
         <v>347</v>
       </c>
@@ -2980,7 +2986,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A135" t="s">
         <v>278</v>
       </c>
@@ -2988,7 +2994,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A136" t="s">
         <v>279</v>
       </c>
@@ -2996,7 +3002,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A137" t="s">
         <v>280</v>
       </c>
@@ -3004,7 +3010,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A138" t="s">
         <v>244</v>
       </c>
@@ -3012,7 +3018,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A139" t="s">
         <v>245</v>
       </c>
@@ -3020,7 +3026,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A140" t="s">
         <v>246</v>
       </c>
@@ -3028,7 +3034,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A141" t="s">
         <v>247</v>
       </c>
@@ -3036,7 +3042,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A142" t="s">
         <v>249</v>
       </c>
@@ -3044,7 +3050,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A143" t="s">
         <v>250</v>
       </c>
@@ -3052,7 +3058,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A144" t="s">
         <v>252</v>
       </c>
@@ -3060,7 +3066,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A145" t="s">
         <v>265</v>
       </c>
@@ -3068,7 +3074,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A146" t="s">
         <v>266</v>
       </c>
@@ -3076,7 +3082,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A147" t="s">
         <v>267</v>
       </c>
@@ -3084,7 +3090,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A148" t="s">
         <v>268</v>
       </c>
@@ -3092,7 +3098,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A149" t="s">
         <v>269</v>
       </c>
@@ -3100,7 +3106,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A150" t="s">
         <v>270</v>
       </c>
@@ -3108,7 +3114,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A151" t="s">
         <v>305</v>
       </c>
@@ -3116,7 +3122,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A152" t="s">
         <v>304</v>
       </c>
@@ -3124,7 +3130,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A153" t="s">
         <v>306</v>
       </c>
@@ -3132,7 +3138,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A154" t="s">
         <v>307</v>
       </c>
@@ -3140,7 +3146,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A155" t="s">
         <v>271</v>
       </c>
@@ -3148,7 +3154,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A156" t="s">
         <v>288</v>
       </c>
@@ -3156,7 +3162,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A157" t="s">
         <v>287</v>
       </c>
@@ -3164,7 +3170,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A158" t="s">
         <v>286</v>
       </c>
@@ -3172,7 +3178,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A159" t="s">
         <v>285</v>
       </c>
@@ -3180,7 +3186,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A160" t="s">
         <v>289</v>
       </c>
@@ -3188,7 +3194,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A161" t="s">
         <v>312</v>
       </c>
@@ -3196,7 +3202,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A162" t="s">
         <v>311</v>
       </c>
@@ -3204,7 +3210,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A163" t="s">
         <v>309</v>
       </c>
@@ -3212,7 +3218,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A164" t="s">
         <v>308</v>
       </c>
@@ -3220,7 +3226,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A165" t="s">
         <v>315</v>
       </c>
@@ -3228,7 +3234,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A166" t="s">
         <v>314</v>
       </c>
@@ -3236,7 +3242,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A167" t="s">
         <v>313</v>
       </c>
@@ -3244,7 +3250,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A168" t="s">
         <v>290</v>
       </c>
@@ -3252,7 +3258,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A169" t="s">
         <v>293</v>
       </c>
@@ -3260,7 +3266,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A170" t="s">
         <v>326</v>
       </c>
@@ -3268,7 +3274,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A171" t="s">
         <v>332</v>
       </c>
@@ -3276,7 +3282,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A172" t="s">
         <v>353</v>
       </c>
@@ -3284,7 +3290,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A173" t="s">
         <v>354</v>
       </c>
@@ -3292,7 +3298,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A174" t="s">
         <v>357</v>
       </c>
@@ -3300,7 +3306,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A175" t="s">
         <v>358</v>
       </c>
@@ -3308,7 +3314,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A176" t="s">
         <v>359</v>
       </c>
@@ -3316,7 +3322,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A177" t="s">
         <v>361</v>
       </c>
@@ -3324,7 +3330,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A178" t="s">
         <v>366</v>
       </c>
@@ -3332,7 +3338,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A179" t="s">
         <v>363</v>
       </c>
@@ -3340,7 +3346,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A180" t="s">
         <v>368</v>
       </c>
@@ -3348,7 +3354,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A181" t="s">
         <v>374</v>
       </c>
@@ -3356,7 +3362,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A182" t="s">
         <v>373</v>
       </c>
@@ -3364,7 +3370,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A183" t="s">
         <v>371</v>
       </c>
@@ -3372,7 +3378,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A184" t="s">
         <v>377</v>
       </c>
@@ -3380,7 +3386,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A185" t="s">
         <v>376</v>
       </c>
@@ -3388,7 +3394,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A186" t="s">
         <v>390</v>
       </c>
@@ -3396,7 +3402,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A187" t="s">
         <v>384</v>
       </c>
@@ -3404,7 +3410,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A188" t="s">
         <v>379</v>
       </c>
@@ -3412,7 +3418,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A189" t="s">
         <v>383</v>
       </c>
@@ -3420,7 +3426,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A190" t="s">
         <v>386</v>
       </c>
@@ -3428,7 +3434,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A191" t="s">
         <v>388</v>
       </c>
@@ -3436,7 +3442,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A192" t="s">
         <v>400</v>
       </c>
@@ -3444,7 +3450,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A193" t="s">
         <v>404</v>
       </c>
@@ -3452,7 +3458,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A194" t="s">
         <v>406</v>
       </c>
@@ -3460,7 +3466,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A195" t="s">
         <v>401</v>
       </c>
@@ -3468,7 +3474,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A196" t="s">
         <v>396</v>
       </c>
@@ -3476,7 +3482,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A197" t="s">
         <v>399</v>
       </c>
@@ -3484,7 +3490,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A198" t="s">
         <v>394</v>
       </c>
@@ -3492,7 +3498,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A199" t="s">
         <v>316</v>
       </c>
@@ -3500,7 +3506,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A200" t="s">
         <v>318</v>
       </c>
@@ -3508,7 +3514,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A201" t="s">
         <v>412</v>
       </c>
@@ -3516,7 +3522,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A202" t="s">
         <v>320</v>
       </c>
@@ -3524,7 +3530,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A203" t="s">
         <v>325</v>
       </c>
@@ -3532,7 +3538,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A204" t="s">
         <v>323</v>
       </c>
@@ -3540,7 +3546,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A205" t="s">
         <v>327</v>
       </c>
@@ -3548,7 +3554,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A206" t="s">
         <v>329</v>
       </c>
@@ -3556,7 +3562,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A207" t="s">
         <v>408</v>
       </c>
@@ -3564,7 +3570,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A208" t="s">
         <v>410</v>
       </c>
@@ -3572,7 +3578,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A209" t="s">
         <v>413</v>
       </c>
@@ -3580,7 +3586,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A210" t="s">
         <v>415</v>
       </c>
@@ -3588,7 +3594,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A211" t="s">
         <v>419</v>
       </c>
@@ -3596,7 +3602,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A212" t="s">
         <v>420</v>
       </c>
@@ -3604,7 +3610,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A213" t="s">
         <v>422</v>
       </c>
@@ -3612,7 +3618,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A214" t="s">
         <v>424</v>
       </c>
@@ -3620,7 +3626,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A215" t="s">
         <v>429</v>
       </c>
@@ -3628,7 +3634,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A216" t="s">
         <v>431</v>
       </c>
@@ -3636,7 +3642,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A217" t="s">
         <v>433</v>
       </c>
@@ -3644,7 +3650,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A218" t="s">
         <v>435</v>
       </c>
@@ -3652,7 +3658,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A219" t="s">
         <v>437</v>
       </c>
@@ -3660,7 +3666,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A220" t="s">
         <v>439</v>
       </c>
@@ -3668,7 +3674,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A221" t="s">
         <v>440</v>
       </c>
@@ -3676,7 +3682,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A222" t="s">
         <v>441</v>
       </c>
@@ -3684,7 +3690,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A223" t="s">
         <v>442</v>
       </c>
@@ -3692,7 +3698,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A224" t="s">
         <v>443</v>
       </c>
@@ -3700,7 +3706,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A225" t="s">
         <v>444</v>
       </c>
@@ -3708,7 +3714,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A226" t="s">
         <v>445</v>
       </c>
@@ -3716,7 +3722,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A227" t="s">
         <v>454</v>
       </c>
@@ -3724,7 +3730,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A228" t="s">
         <v>455</v>
       </c>
@@ -3732,7 +3738,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A229" t="s">
         <v>458</v>
       </c>
@@ -3740,7 +3746,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A230" t="s">
         <v>459</v>
       </c>
@@ -3748,7 +3754,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A231" t="s">
         <v>460</v>
       </c>
@@ -3756,7 +3762,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A232" t="s">
         <v>462</v>
       </c>
@@ -3764,7 +3770,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A233" t="s">
         <v>464</v>
       </c>
@@ -3772,7 +3778,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A234" t="s">
         <v>466</v>
       </c>
@@ -3780,7 +3786,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A235" t="s">
         <v>470</v>
       </c>
@@ -3788,7 +3794,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A236" t="s">
         <v>472</v>
       </c>
@@ -3796,12 +3802,20 @@
         <v>471</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A237" t="s">
         <v>473</v>
       </c>
       <c r="C237" t="s">
         <v>474</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.85">
+      <c r="A238" t="s">
+        <v>475</v>
+      </c>
+      <c r="C238" t="s">
+        <v>476</v>
       </c>
     </row>
   </sheetData>
